--- a/app/skinGui/iniGenerators/rightLeg_Upper_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Upper_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="4614A" sheetId="1" r:id="rId1"/>
@@ -16694,8 +16694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21891,7 +21891,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22132,7 +22132,7 @@
       </c>
       <c r="D7" s="64">
         <f>((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
-        <v>277.712812921102</v>
+        <v>332.712812921102</v>
       </c>
       <c r="E7" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
@@ -22186,7 +22186,7 @@
       </c>
       <c r="D8" s="64">
         <f>((O8*SIN($N$3)+P8*COS($N$3)+$N$9)*$R$4)</f>
-        <v>286.95041722813596</v>
+        <v>341.95041722813596</v>
       </c>
       <c r="E8" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M8/3.1416*180)+$N$5)</f>
@@ -22240,7 +22240,7 @@
       </c>
       <c r="D9" s="64">
         <f>((O9*SIN($N$3)+P9*COS($N$3)+$N$9)*$R$4)</f>
-        <v>305.425625842204</v>
+        <v>360.425625842204</v>
       </c>
       <c r="E9" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M9/3.1416*180)+$N$5)</f>
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="D10" s="64">
         <f>((O10*SIN($N$3)+P10*COS($N$3)+$N$9)*$R$4)</f>
-        <v>314.66323014923796</v>
+        <v>369.66323014923796</v>
       </c>
       <c r="E10" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M10/3.1416*180)+$N$5)</f>
@@ -22341,7 +22341,7 @@
       </c>
       <c r="D11" s="64">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>277.712812921102</v>
+        <v>332.712812921102</v>
       </c>
       <c r="E11" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
@@ -22391,7 +22391,7 @@
       </c>
       <c r="D12" s="64">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
-        <v>286.95041722813596</v>
+        <v>341.95041722813596</v>
       </c>
       <c r="E12" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="D13" s="64">
         <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
-        <v>305.425625842204</v>
+        <v>360.425625842204</v>
       </c>
       <c r="E13" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
@@ -22487,7 +22487,7 @@
       </c>
       <c r="D14" s="64">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>314.66323014923796</v>
+        <v>369.66323014923796</v>
       </c>
       <c r="E14" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
@@ -22651,7 +22651,7 @@
       </c>
       <c r="D19" s="64">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>305.425625842204</v>
+        <v>360.425625842204</v>
       </c>
       <c r="E19" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="D23" s="64">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>286.95041722813596</v>
+        <v>341.95041722813596</v>
       </c>
       <c r="E23" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
@@ -22834,7 +22834,7 @@
       </c>
       <c r="D24" s="64">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
-        <v>277.712812921102</v>
+        <v>332.712812921102</v>
       </c>
       <c r="E24" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
@@ -22911,7 +22911,7 @@
       </c>
       <c r="D26" s="64">
         <f>((O26*SIN($N$3)+P26*COS($N$3)+$N$9)*$R$4)</f>
-        <v>333.1</v>
+        <v>388.1</v>
       </c>
       <c r="E26" s="64">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M26/3.1416*180)+$N$5)</f>
@@ -23959,8 +23959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G166" sqref="A3:G166"/>
+    <sheetView topLeftCell="A117" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27639,7 +27639,7 @@
       </c>
       <c r="D124" s="77">
         <f>IF('6439A'!D7="", "", '6439A'!D7)</f>
-        <v>277.712812921102</v>
+        <v>332.712812921102</v>
       </c>
       <c r="E124" s="77">
         <f>IF('6439A'!E7="", "", '6439A'!E7)</f>
@@ -27669,7 +27669,7 @@
       </c>
       <c r="D125" s="77">
         <f>IF('6439A'!D8="", "", '6439A'!D8)</f>
-        <v>286.95041722813596</v>
+        <v>341.95041722813596</v>
       </c>
       <c r="E125" s="77">
         <f>IF('6439A'!E8="", "", '6439A'!E8)</f>
@@ -27699,7 +27699,7 @@
       </c>
       <c r="D126" s="77">
         <f>IF('6439A'!D9="", "", '6439A'!D9)</f>
-        <v>305.425625842204</v>
+        <v>360.425625842204</v>
       </c>
       <c r="E126" s="77">
         <f>IF('6439A'!E9="", "", '6439A'!E9)</f>
@@ -27729,7 +27729,7 @@
       </c>
       <c r="D127" s="77">
         <f>IF('6439A'!D10="", "", '6439A'!D10)</f>
-        <v>314.66323014923796</v>
+        <v>369.66323014923796</v>
       </c>
       <c r="E127" s="77">
         <f>IF('6439A'!E10="", "", '6439A'!E10)</f>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="D128" s="77">
         <f>IF('6439A'!D11="", "", '6439A'!D11)</f>
-        <v>277.712812921102</v>
+        <v>332.712812921102</v>
       </c>
       <c r="E128" s="77">
         <f>IF('6439A'!E11="", "", '6439A'!E11)</f>
@@ -27789,7 +27789,7 @@
       </c>
       <c r="D129" s="77">
         <f>IF('6439A'!D12="", "", '6439A'!D12)</f>
-        <v>286.95041722813596</v>
+        <v>341.95041722813596</v>
       </c>
       <c r="E129" s="77">
         <f>IF('6439A'!E12="", "", '6439A'!E12)</f>
@@ -27819,7 +27819,7 @@
       </c>
       <c r="D130" s="77">
         <f>IF('6439A'!D13="", "", '6439A'!D13)</f>
-        <v>305.425625842204</v>
+        <v>360.425625842204</v>
       </c>
       <c r="E130" s="77">
         <f>IF('6439A'!E13="", "", '6439A'!E13)</f>
@@ -27849,7 +27849,7 @@
       </c>
       <c r="D131" s="77">
         <f>IF('6439A'!D14="", "", '6439A'!D14)</f>
-        <v>314.66323014923796</v>
+        <v>369.66323014923796</v>
       </c>
       <c r="E131" s="77">
         <f>IF('6439A'!E14="", "", '6439A'!E14)</f>
@@ -27999,7 +27999,7 @@
       </c>
       <c r="D136" s="77">
         <f>IF('6439A'!D19="", "", '6439A'!D19)</f>
-        <v>305.425625842204</v>
+        <v>360.425625842204</v>
       </c>
       <c r="E136" s="77">
         <f>IF('6439A'!E19="", "", '6439A'!E19)</f>
@@ -28119,7 +28119,7 @@
       </c>
       <c r="D140" s="77">
         <f>IF('6439A'!D23="", "", '6439A'!D23)</f>
-        <v>286.95041722813596</v>
+        <v>341.95041722813596</v>
       </c>
       <c r="E140" s="77">
         <f>IF('6439A'!E23="", "", '6439A'!E23)</f>
@@ -28149,7 +28149,7 @@
       </c>
       <c r="D141" s="77">
         <f>IF('6439A'!D24="", "", '6439A'!D24)</f>
-        <v>277.712812921102</v>
+        <v>332.712812921102</v>
       </c>
       <c r="E141" s="77">
         <f>IF('6439A'!E24="", "", '6439A'!E24)</f>
@@ -28209,7 +28209,7 @@
       </c>
       <c r="D143" s="77">
         <f>IF('6439A'!D26="", "", '6439A'!D26)</f>
-        <v>333.1</v>
+        <v>388.1</v>
       </c>
       <c r="E143" s="77">
         <f>IF('6439A'!E26="", "", '6439A'!E26)</f>

--- a/app/skinGui/iniGenerators/rightLeg_Upper_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Upper_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12588" yWindow="-12" windowWidth="12636" windowHeight="12000" activeTab="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4614A" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="4535_2" sheetId="3" r:id="rId3"/>
     <sheet name="6438A_1" sheetId="6" r:id="rId4"/>
     <sheet name="6438A_2" sheetId="4" r:id="rId5"/>
-    <sheet name="6439A" sheetId="7" r:id="rId6"/>
+    <sheet name="4535A" sheetId="7" r:id="rId6"/>
     <sheet name="4616A" sheetId="8" r:id="rId7"/>
     <sheet name="final ini" sheetId="5" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
@@ -2224,8 +2224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10234349" y="0"/>
-          <a:ext cx="4101897" cy="0"/>
+          <a:off x="9934032" y="0"/>
+          <a:ext cx="4018973" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -3248,8 +3248,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10207704" y="2293277"/>
-          <a:ext cx="4454944" cy="3642725"/>
+          <a:off x="9925315" y="2324653"/>
+          <a:ext cx="4354092" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -5351,8 +5351,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11301149" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="11032208" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -6375,8 +6375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11247611" y="2293277"/>
-          <a:ext cx="4489183" cy="3642725"/>
+          <a:off x="10989875" y="2324653"/>
+          <a:ext cx="4388331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -8478,8 +8478,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11990720" y="2293277"/>
-          <a:ext cx="4576056" cy="3642725"/>
+          <a:off x="11815908" y="2324653"/>
+          <a:ext cx="4544680" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -9696,8 +9696,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942561" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="10684826" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -10720,8 +10720,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11034698" y="2304483"/>
-          <a:ext cx="4604978" cy="3642725"/>
+          <a:off x="10776963" y="2335859"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -11906,8 +11906,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942561" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="10684826" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -12930,8 +12930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10962981" y="2308966"/>
-          <a:ext cx="4604978" cy="3651689"/>
+          <a:off x="10705246" y="2340342"/>
+          <a:ext cx="4515331" cy="3727890"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -13937,15 +13937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>291717</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>86955</xdr:rowOff>
+      <xdr:colOff>302556</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>356313</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>31946</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13953,9 +13953,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="3546616">
-          <a:off x="12037014" y="2371423"/>
-          <a:ext cx="2768873" cy="3991137"/>
+        <a:xfrm rot="10800000">
+          <a:off x="11172262" y="2342028"/>
+          <a:ext cx="2991972" cy="3787590"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14207,8 +14207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942561" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="10684826" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -15231,8 +15231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11079522" y="2248453"/>
-          <a:ext cx="4609461" cy="3642725"/>
+          <a:off x="10821787" y="2279829"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -16772,28 +16772,28 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5546875" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16848,7 +16848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>26</v>
       </c>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>26</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -17162,7 +17162,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="34"/>
       <c r="C10" s="23"/>
@@ -17193,7 +17193,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>26</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>26</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>26</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -17560,7 +17560,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>26</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="34"/>
       <c r="C21" s="23"/>
@@ -17685,7 +17685,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="34"/>
       <c r="C22" s="23"/>
@@ -17714,7 +17714,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>26</v>
       </c>
@@ -17863,12 +17863,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -17876,7 +17876,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -17885,7 +17885,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -17895,7 +17895,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -17905,7 +17905,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -17915,7 +17915,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -17925,7 +17925,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17935,7 +17935,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -17945,7 +17945,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -17955,7 +17955,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -17965,7 +17965,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -17975,7 +17975,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -17985,7 +17985,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -17995,7 +17995,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -18005,7 +18005,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -18015,7 +18015,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -18025,7 +18025,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -18035,7 +18035,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -18045,7 +18045,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -18055,7 +18055,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -18065,7 +18065,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -18075,7 +18075,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -18085,7 +18085,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -18095,7 +18095,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -18105,7 +18105,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -18126,30 +18126,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18203,7 +18203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="39">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="34"/>
       <c r="C5" s="23"/>
@@ -18315,7 +18315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="34"/>
       <c r="C6" s="23"/>
@@ -18453,7 +18453,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="34"/>
       <c r="C10" s="23"/>
@@ -18484,7 +18484,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="63"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
@@ -18515,7 +18515,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
@@ -18544,7 +18544,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -18573,7 +18573,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
@@ -18698,7 +18698,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>26</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>26</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>26</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>26</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>26</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>26</v>
       </c>
@@ -19111,12 +19111,12 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N30" s="57"/>
     </row>
   </sheetData>
@@ -19134,23 +19134,23 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19204,7 +19204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="63"/>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>26</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>26</v>
       </c>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>26</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>26</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="34"/>
       <c r="C14" s="23"/>
@@ -19801,7 +19801,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="34"/>
       <c r="C15" s="23"/>
@@ -19830,7 +19830,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
@@ -19859,7 +19859,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="34"/>
       <c r="C17" s="23"/>
@@ -19888,7 +19888,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="34"/>
       <c r="C18" s="23"/>
@@ -19917,7 +19917,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="34"/>
       <c r="C19" s="23"/>
@@ -19946,7 +19946,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="34"/>
       <c r="C20" s="23"/>
@@ -19975,7 +19975,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="34"/>
       <c r="C21" s="23"/>
@@ -20004,7 +20004,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="34"/>
       <c r="C22" s="23"/>
@@ -20033,7 +20033,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="34"/>
       <c r="C23" s="23"/>
@@ -20062,7 +20062,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="34"/>
       <c r="C24" s="23"/>
@@ -20120,7 +20120,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -20140,13 +20140,13 @@
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="14" max="14" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20200,7 +20200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="63"/>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -20319,7 +20319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="34"/>
       <c r="C10" s="62"/>
@@ -20488,7 +20488,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="63"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
@@ -20519,7 +20519,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
@@ -20548,7 +20548,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -20577,7 +20577,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
       <c r="B16" s="34"/>
       <c r="C16" s="62"/>
@@ -20702,7 +20702,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>26</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="34"/>
       <c r="C18" s="62"/>
@@ -20779,7 +20779,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>26</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
       <c r="B21" s="34"/>
       <c r="C21" s="62"/>
@@ -20904,7 +20904,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
       <c r="B22" s="34"/>
       <c r="C22" s="62"/>
@@ -20933,7 +20933,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
@@ -21039,7 +21039,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -21059,22 +21059,22 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21128,7 +21128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>26</v>
       </c>
@@ -21247,7 +21247,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>26</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>26</v>
       </c>
@@ -21461,7 +21461,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="34"/>
       <c r="C10" s="23"/>
@@ -21492,7 +21492,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
@@ -21571,7 +21571,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -21600,7 +21600,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="63"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
@@ -21629,7 +21629,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="34"/>
       <c r="C15" s="23"/>
@@ -21658,7 +21658,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
@@ -21687,7 +21687,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="34"/>
       <c r="C17" s="23"/>
@@ -21716,7 +21716,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="34"/>
       <c r="C18" s="23"/>
@@ -21745,7 +21745,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="63"/>
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
@@ -21774,7 +21774,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
@@ -21803,7 +21803,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -21832,7 +21832,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -21861,7 +21861,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
@@ -21890,7 +21890,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
@@ -21948,7 +21948,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -21965,25 +21965,25 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22037,14 +22037,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="64"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="62">
+        <f t="shared" ref="B3:B5" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
+        <v>80</v>
+      </c>
+      <c r="C3" s="62">
+        <f t="shared" ref="C3:C5" si="1">((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>164.39745962155615</v>
+      </c>
+      <c r="D3" s="62">
+        <f t="shared" ref="D3:D5" si="2">((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
+        <v>357.6025403784439</v>
+      </c>
+      <c r="E3" s="62">
+        <f t="shared" ref="E3:E4" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
+        <v>2.80611543146847E-4</v>
+      </c>
+      <c r="F3" s="61">
+        <v>5</v>
+      </c>
+      <c r="G3" s="64">
+        <f t="shared" ref="G3:G4" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="39">
@@ -22061,7 +22080,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>0</v>
+        <v>2.0943951023931953</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -22080,13 +22099,32 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="62">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C4" s="62">
+        <f t="shared" si="1"/>
+        <v>148.39745962155615</v>
+      </c>
+      <c r="D4" s="62">
+        <f t="shared" si="2"/>
+        <v>366.84014468547792</v>
+      </c>
+      <c r="E4" s="62">
+        <f t="shared" si="3"/>
+        <v>60.000140305771573</v>
+      </c>
+      <c r="F4" s="61">
+        <v>5</v>
+      </c>
+      <c r="G4" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="39">
@@ -22118,14 +22156,33 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="64"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="62">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="C5" s="62">
+        <f t="shared" si="1"/>
+        <v>148.39745962155615</v>
+      </c>
+      <c r="D5" s="62">
+        <f t="shared" si="2"/>
+        <v>385.3153532995459</v>
+      </c>
+      <c r="E5" s="62">
+        <f t="shared" ref="E5:E15" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
+        <v>2.80611543146847E-4</v>
+      </c>
+      <c r="F5" s="61">
+        <v>5</v>
+      </c>
+      <c r="G5" s="64">
+        <f t="shared" ref="G5:G10" si="6">IF($R$3*$R$4=-1,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="39">
@@ -22141,7 +22198,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="O5" s="42">
         <v>132</v>
@@ -22156,7 +22213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="34"/>
       <c r="C6" s="62"/>
@@ -22193,32 +22250,13 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="62">
-        <f t="shared" ref="B7:B10" si="0">((ROUND($L7/10,0))-1)*4+MOD($L7,10)+((J7-1)*16)</f>
-        <v>84</v>
-      </c>
-      <c r="C7" s="62">
-        <f t="shared" ref="C7:C14" si="1">((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>148</v>
-      </c>
-      <c r="D7" s="62">
-        <f t="shared" ref="D7:D14" si="2">((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
-        <v>332.712812921102</v>
-      </c>
-      <c r="E7" s="62">
-        <f t="shared" ref="E7:E14" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="61">
-        <v>5</v>
-      </c>
-      <c r="G7" s="64">
-        <f t="shared" ref="G7:G10" si="4">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="A7" s="63"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="39">
@@ -22234,7 +22272,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <f>200+101</f>
+        <v>301</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -22247,32 +22286,13 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="62">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="C8" s="62">
-        <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="D8" s="62">
-        <f t="shared" si="2"/>
-        <v>341.95041722813596</v>
-      </c>
-      <c r="E8" s="62">
-        <f t="shared" si="3"/>
-        <v>-59.999859694228427</v>
-      </c>
-      <c r="F8" s="61">
-        <v>5</v>
-      </c>
-      <c r="G8" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="39">
@@ -22301,32 +22321,13 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="62">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="C9" s="62">
-        <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="D9" s="62">
-        <f t="shared" si="2"/>
-        <v>360.425625842204</v>
-      </c>
-      <c r="E9" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="61">
-        <v>5</v>
-      </c>
-      <c r="G9" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A9" s="63"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="64"/>
       <c r="I9" s="1"/>
       <c r="J9" s="39">
         <v>6</v>
@@ -22341,7 +22342,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>205</v>
+        <f>205+110+6</f>
+        <v>321</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -22351,33 +22353,14 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="62">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="C10" s="62">
-        <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-      <c r="D10" s="62">
-        <f t="shared" si="2"/>
-        <v>369.66323014923796</v>
-      </c>
-      <c r="E10" s="62">
-        <f t="shared" si="3"/>
-        <v>59.999859694228427</v>
-      </c>
-      <c r="F10" s="61">
-        <v>5</v>
-      </c>
-      <c r="G10" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="64"/>
       <c r="I10" s="1"/>
       <c r="J10" s="39">
         <v>6</v>
@@ -22401,31 +22384,31 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="62">
-        <f t="shared" ref="B11:B14" si="5">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+        <f t="shared" ref="B11:B15" si="7">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>92</v>
       </c>
       <c r="C11" s="62">
-        <f t="shared" si="1"/>
-        <v>116</v>
+        <f t="shared" ref="C7:C15" si="8">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>132.39745962155621</v>
       </c>
       <c r="D11" s="62">
-        <f t="shared" si="2"/>
-        <v>332.712812921102</v>
+        <f t="shared" ref="D7:D15" si="9">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <v>357.6025403784439</v>
       </c>
       <c r="E11" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="F11" s="61">
         <v>5</v>
       </c>
       <c r="G11" s="64">
-        <f t="shared" ref="G11:G14" si="6">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G11:G15" si="10">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -22451,31 +22434,31 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="62">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="C12" s="62">
+        <f t="shared" si="8"/>
+        <v>116.39745962155621</v>
+      </c>
+      <c r="D12" s="62">
+        <f t="shared" si="9"/>
+        <v>366.84014468547792</v>
+      </c>
+      <c r="E12" s="62">
         <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="C12" s="62">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="D12" s="62">
-        <f t="shared" si="2"/>
-        <v>341.95041722813596</v>
-      </c>
-      <c r="E12" s="62">
-        <f t="shared" si="3"/>
-        <v>-59.999859694228427</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F12" s="61">
         <v>5</v>
       </c>
       <c r="G12" s="64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
@@ -22499,31 +22482,31 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="62">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="C13" s="62">
+        <f t="shared" si="8"/>
+        <v>100.39745962155621</v>
+      </c>
+      <c r="D13" s="62">
+        <f t="shared" si="9"/>
+        <v>357.6025403784439</v>
+      </c>
+      <c r="E13" s="62">
         <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="C13" s="62">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="D13" s="62">
-        <f t="shared" si="2"/>
-        <v>360.425625842204</v>
-      </c>
-      <c r="E13" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F13" s="61">
         <v>5</v>
       </c>
       <c r="G13" s="64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
@@ -22547,31 +22530,31 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="62">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="C14" s="62">
+        <f t="shared" si="8"/>
+        <v>100.39745962155624</v>
+      </c>
+      <c r="D14" s="62">
+        <f t="shared" si="9"/>
+        <v>339.12733176437592</v>
+      </c>
+      <c r="E14" s="62">
         <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="C14" s="62">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="D14" s="62">
-        <f t="shared" si="2"/>
-        <v>369.66323014923796</v>
-      </c>
-      <c r="E14" s="62">
-        <f t="shared" si="3"/>
-        <v>59.999859694228427</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F14" s="61">
         <v>5</v>
       </c>
       <c r="G14" s="64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -22595,14 +22578,33 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="64"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="62">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="C15" s="62">
+        <f t="shared" si="8"/>
+        <v>84.397459621556237</v>
+      </c>
+      <c r="D15" s="62">
+        <f t="shared" si="9"/>
+        <v>329.88972745734191</v>
+      </c>
+      <c r="E15" s="62">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="61">
+        <v>5</v>
+      </c>
+      <c r="G15" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="39">
         <v>6</v>
@@ -22624,7 +22626,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
@@ -22653,7 +22655,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -22682,7 +22684,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -22711,31 +22713,31 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="62">
-        <f t="shared" ref="B19" si="7">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+        <f t="shared" ref="B19" si="11">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>90</v>
       </c>
       <c r="C19" s="62">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>100</v>
+        <v>116.39745962155621</v>
       </c>
       <c r="D19" s="62">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>360.425625842204</v>
+        <v>329.88972745734191</v>
       </c>
       <c r="E19" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
-        <v>119.99971938845685</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F19" s="61">
         <v>5</v>
       </c>
       <c r="G19" s="64">
-        <f t="shared" ref="G19" si="8">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G19" si="12">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -22759,7 +22761,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
@@ -22788,7 +22790,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -22817,7 +22819,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -22846,31 +22848,31 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="62">
-        <f t="shared" ref="B23" si="9">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+        <f t="shared" ref="B23" si="13">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>91</v>
       </c>
       <c r="C23" s="62">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>100</v>
+        <v>132.39745962155621</v>
       </c>
       <c r="D23" s="62">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>341.95041722813596</v>
+        <v>339.12733176437592</v>
       </c>
       <c r="E23" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
-        <v>179.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F23" s="61">
         <v>5</v>
       </c>
       <c r="G23" s="64">
-        <f t="shared" ref="G23:G26" si="10">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G23:G26" si="14">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -22894,31 +22896,31 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="62">
-        <f t="shared" ref="B24" si="11">((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*16)</f>
+        <f t="shared" ref="B24" si="15">((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*16)</f>
         <v>94</v>
       </c>
       <c r="C24" s="62">
         <f>((+O24*COS($N$3)-P24*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>84</v>
+        <v>148.39745962155618</v>
       </c>
       <c r="D24" s="62">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
-        <v>332.712812921102</v>
+        <v>329.88972745734191</v>
       </c>
       <c r="E24" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
-        <v>119.99971938845685</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F24" s="61">
         <v>5</v>
       </c>
       <c r="G24" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -22943,13 +22945,32 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="64"/>
+      <c r="A25" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="62">
+        <f t="shared" ref="B25" si="16">((ROUND($L25/10,0))-1)*4+MOD($L25,10)+((J25-1)*16)</f>
+        <v>95</v>
+      </c>
+      <c r="C25" s="62">
+        <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>164.39745962155615</v>
+      </c>
+      <c r="D25" s="62">
+        <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
+        <v>339.12733176437587</v>
+      </c>
+      <c r="E25" s="62">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
+        <v>299.9995790826847</v>
+      </c>
+      <c r="F25" s="61">
+        <v>5</v>
+      </c>
+      <c r="G25" s="64">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="39">
         <v>6</v>
@@ -22972,32 +22993,13 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="62">
-        <f t="shared" ref="B26" si="12">((ROUND($L26/10,0))-1)*4+MOD($L26,10)+((J26-1)*16)</f>
-        <v>95</v>
-      </c>
-      <c r="C26" s="62">
-        <f>((+O26*COS($N$3)-P26*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>148</v>
-      </c>
-      <c r="D26" s="62">
-        <f>((O26*SIN($N$3)+P26*COS($N$3)+$N$9)*$R$4)</f>
-        <v>388.1</v>
-      </c>
-      <c r="E26" s="62">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M26/3.1416*180)+$N$5)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="61">
-        <v>5</v>
-      </c>
-      <c r="G26" s="64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="A26" s="63"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="64"/>
       <c r="J26" s="39">
         <v>6</v>
       </c>
@@ -23030,25 +23032,25 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23102,7 +23104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>26</v>
       </c>
@@ -23221,7 +23223,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -23259,7 +23261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="34"/>
       <c r="C6" s="62"/>
@@ -23397,7 +23399,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="34"/>
       <c r="C10" s="62"/>
@@ -23428,7 +23430,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -23478,7 +23480,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
@@ -23526,7 +23528,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -23555,7 +23557,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -23603,7 +23605,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -23651,7 +23653,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
       <c r="B16" s="34"/>
       <c r="C16" s="62"/>
@@ -23680,7 +23682,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
       <c r="B17" s="34"/>
       <c r="C17" s="62"/>
@@ -23709,7 +23711,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="34"/>
       <c r="C18" s="62"/>
@@ -23738,7 +23740,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -23786,7 +23788,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
@@ -23815,7 +23817,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -23844,7 +23846,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -23873,7 +23875,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -23921,7 +23923,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>26</v>
       </c>
@@ -24017,7 +24019,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -24033,15 +24035,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G166" sqref="A3:G166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="66"/>
-    <col min="5" max="5" width="11.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="66"/>
+    <col min="5" max="5" width="11.28515625" style="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -24068,7 +24070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="str">
         <f>IF('4614A'!A3=0, "", '4614A'!A3)</f>
         <v>triangle_10pad</v>
@@ -24098,7 +24100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="str">
         <f>IF('4614A'!A4=0, "", '4614A'!A4)</f>
         <v>triangle_10pad</v>
@@ -24128,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="str">
         <f>IF('4614A'!A5=0, "", '4614A'!A5)</f>
         <v>triangle_10pad</v>
@@ -24158,7 +24160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="str">
         <f>IF('4614A'!A6=0, "", '4614A'!A6)</f>
         <v/>
@@ -24188,7 +24190,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="str">
         <f>IF('4614A'!A7=0, "", '4614A'!A7)</f>
         <v/>
@@ -24218,7 +24220,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="str">
         <f>IF('4614A'!A8=0, "", '4614A'!A8)</f>
         <v/>
@@ -24248,7 +24250,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="str">
         <f>IF('4614A'!A9=0, "", '4614A'!A9)</f>
         <v/>
@@ -24278,7 +24280,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="str">
         <f>IF('4614A'!A10=0, "", '4614A'!A10)</f>
         <v/>
@@ -24308,7 +24310,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="71" t="str">
         <f>IF('4614A'!A11=0, "", '4614A'!A11)</f>
         <v>triangle_10pad</v>
@@ -24338,7 +24340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="str">
         <f>IF('4614A'!A12=0, "", '4614A'!A12)</f>
         <v>triangle_10pad</v>
@@ -24368,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="str">
         <f>IF('4614A'!A13=0, "", '4614A'!A13)</f>
         <v>triangle_10pad</v>
@@ -24398,7 +24400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="str">
         <f>IF('4614A'!A14=0, "", '4614A'!A14)</f>
         <v>triangle_10pad</v>
@@ -24428,7 +24430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="str">
         <f>IF('4614A'!A15=0, "", '4614A'!A15)</f>
         <v>triangle_10pad</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="str">
         <f>IF('4614A'!A16=0, "", '4614A'!A16)</f>
         <v>triangle_10pad</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="str">
         <f>IF('4614A'!A17=0, "", '4614A'!A17)</f>
         <v>triangle_10pad</v>
@@ -24518,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="str">
         <f>IF('4614A'!A18=0, "", '4614A'!A18)</f>
         <v/>
@@ -24548,7 +24550,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="str">
         <f>IF('4614A'!A19=0, "", '4614A'!A19)</f>
         <v>triangle_10pad</v>
@@ -24578,7 +24580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="str">
         <f>IF('4614A'!A20=0, "", '4614A'!A20)</f>
         <v>triangle_10pad</v>
@@ -24608,7 +24610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="str">
         <f>IF('4614A'!A21=0, "", '4614A'!A21)</f>
         <v/>
@@ -24638,7 +24640,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="71" t="str">
         <f>IF('4614A'!A22=0, "", '4614A'!A22)</f>
         <v/>
@@ -24668,7 +24670,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="71" t="str">
         <f>IF('4614A'!A23=0, "", '4614A'!A23)</f>
         <v>triangle_10pad</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="71" t="str">
         <f>IF('4614A'!A24=0, "", '4614A'!A24)</f>
         <v>triangle_10pad</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="71" t="str">
         <f>IF('4614A'!A25=0, "", '4614A'!A25)</f>
         <v>triangle_10pad</v>
@@ -24758,7 +24760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="str">
         <f>IF('4535_1'!A3="", "", '4535_1'!A3)</f>
         <v/>
@@ -24788,7 +24790,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="str">
         <f>IF('4535_1'!A4="", "", '4535_1'!A4)</f>
         <v/>
@@ -24818,7 +24820,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="str">
         <f>IF('4535_1'!A5="", "", '4535_1'!A5)</f>
         <v/>
@@ -24848,7 +24850,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="str">
         <f>IF('4535_1'!A6="", "", '4535_1'!A6)</f>
         <v/>
@@ -24878,7 +24880,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="str">
         <f>IF('4535_1'!A7="", "", '4535_1'!A7)</f>
         <v/>
@@ -24908,7 +24910,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="str">
         <f>IF('4535_1'!A8="", "", '4535_1'!A8)</f>
         <v/>
@@ -24938,7 +24940,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="str">
         <f>IF('4535_1'!A9="", "", '4535_1'!A9)</f>
         <v/>
@@ -24968,7 +24970,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="str">
         <f>IF('4535_1'!A10="", "", '4535_1'!A10)</f>
         <v/>
@@ -24998,7 +25000,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="str">
         <f>IF('4535_1'!A11="", "", '4535_1'!A11)</f>
         <v/>
@@ -25028,7 +25030,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="str">
         <f>IF('4535_1'!A12="", "", '4535_1'!A12)</f>
         <v/>
@@ -25058,7 +25060,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="str">
         <f>IF('4535_1'!A13="", "", '4535_1'!A13)</f>
         <v/>
@@ -25088,7 +25090,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="str">
         <f>IF('4535_1'!A14="", "", '4535_1'!A14)</f>
         <v>triangle_10pad</v>
@@ -25118,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="str">
         <f>IF('4535_1'!A15="", "", '4535_1'!A15)</f>
         <v>triangle_10pad</v>
@@ -25148,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="str">
         <f>IF('4535_1'!A16="", "", '4535_1'!A16)</f>
         <v/>
@@ -25178,7 +25180,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="str">
         <f>IF('4535_1'!A17="", "", '4535_1'!A17)</f>
         <v>triangle_10pad</v>
@@ -25208,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="str">
         <f>IF('4535_1'!A18="", "", '4535_1'!A18)</f>
         <v>triangle_10pad</v>
@@ -25238,7 +25240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="str">
         <f>IF('4535_1'!A19="", "", '4535_1'!A19)</f>
         <v>triangle_10pad</v>
@@ -25268,7 +25270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="str">
         <f>IF('4535_1'!A20="", "", '4535_1'!A20)</f>
         <v>triangle_10pad</v>
@@ -25298,7 +25300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="str">
         <f>IF('4535_1'!A21="", "", '4535_1'!A21)</f>
         <v>triangle_10pad</v>
@@ -25328,7 +25330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="str">
         <f>IF('4535_1'!A22="", "", '4535_1'!A22)</f>
         <v>triangle_10pad</v>
@@ -25358,7 +25360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="str">
         <f>IF('4535_1'!A23="", "", '4535_1'!A23)</f>
         <v>triangle_10pad</v>
@@ -25388,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="str">
         <f>IF('4535_1'!A24="", "", '4535_1'!A24)</f>
         <v>triangle_10pad</v>
@@ -25418,7 +25420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="str">
         <f>IF('4535_1'!A25="", "", '4535_1'!A25)</f>
         <v/>
@@ -25448,7 +25450,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="str">
         <f>IF('4535_2'!A3="", "", '4535_2'!A3)</f>
         <v/>
@@ -25478,7 +25480,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="str">
         <f>IF('4535_2'!A4="", "", '4535_2'!A4)</f>
         <v>triangle_10pad</v>
@@ -25508,7 +25510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="str">
         <f>IF('4535_2'!A5="", "", '4535_2'!A5)</f>
         <v>triangle_10pad</v>
@@ -25538,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="str">
         <f>IF('4535_2'!A6="", "", '4535_2'!A6)</f>
         <v>triangle_10pad</v>
@@ -25568,7 +25570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="str">
         <f>IF('4535_2'!A7="", "", '4535_2'!A7)</f>
         <v>triangle_10pad</v>
@@ -25598,7 +25600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="str">
         <f>IF('4535_2'!A8="", "", '4535_2'!A8)</f>
         <v>triangle_10pad</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="str">
         <f>IF('4535_2'!A9="", "", '4535_2'!A9)</f>
         <v>triangle_10pad</v>
@@ -25658,7 +25660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="str">
         <f>IF('4535_2'!A10="", "", '4535_2'!A10)</f>
         <v>triangle_10pad</v>
@@ -25688,7 +25690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="str">
         <f>IF('4535_2'!A11="", "", '4535_2'!A11)</f>
         <v>triangle_10pad</v>
@@ -25718,7 +25720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="str">
         <f>IF('4535_2'!A12="", "", '4535_2'!A12)</f>
         <v>triangle_10pad</v>
@@ -25748,7 +25750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="str">
         <f>IF('4535_2'!A13="", "", '4535_2'!A13)</f>
         <v>triangle_10pad</v>
@@ -25778,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="str">
         <f>IF('4535_2'!A14="", "", '4535_2'!A14)</f>
         <v/>
@@ -25808,7 +25810,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="str">
         <f>IF('4535_2'!A15="", "", '4535_2'!A15)</f>
         <v/>
@@ -25838,7 +25840,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="str">
         <f>IF('4535_2'!A16="", "", '4535_2'!A16)</f>
         <v/>
@@ -25868,7 +25870,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="str">
         <f>IF('4535_2'!A17="", "", '4535_2'!A17)</f>
         <v/>
@@ -25898,7 +25900,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="str">
         <f>IF('4535_2'!A18="", "", '4535_2'!A18)</f>
         <v/>
@@ -25928,7 +25930,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="str">
         <f>IF('4535_2'!A19="", "", '4535_2'!A19)</f>
         <v/>
@@ -25958,7 +25960,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="str">
         <f>IF('4535_2'!A20="", "", '4535_2'!A20)</f>
         <v/>
@@ -25988,7 +25990,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="str">
         <f>IF('4535_2'!A21="", "", '4535_2'!A21)</f>
         <v/>
@@ -26018,7 +26020,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="str">
         <f>IF('4535_2'!A22="", "", '4535_2'!A22)</f>
         <v/>
@@ -26048,7 +26050,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="str">
         <f>IF('4535_2'!A23="", "", '4535_2'!A23)</f>
         <v/>
@@ -26078,7 +26080,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="58" t="str">
         <f>IF('4535_2'!A24="", "", '4535_2'!A24)</f>
         <v/>
@@ -26108,7 +26110,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="58" t="str">
         <f>IF('4535_2'!A25="", "", '4535_2'!A25)</f>
         <v/>
@@ -26138,7 +26140,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="str">
         <f>IF('6438A_1'!A3="", "", '6438A_1'!A3)</f>
         <v/>
@@ -26168,7 +26170,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="65" t="str">
         <f>IF('6438A_1'!A4="", "", '6438A_1'!A4)</f>
         <v/>
@@ -26198,7 +26200,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="65" t="str">
         <f>IF('6438A_1'!A5="", "", '6438A_1'!A5)</f>
         <v/>
@@ -26228,7 +26230,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="65" t="str">
         <f>IF('6438A_1'!A6="", "", '6438A_1'!A6)</f>
         <v/>
@@ -26258,7 +26260,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="str">
         <f>IF('6438A_1'!A7="", "", '6438A_1'!A7)</f>
         <v/>
@@ -26288,7 +26290,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="str">
         <f>IF('6438A_1'!A8="", "", '6438A_1'!A8)</f>
         <v/>
@@ -26318,7 +26320,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="65" t="str">
         <f>IF('6438A_1'!A9="", "", '6438A_1'!A9)</f>
         <v/>
@@ -26348,7 +26350,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="65" t="str">
         <f>IF('6438A_1'!A10="", "", '6438A_1'!A10)</f>
         <v/>
@@ -26378,7 +26380,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="65" t="str">
         <f>IF('6438A_1'!A11="", "", '6438A_1'!A11)</f>
         <v/>
@@ -26408,7 +26410,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="65" t="str">
         <f>IF('6438A_1'!A12="", "", '6438A_1'!A12)</f>
         <v/>
@@ -26438,7 +26440,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="65" t="str">
         <f>IF('6438A_1'!A13="", "", '6438A_1'!A13)</f>
         <v/>
@@ -26468,7 +26470,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="65" t="str">
         <f>IF('6438A_1'!A14="", "", '6438A_1'!A14)</f>
         <v>triangle_10pad</v>
@@ -26498,7 +26500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="65" t="str">
         <f>IF('6438A_1'!A15="", "", '6438A_1'!A15)</f>
         <v>triangle_10pad</v>
@@ -26528,7 +26530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="65" t="str">
         <f>IF('6438A_1'!A16="", "", '6438A_1'!A16)</f>
         <v/>
@@ -26558,7 +26560,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="65" t="str">
         <f>IF('6438A_1'!A17="", "", '6438A_1'!A17)</f>
         <v>triangle_10pad</v>
@@ -26588,7 +26590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="65" t="str">
         <f>IF('6438A_1'!A18="", "", '6438A_1'!A18)</f>
         <v/>
@@ -26618,7 +26620,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="65" t="str">
         <f>IF('6438A_1'!A19="", "", '6438A_1'!A19)</f>
         <v>triangle_10pad</v>
@@ -26648,7 +26650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="65" t="str">
         <f>IF('6438A_1'!A20="", "", '6438A_1'!A20)</f>
         <v>triangle_10pad</v>
@@ -26678,7 +26680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="65" t="str">
         <f>IF('6438A_1'!A21="", "", '6438A_1'!A21)</f>
         <v/>
@@ -26708,7 +26710,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="65" t="str">
         <f>IF('6438A_1'!A22="", "", '6438A_1'!A22)</f>
         <v/>
@@ -26738,7 +26740,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="65" t="str">
         <f>IF('6438A_1'!A23="", "", '6438A_1'!A23)</f>
         <v>triangle_10pad</v>
@@ -26768,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="65" t="str">
         <f>IF('6438A_1'!A24="", "", '6438A_1'!A24)</f>
         <v/>
@@ -26798,7 +26800,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="65" t="str">
         <f>IF('6438A_1'!A25="", "", '6438A_1'!A25)</f>
         <v/>
@@ -26828,7 +26830,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="65" t="str">
         <f>IF('6438A_1'!A26="", "", '6438A_1'!A26)</f>
         <v/>
@@ -26858,7 +26860,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="69" t="str">
         <f>IF('6438A_2'!A3="", "", '6438A_2'!A3)</f>
         <v>triangle_10pad</v>
@@ -26888,7 +26890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="69" t="str">
         <f>IF('6438A_2'!A4="", "", '6438A_2'!A4)</f>
         <v>triangle_10pad</v>
@@ -26918,7 +26920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="69" t="str">
         <f>IF('6438A_2'!A5="", "", '6438A_2'!A5)</f>
         <v>triangle_10pad</v>
@@ -26948,7 +26950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="69" t="str">
         <f>IF('6438A_2'!A6="", "", '6438A_2'!A6)</f>
         <v>triangle_10pad</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="69" t="str">
         <f>IF('6438A_2'!A7="", "", '6438A_2'!A7)</f>
         <v/>
@@ -27008,7 +27010,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="69" t="str">
         <f>IF('6438A_2'!A8="", "", '6438A_2'!A8)</f>
         <v/>
@@ -27038,7 +27040,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="69" t="str">
         <f>IF('6438A_2'!A9="", "", '6438A_2'!A9)</f>
         <v/>
@@ -27068,7 +27070,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="69" t="str">
         <f>IF('6438A_2'!A10="", "", '6438A_2'!A10)</f>
         <v/>
@@ -27098,7 +27100,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="69" t="str">
         <f>IF('6438A_2'!A11="", "", '6438A_2'!A11)</f>
         <v>triangle_10pad</v>
@@ -27128,7 +27130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="69" t="str">
         <f>IF('6438A_2'!A12="", "", '6438A_2'!A12)</f>
         <v/>
@@ -27158,7 +27160,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="69" t="str">
         <f>IF('6438A_2'!A13="", "", '6438A_2'!A13)</f>
         <v/>
@@ -27188,7 +27190,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="69" t="str">
         <f>IF('6438A_2'!A14="", "", '6438A_2'!A14)</f>
         <v/>
@@ -27218,7 +27220,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="69" t="str">
         <f>IF('6438A_2'!A15="", "", '6438A_2'!A15)</f>
         <v/>
@@ -27248,7 +27250,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="69" t="str">
         <f>IF('6438A_2'!A16="", "", '6438A_2'!A16)</f>
         <v/>
@@ -27278,7 +27280,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="69" t="str">
         <f>IF('6438A_2'!A17="", "", '6438A_2'!A17)</f>
         <v/>
@@ -27308,7 +27310,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="69" t="str">
         <f>IF('6438A_2'!A18="", "", '6438A_2'!A18)</f>
         <v/>
@@ -27338,7 +27340,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="69" t="str">
         <f>IF('6438A_2'!A19="", "", '6438A_2'!A19)</f>
         <v/>
@@ -27368,7 +27370,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="69" t="str">
         <f>IF('6438A_2'!A20="", "", '6438A_2'!A20)</f>
         <v/>
@@ -27398,7 +27400,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="69" t="str">
         <f>IF('6438A_2'!A21="", "", '6438A_2'!A21)</f>
         <v/>
@@ -27428,7 +27430,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="69" t="str">
         <f>IF('6438A_2'!A22="", "", '6438A_2'!A22)</f>
         <v/>
@@ -27458,7 +27460,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="69" t="str">
         <f>IF('6438A_2'!A23="", "", '6438A_2'!A23)</f>
         <v/>
@@ -27488,7 +27490,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="69" t="str">
         <f>IF('6438A_2'!A24="", "", '6438A_2'!A24)</f>
         <v/>
@@ -27518,7 +27520,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="69" t="str">
         <f>IF('6438A_2'!A25="", "", '6438A_2'!A25)</f>
         <v/>
@@ -27548,7 +27550,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="69" t="str">
         <f>IF('6438A_2'!A26="", "", '6438A_2'!A26)</f>
         <v/>
@@ -27578,727 +27580,727 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="73" t="str">
-        <f>IF('6439A'!A3="", "", '6439A'!A3)</f>
-        <v/>
-      </c>
-      <c r="B120" s="80" t="str">
-        <f>IF('6439A'!B3="", "", '6439A'!B3)</f>
-        <v/>
-      </c>
-      <c r="C120" s="80" t="str">
-        <f>IF('6439A'!C3="", "", '6439A'!C3)</f>
-        <v/>
-      </c>
-      <c r="D120" s="80" t="str">
-        <f>IF('6439A'!D3="", "", '6439A'!D3)</f>
-        <v/>
-      </c>
-      <c r="E120" s="80" t="str">
-        <f>IF('6439A'!E3="", "", '6439A'!E3)</f>
-        <v/>
-      </c>
-      <c r="F120" s="80" t="str">
-        <f>IF('6439A'!F3="", "", '6439A'!F3)</f>
-        <v/>
-      </c>
-      <c r="G120" s="80" t="str">
-        <f>IF('6439A'!G3="", "", '6439A'!G3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <f>IF('4535A'!A3="", "", '4535A'!A3)</f>
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B120" s="80">
+        <f>IF('4535A'!B3="", "", '4535A'!B3)</f>
+        <v>80</v>
+      </c>
+      <c r="C120" s="80">
+        <f>IF('4535A'!C3="", "", '4535A'!C3)</f>
+        <v>164.39745962155615</v>
+      </c>
+      <c r="D120" s="80">
+        <f>IF('4535A'!D3="", "", '4535A'!D3)</f>
+        <v>357.6025403784439</v>
+      </c>
+      <c r="E120" s="80">
+        <f>IF('4535A'!E3="", "", '4535A'!E3)</f>
+        <v>2.80611543146847E-4</v>
+      </c>
+      <c r="F120" s="80">
+        <f>IF('4535A'!F3="", "", '4535A'!F3)</f>
+        <v>5</v>
+      </c>
+      <c r="G120" s="80">
+        <f>IF('4535A'!G3="", "", '4535A'!G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="str">
-        <f>IF('6439A'!A4="", "", '6439A'!A4)</f>
-        <v/>
-      </c>
-      <c r="B121" s="80" t="str">
-        <f>IF('6439A'!B4="", "", '6439A'!B4)</f>
-        <v/>
-      </c>
-      <c r="C121" s="80" t="str">
-        <f>IF('6439A'!C4="", "", '6439A'!C4)</f>
-        <v/>
-      </c>
-      <c r="D121" s="80" t="str">
-        <f>IF('6439A'!D4="", "", '6439A'!D4)</f>
-        <v/>
-      </c>
-      <c r="E121" s="80" t="str">
-        <f>IF('6439A'!E4="", "", '6439A'!E4)</f>
-        <v/>
-      </c>
-      <c r="F121" s="80" t="str">
-        <f>IF('6439A'!F4="", "", '6439A'!F4)</f>
-        <v/>
-      </c>
-      <c r="G121" s="80" t="str">
-        <f>IF('6439A'!G4="", "", '6439A'!G4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <f>IF('4535A'!A4="", "", '4535A'!A4)</f>
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B121" s="80">
+        <f>IF('4535A'!B4="", "", '4535A'!B4)</f>
+        <v>81</v>
+      </c>
+      <c r="C121" s="80">
+        <f>IF('4535A'!C4="", "", '4535A'!C4)</f>
+        <v>148.39745962155615</v>
+      </c>
+      <c r="D121" s="80">
+        <f>IF('4535A'!D4="", "", '4535A'!D4)</f>
+        <v>366.84014468547792</v>
+      </c>
+      <c r="E121" s="80">
+        <f>IF('4535A'!E4="", "", '4535A'!E4)</f>
+        <v>60.000140305771573</v>
+      </c>
+      <c r="F121" s="80">
+        <f>IF('4535A'!F4="", "", '4535A'!F4)</f>
+        <v>5</v>
+      </c>
+      <c r="G121" s="80">
+        <f>IF('4535A'!G4="", "", '4535A'!G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="73" t="str">
-        <f>IF('6439A'!A5="", "", '6439A'!A5)</f>
-        <v/>
-      </c>
-      <c r="B122" s="80" t="str">
-        <f>IF('6439A'!B5="", "", '6439A'!B5)</f>
-        <v/>
-      </c>
-      <c r="C122" s="80" t="str">
-        <f>IF('6439A'!C5="", "", '6439A'!C5)</f>
-        <v/>
-      </c>
-      <c r="D122" s="80" t="str">
-        <f>IF('6439A'!D5="", "", '6439A'!D5)</f>
-        <v/>
-      </c>
-      <c r="E122" s="80" t="str">
-        <f>IF('6439A'!E5="", "", '6439A'!E5)</f>
-        <v/>
-      </c>
-      <c r="F122" s="80" t="str">
-        <f>IF('6439A'!F5="", "", '6439A'!F5)</f>
-        <v/>
-      </c>
-      <c r="G122" s="80" t="str">
-        <f>IF('6439A'!G5="", "", '6439A'!G5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <f>IF('4535A'!A5="", "", '4535A'!A5)</f>
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B122" s="80">
+        <f>IF('4535A'!B5="", "", '4535A'!B5)</f>
+        <v>82</v>
+      </c>
+      <c r="C122" s="80">
+        <f>IF('4535A'!C5="", "", '4535A'!C5)</f>
+        <v>148.39745962155615</v>
+      </c>
+      <c r="D122" s="80">
+        <f>IF('4535A'!D5="", "", '4535A'!D5)</f>
+        <v>385.3153532995459</v>
+      </c>
+      <c r="E122" s="80">
+        <f>IF('4535A'!E5="", "", '4535A'!E5)</f>
+        <v>2.80611543146847E-4</v>
+      </c>
+      <c r="F122" s="80">
+        <f>IF('4535A'!F5="", "", '4535A'!F5)</f>
+        <v>5</v>
+      </c>
+      <c r="G122" s="80">
+        <f>IF('4535A'!G5="", "", '4535A'!G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="73" t="str">
-        <f>IF('6439A'!A6="", "", '6439A'!A6)</f>
+        <f>IF('4535A'!A6="", "", '4535A'!A6)</f>
         <v/>
       </c>
       <c r="B123" s="80" t="str">
-        <f>IF('6439A'!B6="", "", '6439A'!B6)</f>
+        <f>IF('4535A'!B6="", "", '4535A'!B6)</f>
         <v/>
       </c>
       <c r="C123" s="80" t="str">
-        <f>IF('6439A'!C6="", "", '6439A'!C6)</f>
+        <f>IF('4535A'!C6="", "", '4535A'!C6)</f>
         <v/>
       </c>
       <c r="D123" s="80" t="str">
-        <f>IF('6439A'!D6="", "", '6439A'!D6)</f>
+        <f>IF('4535A'!D6="", "", '4535A'!D6)</f>
         <v/>
       </c>
       <c r="E123" s="80" t="str">
-        <f>IF('6439A'!E6="", "", '6439A'!E6)</f>
+        <f>IF('4535A'!E6="", "", '4535A'!E6)</f>
         <v/>
       </c>
       <c r="F123" s="80" t="str">
-        <f>IF('6439A'!F6="", "", '6439A'!F6)</f>
+        <f>IF('4535A'!F6="", "", '4535A'!F6)</f>
         <v/>
       </c>
       <c r="G123" s="80" t="str">
-        <f>IF('6439A'!G6="", "", '6439A'!G6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <f>IF('4535A'!G6="", "", '4535A'!G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="73" t="str">
-        <f>IF('6439A'!A7="", "", '6439A'!A7)</f>
+        <f>IF('4535A'!A7="", "", '4535A'!A7)</f>
+        <v/>
+      </c>
+      <c r="B124" s="80" t="str">
+        <f>IF('4535A'!B7="", "", '4535A'!B7)</f>
+        <v/>
+      </c>
+      <c r="C124" s="80" t="str">
+        <f>IF('4535A'!C7="", "", '4535A'!C7)</f>
+        <v/>
+      </c>
+      <c r="D124" s="80" t="str">
+        <f>IF('4535A'!D7="", "", '4535A'!D7)</f>
+        <v/>
+      </c>
+      <c r="E124" s="80" t="str">
+        <f>IF('4535A'!E7="", "", '4535A'!E7)</f>
+        <v/>
+      </c>
+      <c r="F124" s="80" t="str">
+        <f>IF('4535A'!F7="", "", '4535A'!F7)</f>
+        <v/>
+      </c>
+      <c r="G124" s="80" t="str">
+        <f>IF('4535A'!G7="", "", '4535A'!G7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="73" t="str">
+        <f>IF('4535A'!A8="", "", '4535A'!A8)</f>
+        <v/>
+      </c>
+      <c r="B125" s="80" t="str">
+        <f>IF('4535A'!B8="", "", '4535A'!B8)</f>
+        <v/>
+      </c>
+      <c r="C125" s="80" t="str">
+        <f>IF('4535A'!C8="", "", '4535A'!C8)</f>
+        <v/>
+      </c>
+      <c r="D125" s="80" t="str">
+        <f>IF('4535A'!D8="", "", '4535A'!D8)</f>
+        <v/>
+      </c>
+      <c r="E125" s="80" t="str">
+        <f>IF('4535A'!E8="", "", '4535A'!E8)</f>
+        <v/>
+      </c>
+      <c r="F125" s="80" t="str">
+        <f>IF('4535A'!F8="", "", '4535A'!F8)</f>
+        <v/>
+      </c>
+      <c r="G125" s="80" t="str">
+        <f>IF('4535A'!G8="", "", '4535A'!G8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="73" t="str">
+        <f>IF('4535A'!A9="", "", '4535A'!A9)</f>
+        <v/>
+      </c>
+      <c r="B126" s="80" t="str">
+        <f>IF('4535A'!B9="", "", '4535A'!B9)</f>
+        <v/>
+      </c>
+      <c r="C126" s="80" t="str">
+        <f>IF('4535A'!C9="", "", '4535A'!C9)</f>
+        <v/>
+      </c>
+      <c r="D126" s="80" t="str">
+        <f>IF('4535A'!D9="", "", '4535A'!D9)</f>
+        <v/>
+      </c>
+      <c r="E126" s="80" t="str">
+        <f>IF('4535A'!E9="", "", '4535A'!E9)</f>
+        <v/>
+      </c>
+      <c r="F126" s="80" t="str">
+        <f>IF('4535A'!F9="", "", '4535A'!F9)</f>
+        <v/>
+      </c>
+      <c r="G126" s="80" t="str">
+        <f>IF('4535A'!G9="", "", '4535A'!G9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="73" t="str">
+        <f>IF('4535A'!A10="", "", '4535A'!A10)</f>
+        <v/>
+      </c>
+      <c r="B127" s="80" t="str">
+        <f>IF('4535A'!B10="", "", '4535A'!B10)</f>
+        <v/>
+      </c>
+      <c r="C127" s="80" t="str">
+        <f>IF('4535A'!C10="", "", '4535A'!C10)</f>
+        <v/>
+      </c>
+      <c r="D127" s="80" t="str">
+        <f>IF('4535A'!D10="", "", '4535A'!D10)</f>
+        <v/>
+      </c>
+      <c r="E127" s="80" t="str">
+        <f>IF('4535A'!E10="", "", '4535A'!E10)</f>
+        <v/>
+      </c>
+      <c r="F127" s="80" t="str">
+        <f>IF('4535A'!F10="", "", '4535A'!F10)</f>
+        <v/>
+      </c>
+      <c r="G127" s="80" t="str">
+        <f>IF('4535A'!G10="", "", '4535A'!G10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="73" t="str">
+        <f>IF('4535A'!A11="", "", '4535A'!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B124" s="80">
-        <f>IF('6439A'!B7="", "", '6439A'!B7)</f>
-        <v>84</v>
-      </c>
-      <c r="C124" s="80">
-        <f>IF('6439A'!C7="", "", '6439A'!C7)</f>
-        <v>148</v>
-      </c>
-      <c r="D124" s="80">
-        <f>IF('6439A'!D7="", "", '6439A'!D7)</f>
-        <v>332.712812921102</v>
-      </c>
-      <c r="E124" s="80">
-        <f>IF('6439A'!E7="", "", '6439A'!E7)</f>
+      <c r="B128" s="80">
+        <f>IF('4535A'!B11="", "", '4535A'!B11)</f>
+        <v>92</v>
+      </c>
+      <c r="C128" s="80">
+        <f>IF('4535A'!C11="", "", '4535A'!C11)</f>
+        <v>132.39745962155621</v>
+      </c>
+      <c r="D128" s="80">
+        <f>IF('4535A'!D11="", "", '4535A'!D11)</f>
+        <v>357.6025403784439</v>
+      </c>
+      <c r="E128" s="80">
+        <f>IF('4535A'!E11="", "", '4535A'!E11)</f>
+        <v>120</v>
+      </c>
+      <c r="F128" s="80">
+        <f>IF('4535A'!F11="", "", '4535A'!F11)</f>
+        <v>5</v>
+      </c>
+      <c r="G128" s="80">
+        <f>IF('4535A'!G11="", "", '4535A'!G11)</f>
         <v>0</v>
       </c>
-      <c r="F124" s="80">
-        <f>IF('6439A'!F7="", "", '6439A'!F7)</f>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="73" t="str">
+        <f>IF('4535A'!A12="", "", '4535A'!A12)</f>
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B129" s="80">
+        <f>IF('4535A'!B12="", "", '4535A'!B12)</f>
+        <v>93</v>
+      </c>
+      <c r="C129" s="80">
+        <f>IF('4535A'!C12="", "", '4535A'!C12)</f>
+        <v>116.39745962155621</v>
+      </c>
+      <c r="D129" s="80">
+        <f>IF('4535A'!D12="", "", '4535A'!D12)</f>
+        <v>366.84014468547792</v>
+      </c>
+      <c r="E129" s="80">
+        <f>IF('4535A'!E12="", "", '4535A'!E12)</f>
+        <v>60.000140305771573</v>
+      </c>
+      <c r="F129" s="80">
+        <f>IF('4535A'!F12="", "", '4535A'!F12)</f>
         <v>5</v>
       </c>
-      <c r="G124" s="80">
-        <f>IF('6439A'!G7="", "", '6439A'!G7)</f>
+      <c r="G129" s="80">
+        <f>IF('4535A'!G12="", "", '4535A'!G12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="73" t="str">
-        <f>IF('6439A'!A8="", "", '6439A'!A8)</f>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="73" t="str">
+        <f>IF('4535A'!A13="", "", '4535A'!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B125" s="80">
-        <f>IF('6439A'!B8="", "", '6439A'!B8)</f>
-        <v>85</v>
-      </c>
-      <c r="C125" s="80">
-        <f>IF('6439A'!C8="", "", '6439A'!C8)</f>
-        <v>164</v>
-      </c>
-      <c r="D125" s="80">
-        <f>IF('6439A'!D8="", "", '6439A'!D8)</f>
-        <v>341.95041722813596</v>
-      </c>
-      <c r="E125" s="80">
-        <f>IF('6439A'!E8="", "", '6439A'!E8)</f>
-        <v>-59.999859694228427</v>
-      </c>
-      <c r="F125" s="80">
-        <f>IF('6439A'!F8="", "", '6439A'!F8)</f>
+      <c r="B130" s="80">
+        <f>IF('4535A'!B13="", "", '4535A'!B13)</f>
+        <v>88</v>
+      </c>
+      <c r="C130" s="80">
+        <f>IF('4535A'!C13="", "", '4535A'!C13)</f>
+        <v>100.39745962155621</v>
+      </c>
+      <c r="D130" s="80">
+        <f>IF('4535A'!D13="", "", '4535A'!D13)</f>
+        <v>357.6025403784439</v>
+      </c>
+      <c r="E130" s="80">
+        <f>IF('4535A'!E13="", "", '4535A'!E13)</f>
+        <v>120</v>
+      </c>
+      <c r="F130" s="80">
+        <f>IF('4535A'!F13="", "", '4535A'!F13)</f>
         <v>5</v>
       </c>
-      <c r="G125" s="80">
-        <f>IF('6439A'!G8="", "", '6439A'!G8)</f>
+      <c r="G130" s="80">
+        <f>IF('4535A'!G13="", "", '4535A'!G13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="73" t="str">
-        <f>IF('6439A'!A9="", "", '6439A'!A9)</f>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="73" t="str">
+        <f>IF('4535A'!A14="", "", '4535A'!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B126" s="80">
-        <f>IF('6439A'!B9="", "", '6439A'!B9)</f>
+      <c r="B131" s="80">
+        <f>IF('4535A'!B14="", "", '4535A'!B14)</f>
+        <v>89</v>
+      </c>
+      <c r="C131" s="80">
+        <f>IF('4535A'!C14="", "", '4535A'!C14)</f>
+        <v>100.39745962155624</v>
+      </c>
+      <c r="D131" s="80">
+        <f>IF('4535A'!D14="", "", '4535A'!D14)</f>
+        <v>339.12733176437592</v>
+      </c>
+      <c r="E131" s="80">
+        <f>IF('4535A'!E14="", "", '4535A'!E14)</f>
+        <v>179.99985969422843</v>
+      </c>
+      <c r="F131" s="80">
+        <f>IF('4535A'!F14="", "", '4535A'!F14)</f>
+        <v>5</v>
+      </c>
+      <c r="G131" s="80">
+        <f>IF('4535A'!G14="", "", '4535A'!G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="73" t="str">
+        <f>IF('4535A'!A15="", "", '4535A'!A15)</f>
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B132" s="80">
+        <f>IF('4535A'!B15="", "", '4535A'!B15)</f>
         <v>86</v>
       </c>
-      <c r="C126" s="80">
-        <f>IF('6439A'!C9="", "", '6439A'!C9)</f>
-        <v>164</v>
-      </c>
-      <c r="D126" s="80">
-        <f>IF('6439A'!D9="", "", '6439A'!D9)</f>
-        <v>360.425625842204</v>
-      </c>
-      <c r="E126" s="80">
-        <f>IF('6439A'!E9="", "", '6439A'!E9)</f>
+      <c r="C132" s="80">
+        <f>IF('4535A'!C15="", "", '4535A'!C15)</f>
+        <v>84.397459621556237</v>
+      </c>
+      <c r="D132" s="80">
+        <f>IF('4535A'!D15="", "", '4535A'!D15)</f>
+        <v>329.88972745734191</v>
+      </c>
+      <c r="E132" s="80">
+        <f>IF('4535A'!E15="", "", '4535A'!E15)</f>
+        <v>120</v>
+      </c>
+      <c r="F132" s="80">
+        <f>IF('4535A'!F15="", "", '4535A'!F15)</f>
+        <v>5</v>
+      </c>
+      <c r="G132" s="80">
+        <f>IF('4535A'!G15="", "", '4535A'!G15)</f>
         <v>0</v>
       </c>
-      <c r="F126" s="80">
-        <f>IF('6439A'!F9="", "", '6439A'!F9)</f>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="73" t="str">
+        <f>IF('4535A'!A16="", "", '4535A'!A16)</f>
+        <v/>
+      </c>
+      <c r="B133" s="80" t="str">
+        <f>IF('4535A'!B16="", "", '4535A'!B16)</f>
+        <v/>
+      </c>
+      <c r="C133" s="80" t="str">
+        <f>IF('4535A'!C16="", "", '4535A'!C16)</f>
+        <v/>
+      </c>
+      <c r="D133" s="80" t="str">
+        <f>IF('4535A'!D16="", "", '4535A'!D16)</f>
+        <v/>
+      </c>
+      <c r="E133" s="80" t="str">
+        <f>IF('4535A'!E16="", "", '4535A'!E16)</f>
+        <v/>
+      </c>
+      <c r="F133" s="80" t="str">
+        <f>IF('4535A'!F16="", "", '4535A'!F16)</f>
+        <v/>
+      </c>
+      <c r="G133" s="80" t="str">
+        <f>IF('4535A'!G16="", "", '4535A'!G16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="73" t="str">
+        <f>IF('4535A'!A17="", "", '4535A'!A17)</f>
+        <v/>
+      </c>
+      <c r="B134" s="80" t="str">
+        <f>IF('4535A'!B17="", "", '4535A'!B17)</f>
+        <v/>
+      </c>
+      <c r="C134" s="80" t="str">
+        <f>IF('4535A'!C17="", "", '4535A'!C17)</f>
+        <v/>
+      </c>
+      <c r="D134" s="80" t="str">
+        <f>IF('4535A'!D17="", "", '4535A'!D17)</f>
+        <v/>
+      </c>
+      <c r="E134" s="80" t="str">
+        <f>IF('4535A'!E17="", "", '4535A'!E17)</f>
+        <v/>
+      </c>
+      <c r="F134" s="80" t="str">
+        <f>IF('4535A'!F17="", "", '4535A'!F17)</f>
+        <v/>
+      </c>
+      <c r="G134" s="80" t="str">
+        <f>IF('4535A'!G17="", "", '4535A'!G17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="73" t="str">
+        <f>IF('4535A'!A18="", "", '4535A'!A18)</f>
+        <v/>
+      </c>
+      <c r="B135" s="80" t="str">
+        <f>IF('4535A'!B18="", "", '4535A'!B18)</f>
+        <v/>
+      </c>
+      <c r="C135" s="80" t="str">
+        <f>IF('4535A'!C18="", "", '4535A'!C18)</f>
+        <v/>
+      </c>
+      <c r="D135" s="80" t="str">
+        <f>IF('4535A'!D18="", "", '4535A'!D18)</f>
+        <v/>
+      </c>
+      <c r="E135" s="80" t="str">
+        <f>IF('4535A'!E18="", "", '4535A'!E18)</f>
+        <v/>
+      </c>
+      <c r="F135" s="80" t="str">
+        <f>IF('4535A'!F18="", "", '4535A'!F18)</f>
+        <v/>
+      </c>
+      <c r="G135" s="80" t="str">
+        <f>IF('4535A'!G18="", "", '4535A'!G18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="73" t="str">
+        <f>IF('4535A'!A19="", "", '4535A'!A19)</f>
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B136" s="80">
+        <f>IF('4535A'!B19="", "", '4535A'!B19)</f>
+        <v>90</v>
+      </c>
+      <c r="C136" s="80">
+        <f>IF('4535A'!C19="", "", '4535A'!C19)</f>
+        <v>116.39745962155621</v>
+      </c>
+      <c r="D136" s="80">
+        <f>IF('4535A'!D19="", "", '4535A'!D19)</f>
+        <v>329.88972745734191</v>
+      </c>
+      <c r="E136" s="80">
+        <f>IF('4535A'!E19="", "", '4535A'!E19)</f>
+        <v>239.99971938845687</v>
+      </c>
+      <c r="F136" s="80">
+        <f>IF('4535A'!F19="", "", '4535A'!F19)</f>
         <v>5</v>
       </c>
-      <c r="G126" s="80">
-        <f>IF('6439A'!G9="", "", '6439A'!G9)</f>
+      <c r="G136" s="80">
+        <f>IF('4535A'!G19="", "", '4535A'!G19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="73" t="str">
-        <f>IF('6439A'!A10="", "", '6439A'!A10)</f>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="73" t="str">
+        <f>IF('4535A'!A20="", "", '4535A'!A20)</f>
+        <v/>
+      </c>
+      <c r="B137" s="80" t="str">
+        <f>IF('4535A'!B20="", "", '4535A'!B20)</f>
+        <v/>
+      </c>
+      <c r="C137" s="80" t="str">
+        <f>IF('4535A'!C20="", "", '4535A'!C20)</f>
+        <v/>
+      </c>
+      <c r="D137" s="80" t="str">
+        <f>IF('4535A'!D20="", "", '4535A'!D20)</f>
+        <v/>
+      </c>
+      <c r="E137" s="80" t="str">
+        <f>IF('4535A'!E20="", "", '4535A'!E20)</f>
+        <v/>
+      </c>
+      <c r="F137" s="80" t="str">
+        <f>IF('4535A'!F20="", "", '4535A'!F20)</f>
+        <v/>
+      </c>
+      <c r="G137" s="80" t="str">
+        <f>IF('4535A'!G20="", "", '4535A'!G20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="73" t="str">
+        <f>IF('4535A'!A21="", "", '4535A'!A21)</f>
+        <v/>
+      </c>
+      <c r="B138" s="80" t="str">
+        <f>IF('4535A'!B21="", "", '4535A'!B21)</f>
+        <v/>
+      </c>
+      <c r="C138" s="80" t="str">
+        <f>IF('4535A'!C21="", "", '4535A'!C21)</f>
+        <v/>
+      </c>
+      <c r="D138" s="80" t="str">
+        <f>IF('4535A'!D21="", "", '4535A'!D21)</f>
+        <v/>
+      </c>
+      <c r="E138" s="80" t="str">
+        <f>IF('4535A'!E21="", "", '4535A'!E21)</f>
+        <v/>
+      </c>
+      <c r="F138" s="80" t="str">
+        <f>IF('4535A'!F21="", "", '4535A'!F21)</f>
+        <v/>
+      </c>
+      <c r="G138" s="80" t="str">
+        <f>IF('4535A'!G21="", "", '4535A'!G21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="73" t="str">
+        <f>IF('4535A'!A22="", "", '4535A'!A22)</f>
+        <v/>
+      </c>
+      <c r="B139" s="80" t="str">
+        <f>IF('4535A'!B22="", "", '4535A'!B22)</f>
+        <v/>
+      </c>
+      <c r="C139" s="80" t="str">
+        <f>IF('4535A'!C22="", "", '4535A'!C22)</f>
+        <v/>
+      </c>
+      <c r="D139" s="80" t="str">
+        <f>IF('4535A'!D22="", "", '4535A'!D22)</f>
+        <v/>
+      </c>
+      <c r="E139" s="80" t="str">
+        <f>IF('4535A'!E22="", "", '4535A'!E22)</f>
+        <v/>
+      </c>
+      <c r="F139" s="80" t="str">
+        <f>IF('4535A'!F22="", "", '4535A'!F22)</f>
+        <v/>
+      </c>
+      <c r="G139" s="80" t="str">
+        <f>IF('4535A'!G22="", "", '4535A'!G22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="73" t="str">
+        <f>IF('4535A'!A23="", "", '4535A'!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B127" s="80">
-        <f>IF('6439A'!B10="", "", '6439A'!B10)</f>
-        <v>87</v>
-      </c>
-      <c r="C127" s="80">
-        <f>IF('6439A'!C10="", "", '6439A'!C10)</f>
-        <v>148</v>
-      </c>
-      <c r="D127" s="80">
-        <f>IF('6439A'!D10="", "", '6439A'!D10)</f>
-        <v>369.66323014923796</v>
-      </c>
-      <c r="E127" s="80">
-        <f>IF('6439A'!E10="", "", '6439A'!E10)</f>
-        <v>59.999859694228427</v>
-      </c>
-      <c r="F127" s="80">
-        <f>IF('6439A'!F10="", "", '6439A'!F10)</f>
+      <c r="B140" s="80">
+        <f>IF('4535A'!B23="", "", '4535A'!B23)</f>
+        <v>91</v>
+      </c>
+      <c r="C140" s="80">
+        <f>IF('4535A'!C23="", "", '4535A'!C23)</f>
+        <v>132.39745962155621</v>
+      </c>
+      <c r="D140" s="80">
+        <f>IF('4535A'!D23="", "", '4535A'!D23)</f>
+        <v>339.12733176437592</v>
+      </c>
+      <c r="E140" s="80">
+        <f>IF('4535A'!E23="", "", '4535A'!E23)</f>
+        <v>299.9995790826847</v>
+      </c>
+      <c r="F140" s="80">
+        <f>IF('4535A'!F23="", "", '4535A'!F23)</f>
         <v>5</v>
       </c>
-      <c r="G127" s="80">
-        <f>IF('6439A'!G10="", "", '6439A'!G10)</f>
+      <c r="G140" s="80">
+        <f>IF('4535A'!G23="", "", '4535A'!G23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="73" t="str">
-        <f>IF('6439A'!A11="", "", '6439A'!A11)</f>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="73" t="str">
+        <f>IF('4535A'!A24="", "", '4535A'!A24)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B128" s="80">
-        <f>IF('6439A'!B11="", "", '6439A'!B11)</f>
-        <v>92</v>
-      </c>
-      <c r="C128" s="80">
-        <f>IF('6439A'!C11="", "", '6439A'!C11)</f>
-        <v>116</v>
-      </c>
-      <c r="D128" s="80">
-        <f>IF('6439A'!D11="", "", '6439A'!D11)</f>
-        <v>332.712812921102</v>
-      </c>
-      <c r="E128" s="80">
-        <f>IF('6439A'!E11="", "", '6439A'!E11)</f>
+      <c r="B141" s="80">
+        <f>IF('4535A'!B24="", "", '4535A'!B24)</f>
+        <v>94</v>
+      </c>
+      <c r="C141" s="80">
+        <f>IF('4535A'!C24="", "", '4535A'!C24)</f>
+        <v>148.39745962155618</v>
+      </c>
+      <c r="D141" s="80">
+        <f>IF('4535A'!D24="", "", '4535A'!D24)</f>
+        <v>329.88972745734191</v>
+      </c>
+      <c r="E141" s="80">
+        <f>IF('4535A'!E24="", "", '4535A'!E24)</f>
+        <v>239.99971938845687</v>
+      </c>
+      <c r="F141" s="80">
+        <f>IF('4535A'!F24="", "", '4535A'!F24)</f>
+        <v>5</v>
+      </c>
+      <c r="G141" s="80">
+        <f>IF('4535A'!G24="", "", '4535A'!G24)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="80">
-        <f>IF('6439A'!F11="", "", '6439A'!F11)</f>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="73" t="str">
+        <f>IF('4535A'!A25="", "", '4535A'!A25)</f>
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B142" s="80">
+        <f>IF('4535A'!B25="", "", '4535A'!B25)</f>
+        <v>95</v>
+      </c>
+      <c r="C142" s="80">
+        <f>IF('4535A'!C25="", "", '4535A'!C25)</f>
+        <v>164.39745962155615</v>
+      </c>
+      <c r="D142" s="80">
+        <f>IF('4535A'!D25="", "", '4535A'!D25)</f>
+        <v>339.12733176437587</v>
+      </c>
+      <c r="E142" s="80">
+        <f>IF('4535A'!E25="", "", '4535A'!E25)</f>
+        <v>299.9995790826847</v>
+      </c>
+      <c r="F142" s="80">
+        <f>IF('4535A'!F25="", "", '4535A'!F25)</f>
         <v>5</v>
       </c>
-      <c r="G128" s="80">
-        <f>IF('6439A'!G11="", "", '6439A'!G11)</f>
+      <c r="G142" s="80">
+        <f>IF('4535A'!G25="", "", '4535A'!G25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="73" t="str">
-        <f>IF('6439A'!A12="", "", '6439A'!A12)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B129" s="80">
-        <f>IF('6439A'!B12="", "", '6439A'!B12)</f>
-        <v>93</v>
-      </c>
-      <c r="C129" s="80">
-        <f>IF('6439A'!C12="", "", '6439A'!C12)</f>
-        <v>132</v>
-      </c>
-      <c r="D129" s="80">
-        <f>IF('6439A'!D12="", "", '6439A'!D12)</f>
-        <v>341.95041722813596</v>
-      </c>
-      <c r="E129" s="80">
-        <f>IF('6439A'!E12="", "", '6439A'!E12)</f>
-        <v>-59.999859694228427</v>
-      </c>
-      <c r="F129" s="80">
-        <f>IF('6439A'!F12="", "", '6439A'!F12)</f>
-        <v>5</v>
-      </c>
-      <c r="G129" s="80">
-        <f>IF('6439A'!G12="", "", '6439A'!G12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="73" t="str">
-        <f>IF('6439A'!A13="", "", '6439A'!A13)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B130" s="80">
-        <f>IF('6439A'!B13="", "", '6439A'!B13)</f>
-        <v>88</v>
-      </c>
-      <c r="C130" s="80">
-        <f>IF('6439A'!C13="", "", '6439A'!C13)</f>
-        <v>132</v>
-      </c>
-      <c r="D130" s="80">
-        <f>IF('6439A'!D13="", "", '6439A'!D13)</f>
-        <v>360.425625842204</v>
-      </c>
-      <c r="E130" s="80">
-        <f>IF('6439A'!E13="", "", '6439A'!E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F130" s="80">
-        <f>IF('6439A'!F13="", "", '6439A'!F13)</f>
-        <v>5</v>
-      </c>
-      <c r="G130" s="80">
-        <f>IF('6439A'!G13="", "", '6439A'!G13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="73" t="str">
-        <f>IF('6439A'!A14="", "", '6439A'!A14)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B131" s="80">
-        <f>IF('6439A'!B14="", "", '6439A'!B14)</f>
-        <v>89</v>
-      </c>
-      <c r="C131" s="80">
-        <f>IF('6439A'!C14="", "", '6439A'!C14)</f>
-        <v>116</v>
-      </c>
-      <c r="D131" s="80">
-        <f>IF('6439A'!D14="", "", '6439A'!D14)</f>
-        <v>369.66323014923796</v>
-      </c>
-      <c r="E131" s="80">
-        <f>IF('6439A'!E14="", "", '6439A'!E14)</f>
-        <v>59.999859694228427</v>
-      </c>
-      <c r="F131" s="80">
-        <f>IF('6439A'!F14="", "", '6439A'!F14)</f>
-        <v>5</v>
-      </c>
-      <c r="G131" s="80">
-        <f>IF('6439A'!G14="", "", '6439A'!G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="73" t="str">
-        <f>IF('6439A'!A15="", "", '6439A'!A15)</f>
-        <v/>
-      </c>
-      <c r="B132" s="80" t="str">
-        <f>IF('6439A'!B15="", "", '6439A'!B15)</f>
-        <v/>
-      </c>
-      <c r="C132" s="80" t="str">
-        <f>IF('6439A'!C15="", "", '6439A'!C15)</f>
-        <v/>
-      </c>
-      <c r="D132" s="80" t="str">
-        <f>IF('6439A'!D15="", "", '6439A'!D15)</f>
-        <v/>
-      </c>
-      <c r="E132" s="80" t="str">
-        <f>IF('6439A'!E15="", "", '6439A'!E15)</f>
-        <v/>
-      </c>
-      <c r="F132" s="80" t="str">
-        <f>IF('6439A'!F15="", "", '6439A'!F15)</f>
-        <v/>
-      </c>
-      <c r="G132" s="80" t="str">
-        <f>IF('6439A'!G15="", "", '6439A'!G15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="73" t="str">
-        <f>IF('6439A'!A16="", "", '6439A'!A16)</f>
-        <v/>
-      </c>
-      <c r="B133" s="80" t="str">
-        <f>IF('6439A'!B16="", "", '6439A'!B16)</f>
-        <v/>
-      </c>
-      <c r="C133" s="80" t="str">
-        <f>IF('6439A'!C16="", "", '6439A'!C16)</f>
-        <v/>
-      </c>
-      <c r="D133" s="80" t="str">
-        <f>IF('6439A'!D16="", "", '6439A'!D16)</f>
-        <v/>
-      </c>
-      <c r="E133" s="80" t="str">
-        <f>IF('6439A'!E16="", "", '6439A'!E16)</f>
-        <v/>
-      </c>
-      <c r="F133" s="80" t="str">
-        <f>IF('6439A'!F16="", "", '6439A'!F16)</f>
-        <v/>
-      </c>
-      <c r="G133" s="80" t="str">
-        <f>IF('6439A'!G16="", "", '6439A'!G16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="73" t="str">
-        <f>IF('6439A'!A17="", "", '6439A'!A17)</f>
-        <v/>
-      </c>
-      <c r="B134" s="80" t="str">
-        <f>IF('6439A'!B17="", "", '6439A'!B17)</f>
-        <v/>
-      </c>
-      <c r="C134" s="80" t="str">
-        <f>IF('6439A'!C17="", "", '6439A'!C17)</f>
-        <v/>
-      </c>
-      <c r="D134" s="80" t="str">
-        <f>IF('6439A'!D17="", "", '6439A'!D17)</f>
-        <v/>
-      </c>
-      <c r="E134" s="80" t="str">
-        <f>IF('6439A'!E17="", "", '6439A'!E17)</f>
-        <v/>
-      </c>
-      <c r="F134" s="80" t="str">
-        <f>IF('6439A'!F17="", "", '6439A'!F17)</f>
-        <v/>
-      </c>
-      <c r="G134" s="80" t="str">
-        <f>IF('6439A'!G17="", "", '6439A'!G17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="73" t="str">
-        <f>IF('6439A'!A18="", "", '6439A'!A18)</f>
-        <v/>
-      </c>
-      <c r="B135" s="80" t="str">
-        <f>IF('6439A'!B18="", "", '6439A'!B18)</f>
-        <v/>
-      </c>
-      <c r="C135" s="80" t="str">
-        <f>IF('6439A'!C18="", "", '6439A'!C18)</f>
-        <v/>
-      </c>
-      <c r="D135" s="80" t="str">
-        <f>IF('6439A'!D18="", "", '6439A'!D18)</f>
-        <v/>
-      </c>
-      <c r="E135" s="80" t="str">
-        <f>IF('6439A'!E18="", "", '6439A'!E18)</f>
-        <v/>
-      </c>
-      <c r="F135" s="80" t="str">
-        <f>IF('6439A'!F18="", "", '6439A'!F18)</f>
-        <v/>
-      </c>
-      <c r="G135" s="80" t="str">
-        <f>IF('6439A'!G18="", "", '6439A'!G18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="73" t="str">
-        <f>IF('6439A'!A19="", "", '6439A'!A19)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B136" s="80">
-        <f>IF('6439A'!B19="", "", '6439A'!B19)</f>
-        <v>90</v>
-      </c>
-      <c r="C136" s="80">
-        <f>IF('6439A'!C19="", "", '6439A'!C19)</f>
-        <v>100</v>
-      </c>
-      <c r="D136" s="80">
-        <f>IF('6439A'!D19="", "", '6439A'!D19)</f>
-        <v>360.425625842204</v>
-      </c>
-      <c r="E136" s="80">
-        <f>IF('6439A'!E19="", "", '6439A'!E19)</f>
-        <v>119.99971938845685</v>
-      </c>
-      <c r="F136" s="80">
-        <f>IF('6439A'!F19="", "", '6439A'!F19)</f>
-        <v>5</v>
-      </c>
-      <c r="G136" s="80">
-        <f>IF('6439A'!G19="", "", '6439A'!G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="73" t="str">
-        <f>IF('6439A'!A20="", "", '6439A'!A20)</f>
-        <v/>
-      </c>
-      <c r="B137" s="80" t="str">
-        <f>IF('6439A'!B20="", "", '6439A'!B20)</f>
-        <v/>
-      </c>
-      <c r="C137" s="80" t="str">
-        <f>IF('6439A'!C20="", "", '6439A'!C20)</f>
-        <v/>
-      </c>
-      <c r="D137" s="80" t="str">
-        <f>IF('6439A'!D20="", "", '6439A'!D20)</f>
-        <v/>
-      </c>
-      <c r="E137" s="80" t="str">
-        <f>IF('6439A'!E20="", "", '6439A'!E20)</f>
-        <v/>
-      </c>
-      <c r="F137" s="80" t="str">
-        <f>IF('6439A'!F20="", "", '6439A'!F20)</f>
-        <v/>
-      </c>
-      <c r="G137" s="80" t="str">
-        <f>IF('6439A'!G20="", "", '6439A'!G20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="73" t="str">
-        <f>IF('6439A'!A21="", "", '6439A'!A21)</f>
-        <v/>
-      </c>
-      <c r="B138" s="80" t="str">
-        <f>IF('6439A'!B21="", "", '6439A'!B21)</f>
-        <v/>
-      </c>
-      <c r="C138" s="80" t="str">
-        <f>IF('6439A'!C21="", "", '6439A'!C21)</f>
-        <v/>
-      </c>
-      <c r="D138" s="80" t="str">
-        <f>IF('6439A'!D21="", "", '6439A'!D21)</f>
-        <v/>
-      </c>
-      <c r="E138" s="80" t="str">
-        <f>IF('6439A'!E21="", "", '6439A'!E21)</f>
-        <v/>
-      </c>
-      <c r="F138" s="80" t="str">
-        <f>IF('6439A'!F21="", "", '6439A'!F21)</f>
-        <v/>
-      </c>
-      <c r="G138" s="80" t="str">
-        <f>IF('6439A'!G21="", "", '6439A'!G21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="73" t="str">
-        <f>IF('6439A'!A22="", "", '6439A'!A22)</f>
-        <v/>
-      </c>
-      <c r="B139" s="80" t="str">
-        <f>IF('6439A'!B22="", "", '6439A'!B22)</f>
-        <v/>
-      </c>
-      <c r="C139" s="80" t="str">
-        <f>IF('6439A'!C22="", "", '6439A'!C22)</f>
-        <v/>
-      </c>
-      <c r="D139" s="80" t="str">
-        <f>IF('6439A'!D22="", "", '6439A'!D22)</f>
-        <v/>
-      </c>
-      <c r="E139" s="80" t="str">
-        <f>IF('6439A'!E22="", "", '6439A'!E22)</f>
-        <v/>
-      </c>
-      <c r="F139" s="80" t="str">
-        <f>IF('6439A'!F22="", "", '6439A'!F22)</f>
-        <v/>
-      </c>
-      <c r="G139" s="80" t="str">
-        <f>IF('6439A'!G22="", "", '6439A'!G22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="73" t="str">
-        <f>IF('6439A'!A23="", "", '6439A'!A23)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B140" s="80">
-        <f>IF('6439A'!B23="", "", '6439A'!B23)</f>
-        <v>91</v>
-      </c>
-      <c r="C140" s="80">
-        <f>IF('6439A'!C23="", "", '6439A'!C23)</f>
-        <v>100</v>
-      </c>
-      <c r="D140" s="80">
-        <f>IF('6439A'!D23="", "", '6439A'!D23)</f>
-        <v>341.95041722813596</v>
-      </c>
-      <c r="E140" s="80">
-        <f>IF('6439A'!E23="", "", '6439A'!E23)</f>
-        <v>179.99957908268468</v>
-      </c>
-      <c r="F140" s="80">
-        <f>IF('6439A'!F23="", "", '6439A'!F23)</f>
-        <v>5</v>
-      </c>
-      <c r="G140" s="80">
-        <f>IF('6439A'!G23="", "", '6439A'!G23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="73" t="str">
-        <f>IF('6439A'!A24="", "", '6439A'!A24)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B141" s="80">
-        <f>IF('6439A'!B24="", "", '6439A'!B24)</f>
-        <v>94</v>
-      </c>
-      <c r="C141" s="80">
-        <f>IF('6439A'!C24="", "", '6439A'!C24)</f>
-        <v>84</v>
-      </c>
-      <c r="D141" s="80">
-        <f>IF('6439A'!D24="", "", '6439A'!D24)</f>
-        <v>332.712812921102</v>
-      </c>
-      <c r="E141" s="80">
-        <f>IF('6439A'!E24="", "", '6439A'!E24)</f>
-        <v>119.99971938845685</v>
-      </c>
-      <c r="F141" s="80">
-        <f>IF('6439A'!F24="", "", '6439A'!F24)</f>
-        <v>5</v>
-      </c>
-      <c r="G141" s="80">
-        <f>IF('6439A'!G24="", "", '6439A'!G24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="73" t="str">
-        <f>IF('6439A'!A25="", "", '6439A'!A25)</f>
-        <v/>
-      </c>
-      <c r="B142" s="80" t="str">
-        <f>IF('6439A'!B25="", "", '6439A'!B25)</f>
-        <v/>
-      </c>
-      <c r="C142" s="80" t="str">
-        <f>IF('6439A'!C25="", "", '6439A'!C25)</f>
-        <v/>
-      </c>
-      <c r="D142" s="80" t="str">
-        <f>IF('6439A'!D25="", "", '6439A'!D25)</f>
-        <v/>
-      </c>
-      <c r="E142" s="80" t="str">
-        <f>IF('6439A'!E25="", "", '6439A'!E25)</f>
-        <v/>
-      </c>
-      <c r="F142" s="80" t="str">
-        <f>IF('6439A'!F25="", "", '6439A'!F25)</f>
-        <v/>
-      </c>
-      <c r="G142" s="80" t="str">
-        <f>IF('6439A'!G25="", "", '6439A'!G25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="73" t="str">
-        <f>IF('6439A'!A26="", "", '6439A'!A26)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B143" s="80">
-        <f>IF('6439A'!B26="", "", '6439A'!B26)</f>
-        <v>95</v>
-      </c>
-      <c r="C143" s="80">
-        <f>IF('6439A'!C26="", "", '6439A'!C26)</f>
-        <v>148</v>
-      </c>
-      <c r="D143" s="80">
-        <f>IF('6439A'!D26="", "", '6439A'!D26)</f>
-        <v>388.1</v>
-      </c>
-      <c r="E143" s="80">
-        <f>IF('6439A'!E26="", "", '6439A'!E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F143" s="80">
-        <f>IF('6439A'!F26="", "", '6439A'!F26)</f>
-        <v>5</v>
-      </c>
-      <c r="G143" s="80">
-        <f>IF('6439A'!G26="", "", '6439A'!G26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <f>IF('4535A'!A26="", "", '4535A'!A26)</f>
+        <v/>
+      </c>
+      <c r="B143" s="80" t="str">
+        <f>IF('4535A'!B26="", "", '4535A'!B26)</f>
+        <v/>
+      </c>
+      <c r="C143" s="80" t="str">
+        <f>IF('4535A'!C26="", "", '4535A'!C26)</f>
+        <v/>
+      </c>
+      <c r="D143" s="80" t="str">
+        <f>IF('4535A'!D26="", "", '4535A'!D26)</f>
+        <v/>
+      </c>
+      <c r="E143" s="80" t="str">
+        <f>IF('4535A'!E26="", "", '4535A'!E26)</f>
+        <v/>
+      </c>
+      <c r="F143" s="80" t="str">
+        <f>IF('4535A'!F26="", "", '4535A'!F26)</f>
+        <v/>
+      </c>
+      <c r="G143" s="80" t="str">
+        <f>IF('4535A'!G26="", "", '4535A'!G26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="72" t="str">
         <f>IF('4616A'!A3="", "", '4616A'!A3)</f>
         <v>triangle_10pad</v>
@@ -28328,7 +28330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="72" t="str">
         <f>IF('4616A'!A4="", "", '4616A'!A4)</f>
         <v>triangle_10pad</v>
@@ -28358,7 +28360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="72" t="str">
         <f>IF('4616A'!A5="", "", '4616A'!A5)</f>
         <v/>
@@ -28388,7 +28390,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="72" t="str">
         <f>IF('4616A'!A6="", "", '4616A'!A6)</f>
         <v/>
@@ -28418,7 +28420,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="72" t="str">
         <f>IF('4616A'!A7="", "", '4616A'!A7)</f>
         <v/>
@@ -28448,7 +28450,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="72" t="str">
         <f>IF('4616A'!A8="", "", '4616A'!A8)</f>
         <v/>
@@ -28478,7 +28480,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="72" t="str">
         <f>IF('4616A'!A9="", "", '4616A'!A9)</f>
         <v/>
@@ -28508,7 +28510,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="72" t="str">
         <f>IF('4616A'!A10="", "", '4616A'!A10)</f>
         <v/>
@@ -28538,7 +28540,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="72" t="str">
         <f>IF('4616A'!A11="", "", '4616A'!A11)</f>
         <v>triangle_10pad</v>
@@ -28568,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="72" t="str">
         <f>IF('4616A'!A12="", "", '4616A'!A12)</f>
         <v>triangle_10pad</v>
@@ -28598,7 +28600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="72" t="str">
         <f>IF('4616A'!A13="", "", '4616A'!A13)</f>
         <v/>
@@ -28628,7 +28630,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="72" t="str">
         <f>IF('4616A'!A14="", "", '4616A'!A14)</f>
         <v>triangle_10pad</v>
@@ -28658,7 +28660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="72" t="str">
         <f>IF('4616A'!A15="", "", '4616A'!A15)</f>
         <v>triangle_10pad</v>
@@ -28688,7 +28690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="72" t="str">
         <f>IF('4616A'!A16="", "", '4616A'!A16)</f>
         <v/>
@@ -28718,7 +28720,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="72" t="str">
         <f>IF('4616A'!A17="", "", '4616A'!A17)</f>
         <v/>
@@ -28748,7 +28750,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="72" t="str">
         <f>IF('4616A'!A18="", "", '4616A'!A18)</f>
         <v/>
@@ -28778,7 +28780,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="72" t="str">
         <f>IF('4616A'!A19="", "", '4616A'!A19)</f>
         <v>triangle_10pad</v>
@@ -28808,7 +28810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="72" t="str">
         <f>IF('4616A'!A20="", "", '4616A'!A20)</f>
         <v/>
@@ -28838,7 +28840,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="72" t="str">
         <f>IF('4616A'!A21="", "", '4616A'!A21)</f>
         <v/>
@@ -28868,7 +28870,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="72" t="str">
         <f>IF('4616A'!A22="", "", '4616A'!A22)</f>
         <v/>
@@ -28898,7 +28900,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="72" t="str">
         <f>IF('4616A'!A23="", "", '4616A'!A23)</f>
         <v>triangle_10pad</v>
@@ -28928,7 +28930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="72" t="str">
         <f>IF('4616A'!A24="", "", '4616A'!A24)</f>
         <v>triangle_10pad</v>
@@ -28958,7 +28960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="72" t="str">
         <f>IF('4616A'!A25="", "", '4616A'!A25)</f>
         <v>triangle_10pad</v>
@@ -28988,7 +28990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="70" t="str">
         <f>IF('4616A'!A26="", "", '4616A'!A26)</f>
         <v/>
@@ -29032,7 +29034,7 @@
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/skinGui/iniGenerators/rightLeg_Upper_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Upper_ini_generator.xlsx
@@ -17955,7 +17955,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -17965,7 +17965,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -17975,7 +17975,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -17985,7 +17985,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -17995,7 +17995,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -18005,7 +18005,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -18127,7 +18127,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18220,7 +18220,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>2.0943951023931953</v>
+        <v>-1.0471975511965976</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -18300,7 +18300,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="O5" s="42">
         <v>132</v>
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>365</v>
+        <v>-5</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -18583,15 +18583,15 @@
       </c>
       <c r="C14" s="62">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>164.39745962155624</v>
+        <v>195.60254037844379</v>
       </c>
       <c r="D14" s="62">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>137.12733176437592</v>
+        <v>155.87266823562413</v>
       </c>
       <c r="E14" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
-        <v>179.99985969422843</v>
+        <v>-1.403057715734235E-4</v>
       </c>
       <c r="F14" s="61">
         <v>5</v>
@@ -18631,15 +18631,15 @@
       </c>
       <c r="C15" s="62">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>148.39745962155624</v>
+        <v>211.60254037844379</v>
       </c>
       <c r="D15" s="62">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>127.88972745734193</v>
+        <v>165.11027254265815</v>
       </c>
       <c r="E15" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F15" s="61">
         <v>5</v>
@@ -18708,15 +18708,15 @@
       </c>
       <c r="C17" s="62">
         <f t="shared" ref="C17:C24" si="5">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>148.39745962155627</v>
+        <v>211.60254037844373</v>
       </c>
       <c r="D17" s="62">
         <f t="shared" ref="D17:D24" si="6">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
-        <v>109.41451884327392</v>
+        <v>183.58548115672616</v>
       </c>
       <c r="E17" s="62">
         <f t="shared" ref="E17:E24" si="7">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
-        <v>179.99985969422843</v>
+        <v>-1.403057715734235E-4</v>
       </c>
       <c r="F17" s="61">
         <v>5</v>
@@ -18756,15 +18756,15 @@
       </c>
       <c r="C18" s="62">
         <f t="shared" si="5"/>
-        <v>164.39745962155624</v>
+        <v>195.60254037844376</v>
       </c>
       <c r="D18" s="62">
         <f t="shared" si="6"/>
-        <v>100.17691453623989</v>
+        <v>192.82308546376015</v>
       </c>
       <c r="E18" s="62">
         <f t="shared" si="7"/>
-        <v>239.99971938845687</v>
+        <v>59.999719388456853</v>
       </c>
       <c r="F18" s="61">
         <v>5</v>
@@ -18804,15 +18804,15 @@
       </c>
       <c r="C19" s="62">
         <f t="shared" si="5"/>
-        <v>180.39745962155621</v>
+        <v>179.60254037844379</v>
       </c>
       <c r="D19" s="62">
         <f t="shared" si="6"/>
-        <v>127.88972745734191</v>
+        <v>165.11027254265815</v>
       </c>
       <c r="E19" s="62">
         <f t="shared" si="7"/>
-        <v>239.99971938845687</v>
+        <v>59.999719388456853</v>
       </c>
       <c r="F19" s="61">
         <v>5</v>
@@ -18852,15 +18852,15 @@
       </c>
       <c r="C20" s="62">
         <f t="shared" si="5"/>
-        <v>180.39745962155624</v>
+        <v>179.60254037844376</v>
       </c>
       <c r="D20" s="62">
         <f t="shared" si="6"/>
-        <v>109.4145188432739</v>
+        <v>183.58548115672616</v>
       </c>
       <c r="E20" s="62">
         <f t="shared" si="7"/>
-        <v>179.99985969422843</v>
+        <v>-1.403057715734235E-4</v>
       </c>
       <c r="F20" s="61">
         <v>5</v>
@@ -18900,15 +18900,15 @@
       </c>
       <c r="C21" s="62">
         <f t="shared" si="5"/>
-        <v>196.39745962155621</v>
+        <v>163.60254037844379</v>
       </c>
       <c r="D21" s="62">
         <f t="shared" si="6"/>
-        <v>100.17691453623986</v>
+        <v>192.82308546376018</v>
       </c>
       <c r="E21" s="62">
         <f t="shared" si="7"/>
-        <v>239.99971938845687</v>
+        <v>59.999719388456853</v>
       </c>
       <c r="F21" s="61">
         <v>5</v>
@@ -18948,15 +18948,15 @@
       </c>
       <c r="C22" s="62">
         <f t="shared" si="5"/>
-        <v>212.39745962155621</v>
+        <v>147.60254037844382</v>
       </c>
       <c r="D22" s="62">
         <f t="shared" si="6"/>
-        <v>109.41451884327387</v>
+        <v>183.58548115672619</v>
       </c>
       <c r="E22" s="62">
         <f t="shared" si="7"/>
-        <v>299.9995790826847</v>
+        <v>119.99957908268468</v>
       </c>
       <c r="F22" s="61">
         <v>5</v>
@@ -18996,15 +18996,15 @@
       </c>
       <c r="C23" s="62">
         <f t="shared" si="5"/>
-        <v>196.39745962155621</v>
+        <v>163.60254037844382</v>
       </c>
       <c r="D23" s="62">
         <f t="shared" si="6"/>
-        <v>137.12733176437592</v>
+        <v>155.87266823562413</v>
       </c>
       <c r="E23" s="62">
         <f t="shared" si="7"/>
-        <v>299.9995790826847</v>
+        <v>119.99957908268468</v>
       </c>
       <c r="F23" s="61">
         <v>5</v>
@@ -19044,15 +19044,15 @@
       </c>
       <c r="C24" s="62">
         <f t="shared" si="5"/>
-        <v>212.39745962155618</v>
+        <v>147.60254037844382</v>
       </c>
       <c r="D24" s="62">
         <f t="shared" si="6"/>
-        <v>127.88972745734188</v>
+        <v>165.11027254265815</v>
       </c>
       <c r="E24" s="62">
         <f t="shared" si="7"/>
-        <v>239.99971938845687</v>
+        <v>59.999719388456853</v>
       </c>
       <c r="F24" s="61">
         <v>5</v>
@@ -19130,8 +19130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19228,7 +19228,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>2.0943951023931953</v>
+        <v>-1.0471975511965976</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -19256,15 +19256,15 @@
       </c>
       <c r="C4" s="62">
         <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>212.39745962155615</v>
+        <v>147.60254037844385</v>
       </c>
       <c r="D4" s="62">
         <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>163.84014468547792</v>
+        <v>128.15985531452213</v>
       </c>
       <c r="E4" s="62">
         <f t="shared" ref="E4:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
-        <v>60.000140305771573</v>
+        <v>-119.99985969422843</v>
       </c>
       <c r="F4" s="61">
         <v>5</v>
@@ -19314,15 +19314,15 @@
       </c>
       <c r="C5" s="62">
         <f t="shared" si="1"/>
-        <v>212.39745962155615</v>
+        <v>147.60254037844388</v>
       </c>
       <c r="D5" s="62">
         <f t="shared" si="2"/>
-        <v>182.31535329954593</v>
+        <v>109.68464670045412</v>
       </c>
       <c r="E5" s="62">
         <f t="shared" si="3"/>
-        <v>2.80611543146847E-4</v>
+        <v>-179.99971938845687</v>
       </c>
       <c r="F5" s="61">
         <v>5</v>
@@ -19346,7 +19346,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="O5" s="42">
         <v>132</v>
@@ -19371,15 +19371,15 @@
       </c>
       <c r="C6" s="62">
         <f t="shared" si="1"/>
-        <v>196.39745962155615</v>
+        <v>163.60254037844385</v>
       </c>
       <c r="D6" s="62">
         <f t="shared" si="2"/>
-        <v>191.55295760657995</v>
+        <v>100.44704239342011</v>
       </c>
       <c r="E6" s="62">
         <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
+        <v>-119.99985969422843</v>
       </c>
       <c r="F6" s="61">
         <v>5</v>
@@ -19426,15 +19426,15 @@
       </c>
       <c r="C7" s="62">
         <f t="shared" si="1"/>
-        <v>180.39745962155621</v>
+        <v>179.60254037844385</v>
       </c>
       <c r="D7" s="62">
         <f t="shared" si="2"/>
-        <v>182.31535329954596</v>
+        <v>109.68464670045411</v>
       </c>
       <c r="E7" s="62">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F7" s="61">
         <v>5</v>
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>365</v>
+        <v>-5</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -19480,15 +19480,15 @@
       </c>
       <c r="C8" s="62">
         <f t="shared" si="1"/>
-        <v>164.39745962155621</v>
+        <v>195.60254037844382</v>
       </c>
       <c r="D8" s="62">
         <f t="shared" si="2"/>
-        <v>191.55295760657998</v>
+        <v>100.44704239342008</v>
       </c>
       <c r="E8" s="62">
         <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
+        <v>-119.99985969422843</v>
       </c>
       <c r="F8" s="61">
         <v>5</v>
@@ -19534,15 +19534,15 @@
       </c>
       <c r="C9" s="62">
         <f t="shared" si="1"/>
-        <v>148.39745962155621</v>
+        <v>211.60254037844379</v>
       </c>
       <c r="D9" s="62">
         <f t="shared" si="2"/>
-        <v>182.31535329954599</v>
+        <v>109.68464670045408</v>
       </c>
       <c r="E9" s="62">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F9" s="61">
         <v>5</v>
@@ -19565,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -19585,15 +19585,15 @@
       </c>
       <c r="C10" s="62">
         <f t="shared" si="1"/>
-        <v>148.39745962155624</v>
+        <v>211.60254037844379</v>
       </c>
       <c r="D10" s="62">
         <f t="shared" si="2"/>
-        <v>163.84014468547798</v>
+        <v>128.1598553145221</v>
       </c>
       <c r="E10" s="62">
         <f t="shared" si="3"/>
-        <v>179.99985969422843</v>
+        <v>-1.403057715734235E-4</v>
       </c>
       <c r="F10" s="61">
         <v>5</v>
@@ -19635,15 +19635,15 @@
       </c>
       <c r="C11" s="62">
         <f t="shared" si="1"/>
-        <v>196.39745962155621</v>
+        <v>163.60254037844385</v>
       </c>
       <c r="D11" s="62">
         <f t="shared" si="2"/>
-        <v>154.6025403784439</v>
+        <v>137.39745962155615</v>
       </c>
       <c r="E11" s="62">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F11" s="61">
         <v>5</v>
@@ -19686,15 +19686,15 @@
       </c>
       <c r="C12" s="62">
         <f t="shared" si="1"/>
-        <v>180.39745962155621</v>
+        <v>179.60254037844382</v>
       </c>
       <c r="D12" s="62">
         <f t="shared" si="2"/>
-        <v>163.84014468547792</v>
+        <v>128.15985531452213</v>
       </c>
       <c r="E12" s="62">
         <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
+        <v>-119.99985969422843</v>
       </c>
       <c r="F12" s="61">
         <v>5</v>
@@ -19734,15 +19734,15 @@
       </c>
       <c r="C13" s="62">
         <f t="shared" si="1"/>
-        <v>164.39745962155621</v>
+        <v>195.60254037844379</v>
       </c>
       <c r="D13" s="62">
         <f t="shared" si="2"/>
-        <v>154.60254037844393</v>
+        <v>137.39745962155612</v>
       </c>
       <c r="E13" s="62">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F13" s="61">
         <v>5</v>
@@ -22180,7 +22180,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="64">
-        <f t="shared" ref="G5:G10" si="6">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G5" si="6">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
@@ -22393,11 +22393,11 @@
         <v>92</v>
       </c>
       <c r="C11" s="62">
-        <f t="shared" ref="C7:C15" si="8">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C11:C15" si="8">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
         <v>132.39745962155621</v>
       </c>
       <c r="D11" s="62">
-        <f t="shared" ref="D7:D15" si="9">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D11:D15" si="9">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
         <v>357.6025403784439</v>
       </c>
       <c r="E11" s="62">
@@ -22872,7 +22872,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="64">
-        <f t="shared" ref="G23:G26" si="14">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G23:G25" si="14">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -25101,15 +25101,15 @@
       </c>
       <c r="C37" s="76">
         <f>IF('4535_1'!C14="", "", '4535_1'!C14)</f>
-        <v>164.39745962155624</v>
+        <v>195.60254037844379</v>
       </c>
       <c r="D37" s="76">
         <f>IF('4535_1'!D14="", "", '4535_1'!D14)</f>
-        <v>137.12733176437592</v>
+        <v>155.87266823562413</v>
       </c>
       <c r="E37" s="76">
         <f>IF('4535_1'!E14="", "", '4535_1'!E14)</f>
-        <v>179.99985969422843</v>
+        <v>-1.403057715734235E-4</v>
       </c>
       <c r="F37" s="76">
         <f>IF('4535_1'!F14="", "", '4535_1'!F14)</f>
@@ -25131,15 +25131,15 @@
       </c>
       <c r="C38" s="76">
         <f>IF('4535_1'!C15="", "", '4535_1'!C15)</f>
-        <v>148.39745962155624</v>
+        <v>211.60254037844379</v>
       </c>
       <c r="D38" s="76">
         <f>IF('4535_1'!D15="", "", '4535_1'!D15)</f>
-        <v>127.88972745734193</v>
+        <v>165.11027254265815</v>
       </c>
       <c r="E38" s="76">
         <f>IF('4535_1'!E15="", "", '4535_1'!E15)</f>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F38" s="76">
         <f>IF('4535_1'!F15="", "", '4535_1'!F15)</f>
@@ -25191,15 +25191,15 @@
       </c>
       <c r="C40" s="76">
         <f>IF('4535_1'!C17="", "", '4535_1'!C17)</f>
-        <v>148.39745962155627</v>
+        <v>211.60254037844373</v>
       </c>
       <c r="D40" s="76">
         <f>IF('4535_1'!D17="", "", '4535_1'!D17)</f>
-        <v>109.41451884327392</v>
+        <v>183.58548115672616</v>
       </c>
       <c r="E40" s="76">
         <f>IF('4535_1'!E17="", "", '4535_1'!E17)</f>
-        <v>179.99985969422843</v>
+        <v>-1.403057715734235E-4</v>
       </c>
       <c r="F40" s="76">
         <f>IF('4535_1'!F17="", "", '4535_1'!F17)</f>
@@ -25221,15 +25221,15 @@
       </c>
       <c r="C41" s="76">
         <f>IF('4535_1'!C18="", "", '4535_1'!C18)</f>
-        <v>164.39745962155624</v>
+        <v>195.60254037844376</v>
       </c>
       <c r="D41" s="76">
         <f>IF('4535_1'!D18="", "", '4535_1'!D18)</f>
-        <v>100.17691453623989</v>
+        <v>192.82308546376015</v>
       </c>
       <c r="E41" s="76">
         <f>IF('4535_1'!E18="", "", '4535_1'!E18)</f>
-        <v>239.99971938845687</v>
+        <v>59.999719388456853</v>
       </c>
       <c r="F41" s="76">
         <f>IF('4535_1'!F18="", "", '4535_1'!F18)</f>
@@ -25251,15 +25251,15 @@
       </c>
       <c r="C42" s="76">
         <f>IF('4535_1'!C19="", "", '4535_1'!C19)</f>
-        <v>180.39745962155621</v>
+        <v>179.60254037844379</v>
       </c>
       <c r="D42" s="76">
         <f>IF('4535_1'!D19="", "", '4535_1'!D19)</f>
-        <v>127.88972745734191</v>
+        <v>165.11027254265815</v>
       </c>
       <c r="E42" s="76">
         <f>IF('4535_1'!E19="", "", '4535_1'!E19)</f>
-        <v>239.99971938845687</v>
+        <v>59.999719388456853</v>
       </c>
       <c r="F42" s="76">
         <f>IF('4535_1'!F19="", "", '4535_1'!F19)</f>
@@ -25281,15 +25281,15 @@
       </c>
       <c r="C43" s="76">
         <f>IF('4535_1'!C20="", "", '4535_1'!C20)</f>
-        <v>180.39745962155624</v>
+        <v>179.60254037844376</v>
       </c>
       <c r="D43" s="76">
         <f>IF('4535_1'!D20="", "", '4535_1'!D20)</f>
-        <v>109.4145188432739</v>
+        <v>183.58548115672616</v>
       </c>
       <c r="E43" s="76">
         <f>IF('4535_1'!E20="", "", '4535_1'!E20)</f>
-        <v>179.99985969422843</v>
+        <v>-1.403057715734235E-4</v>
       </c>
       <c r="F43" s="76">
         <f>IF('4535_1'!F20="", "", '4535_1'!F20)</f>
@@ -25311,15 +25311,15 @@
       </c>
       <c r="C44" s="76">
         <f>IF('4535_1'!C21="", "", '4535_1'!C21)</f>
-        <v>196.39745962155621</v>
+        <v>163.60254037844379</v>
       </c>
       <c r="D44" s="76">
         <f>IF('4535_1'!D21="", "", '4535_1'!D21)</f>
-        <v>100.17691453623986</v>
+        <v>192.82308546376018</v>
       </c>
       <c r="E44" s="76">
         <f>IF('4535_1'!E21="", "", '4535_1'!E21)</f>
-        <v>239.99971938845687</v>
+        <v>59.999719388456853</v>
       </c>
       <c r="F44" s="76">
         <f>IF('4535_1'!F21="", "", '4535_1'!F21)</f>
@@ -25341,15 +25341,15 @@
       </c>
       <c r="C45" s="76">
         <f>IF('4535_1'!C22="", "", '4535_1'!C22)</f>
-        <v>212.39745962155621</v>
+        <v>147.60254037844382</v>
       </c>
       <c r="D45" s="76">
         <f>IF('4535_1'!D22="", "", '4535_1'!D22)</f>
-        <v>109.41451884327387</v>
+        <v>183.58548115672619</v>
       </c>
       <c r="E45" s="76">
         <f>IF('4535_1'!E22="", "", '4535_1'!E22)</f>
-        <v>299.9995790826847</v>
+        <v>119.99957908268468</v>
       </c>
       <c r="F45" s="76">
         <f>IF('4535_1'!F22="", "", '4535_1'!F22)</f>
@@ -25371,15 +25371,15 @@
       </c>
       <c r="C46" s="76">
         <f>IF('4535_1'!C23="", "", '4535_1'!C23)</f>
-        <v>196.39745962155621</v>
+        <v>163.60254037844382</v>
       </c>
       <c r="D46" s="76">
         <f>IF('4535_1'!D23="", "", '4535_1'!D23)</f>
-        <v>137.12733176437592</v>
+        <v>155.87266823562413</v>
       </c>
       <c r="E46" s="76">
         <f>IF('4535_1'!E23="", "", '4535_1'!E23)</f>
-        <v>299.9995790826847</v>
+        <v>119.99957908268468</v>
       </c>
       <c r="F46" s="76">
         <f>IF('4535_1'!F23="", "", '4535_1'!F23)</f>
@@ -25401,15 +25401,15 @@
       </c>
       <c r="C47" s="76">
         <f>IF('4535_1'!C24="", "", '4535_1'!C24)</f>
-        <v>212.39745962155618</v>
+        <v>147.60254037844382</v>
       </c>
       <c r="D47" s="76">
         <f>IF('4535_1'!D24="", "", '4535_1'!D24)</f>
-        <v>127.88972745734188</v>
+        <v>165.11027254265815</v>
       </c>
       <c r="E47" s="76">
         <f>IF('4535_1'!E24="", "", '4535_1'!E24)</f>
-        <v>239.99971938845687</v>
+        <v>59.999719388456853</v>
       </c>
       <c r="F47" s="76">
         <f>IF('4535_1'!F24="", "", '4535_1'!F24)</f>
@@ -25491,15 +25491,15 @@
       </c>
       <c r="C50" s="77">
         <f>IF('4535_2'!C4="", "", '4535_2'!C4)</f>
-        <v>212.39745962155615</v>
+        <v>147.60254037844385</v>
       </c>
       <c r="D50" s="77">
         <f>IF('4535_2'!D4="", "", '4535_2'!D4)</f>
-        <v>163.84014468547792</v>
+        <v>128.15985531452213</v>
       </c>
       <c r="E50" s="77">
         <f>IF('4535_2'!E4="", "", '4535_2'!E4)</f>
-        <v>60.000140305771573</v>
+        <v>-119.99985969422843</v>
       </c>
       <c r="F50" s="77">
         <f>IF('4535_2'!F4="", "", '4535_2'!F4)</f>
@@ -25521,15 +25521,15 @@
       </c>
       <c r="C51" s="77">
         <f>IF('4535_2'!C5="", "", '4535_2'!C5)</f>
-        <v>212.39745962155615</v>
+        <v>147.60254037844388</v>
       </c>
       <c r="D51" s="77">
         <f>IF('4535_2'!D5="", "", '4535_2'!D5)</f>
-        <v>182.31535329954593</v>
+        <v>109.68464670045412</v>
       </c>
       <c r="E51" s="77">
         <f>IF('4535_2'!E5="", "", '4535_2'!E5)</f>
-        <v>2.80611543146847E-4</v>
+        <v>-179.99971938845687</v>
       </c>
       <c r="F51" s="77">
         <f>IF('4535_2'!F5="", "", '4535_2'!F5)</f>
@@ -25551,15 +25551,15 @@
       </c>
       <c r="C52" s="77">
         <f>IF('4535_2'!C6="", "", '4535_2'!C6)</f>
-        <v>196.39745962155615</v>
+        <v>163.60254037844385</v>
       </c>
       <c r="D52" s="77">
         <f>IF('4535_2'!D6="", "", '4535_2'!D6)</f>
-        <v>191.55295760657995</v>
+        <v>100.44704239342011</v>
       </c>
       <c r="E52" s="77">
         <f>IF('4535_2'!E6="", "", '4535_2'!E6)</f>
-        <v>60.000140305771573</v>
+        <v>-119.99985969422843</v>
       </c>
       <c r="F52" s="77">
         <f>IF('4535_2'!F6="", "", '4535_2'!F6)</f>
@@ -25581,15 +25581,15 @@
       </c>
       <c r="C53" s="77">
         <f>IF('4535_2'!C7="", "", '4535_2'!C7)</f>
-        <v>180.39745962155621</v>
+        <v>179.60254037844385</v>
       </c>
       <c r="D53" s="77">
         <f>IF('4535_2'!D7="", "", '4535_2'!D7)</f>
-        <v>182.31535329954596</v>
+        <v>109.68464670045411</v>
       </c>
       <c r="E53" s="77">
         <f>IF('4535_2'!E7="", "", '4535_2'!E7)</f>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F53" s="77">
         <f>IF('4535_2'!F7="", "", '4535_2'!F7)</f>
@@ -25611,15 +25611,15 @@
       </c>
       <c r="C54" s="77">
         <f>IF('4535_2'!C8="", "", '4535_2'!C8)</f>
-        <v>164.39745962155621</v>
+        <v>195.60254037844382</v>
       </c>
       <c r="D54" s="77">
         <f>IF('4535_2'!D8="", "", '4535_2'!D8)</f>
-        <v>191.55295760657998</v>
+        <v>100.44704239342008</v>
       </c>
       <c r="E54" s="77">
         <f>IF('4535_2'!E8="", "", '4535_2'!E8)</f>
-        <v>60.000140305771573</v>
+        <v>-119.99985969422843</v>
       </c>
       <c r="F54" s="77">
         <f>IF('4535_2'!F8="", "", '4535_2'!F8)</f>
@@ -25641,15 +25641,15 @@
       </c>
       <c r="C55" s="77">
         <f>IF('4535_2'!C9="", "", '4535_2'!C9)</f>
-        <v>148.39745962155621</v>
+        <v>211.60254037844379</v>
       </c>
       <c r="D55" s="77">
         <f>IF('4535_2'!D9="", "", '4535_2'!D9)</f>
-        <v>182.31535329954599</v>
+        <v>109.68464670045408</v>
       </c>
       <c r="E55" s="77">
         <f>IF('4535_2'!E9="", "", '4535_2'!E9)</f>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F55" s="77">
         <f>IF('4535_2'!F9="", "", '4535_2'!F9)</f>
@@ -25671,15 +25671,15 @@
       </c>
       <c r="C56" s="77">
         <f>IF('4535_2'!C10="", "", '4535_2'!C10)</f>
-        <v>148.39745962155624</v>
+        <v>211.60254037844379</v>
       </c>
       <c r="D56" s="77">
         <f>IF('4535_2'!D10="", "", '4535_2'!D10)</f>
-        <v>163.84014468547798</v>
+        <v>128.1598553145221</v>
       </c>
       <c r="E56" s="77">
         <f>IF('4535_2'!E10="", "", '4535_2'!E10)</f>
-        <v>179.99985969422843</v>
+        <v>-1.403057715734235E-4</v>
       </c>
       <c r="F56" s="77">
         <f>IF('4535_2'!F10="", "", '4535_2'!F10)</f>
@@ -25701,15 +25701,15 @@
       </c>
       <c r="C57" s="77">
         <f>IF('4535_2'!C11="", "", '4535_2'!C11)</f>
-        <v>196.39745962155621</v>
+        <v>163.60254037844385</v>
       </c>
       <c r="D57" s="77">
         <f>IF('4535_2'!D11="", "", '4535_2'!D11)</f>
-        <v>154.6025403784439</v>
+        <v>137.39745962155615</v>
       </c>
       <c r="E57" s="77">
         <f>IF('4535_2'!E11="", "", '4535_2'!E11)</f>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F57" s="77">
         <f>IF('4535_2'!F11="", "", '4535_2'!F11)</f>
@@ -25731,15 +25731,15 @@
       </c>
       <c r="C58" s="77">
         <f>IF('4535_2'!C12="", "", '4535_2'!C12)</f>
-        <v>180.39745962155621</v>
+        <v>179.60254037844382</v>
       </c>
       <c r="D58" s="77">
         <f>IF('4535_2'!D12="", "", '4535_2'!D12)</f>
-        <v>163.84014468547792</v>
+        <v>128.15985531452213</v>
       </c>
       <c r="E58" s="77">
         <f>IF('4535_2'!E12="", "", '4535_2'!E12)</f>
-        <v>60.000140305771573</v>
+        <v>-119.99985969422843</v>
       </c>
       <c r="F58" s="77">
         <f>IF('4535_2'!F12="", "", '4535_2'!F12)</f>
@@ -25761,15 +25761,15 @@
       </c>
       <c r="C59" s="77">
         <f>IF('4535_2'!C13="", "", '4535_2'!C13)</f>
-        <v>164.39745962155621</v>
+        <v>195.60254037844379</v>
       </c>
       <c r="D59" s="77">
         <f>IF('4535_2'!D13="", "", '4535_2'!D13)</f>
-        <v>154.60254037844393</v>
+        <v>137.39745962155612</v>
       </c>
       <c r="E59" s="77">
         <f>IF('4535_2'!E13="", "", '4535_2'!E13)</f>
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F59" s="77">
         <f>IF('4535_2'!F13="", "", '4535_2'!F13)</f>

--- a/app/skinGui/iniGenerators/rightLeg_Upper_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Upper_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
+    <workbookView xWindow="12588" yWindow="-12" windowWidth="12636" windowHeight="12000" tabRatio="743" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4614A" sheetId="1" r:id="rId1"/>
@@ -2224,8 +2224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9934032" y="0"/>
-          <a:ext cx="4018973" cy="0"/>
+          <a:off x="10234349" y="0"/>
+          <a:ext cx="4101897" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -3248,8 +3248,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9925315" y="2324653"/>
-          <a:ext cx="4354092" cy="3716684"/>
+          <a:off x="10207704" y="2293277"/>
+          <a:ext cx="4454944" cy="3642725"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -5351,8 +5351,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11032208" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="11310929" y="0"/>
+          <a:ext cx="4110861" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -6375,8 +6375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10989875" y="2324653"/>
-          <a:ext cx="4388331" cy="3716684"/>
+          <a:off x="11258205" y="2298167"/>
+          <a:ext cx="4479404" cy="3733187"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -8478,8 +8478,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11815908" y="2324653"/>
-          <a:ext cx="4544680" cy="3716684"/>
+          <a:off x="11992350" y="2298167"/>
+          <a:ext cx="4576056" cy="3733187"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -9696,8 +9696,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10684826" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="10942561" y="0"/>
+          <a:ext cx="4119826" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -10720,8 +10720,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10776963" y="2335859"/>
-          <a:ext cx="4515331" cy="3716684"/>
+          <a:off x="11034698" y="2304483"/>
+          <a:ext cx="4604978" cy="3642725"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -11906,8 +11906,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10684826" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="10945763" y="0"/>
+          <a:ext cx="4121747" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -12930,8 +12930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10705246" y="2340342"/>
-          <a:ext cx="4515331" cy="3727890"/>
+          <a:off x="10966183" y="2321772"/>
+          <a:ext cx="4606899" cy="3781678"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -14207,8 +14207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10684826" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="10942561" y="0"/>
+          <a:ext cx="4119826" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -15231,8 +15231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10821787" y="2279829"/>
-          <a:ext cx="4515331" cy="3716684"/>
+          <a:off x="11079522" y="2248453"/>
+          <a:ext cx="4609461" cy="3642725"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -16768,32 +16768,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5546875" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" customWidth="1"/>
+    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16848,7 +16848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>26</v>
       </c>
@@ -16858,15 +16858,15 @@
       </c>
       <c r="C3" s="62">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>100</v>
+        <v>-100.00000000000001</v>
       </c>
       <c r="D3" s="62">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>100</v>
+        <v>-99.999999999999986</v>
       </c>
       <c r="E3" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>-119.99971938845685</v>
+        <v>60.000280611543147</v>
       </c>
       <c r="F3" s="61">
         <v>5</v>
@@ -16891,7 +16891,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>0</v>
+        <v>3.1415926535897931</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -16919,15 +16919,15 @@
       </c>
       <c r="C4" s="62">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>116</v>
+        <v>-116.00000000000001</v>
       </c>
       <c r="D4" s="62">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>109.237604307034</v>
+        <v>-109.23760430703399</v>
       </c>
       <c r="E4" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F4" s="61">
         <v>5</v>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>26</v>
       </c>
@@ -16977,15 +16977,15 @@
       </c>
       <c r="C5" s="62">
         <f>((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>132</v>
+        <v>-132</v>
       </c>
       <c r="D5" s="62">
         <f>((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
-        <v>100</v>
+        <v>-99.999999999999986</v>
       </c>
       <c r="E5" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
-        <v>-119.99971938845685</v>
+        <v>60.000280611543147</v>
       </c>
       <c r="F5" s="61">
         <v>5</v>
@@ -17009,7 +17009,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O5" s="42">
         <v>132</v>
@@ -17024,7 +17024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -17162,7 +17162,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="34"/>
       <c r="C10" s="23"/>
@@ -17193,7 +17193,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -17203,15 +17203,15 @@
       </c>
       <c r="C11" s="62">
         <f t="shared" ref="C11:C20" si="5">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>116</v>
+        <v>-116.00000000000001</v>
       </c>
       <c r="D11" s="62">
         <f t="shared" ref="D11:D20" si="6">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>127.712812921102</v>
+        <v>-127.71281292110199</v>
       </c>
       <c r="E11" s="62">
         <f t="shared" ref="E11:E20" si="7">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F11" s="61">
         <v>5</v>
@@ -17243,7 +17243,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
@@ -17253,15 +17253,15 @@
       </c>
       <c r="C12" s="62">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>-132.00000000000003</v>
       </c>
       <c r="D12" s="62">
         <f t="shared" si="6"/>
-        <v>136.95041722813599</v>
+        <v>-136.95041722813596</v>
       </c>
       <c r="E12" s="62">
         <f t="shared" si="7"/>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F12" s="61">
         <v>5</v>
@@ -17291,7 +17291,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>26</v>
       </c>
@@ -17301,15 +17301,15 @@
       </c>
       <c r="C13" s="62">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>-132.00000000000003</v>
       </c>
       <c r="D13" s="62">
         <f t="shared" si="6"/>
-        <v>155.425625842204</v>
+        <v>-155.42562584220397</v>
       </c>
       <c r="E13" s="62">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F13" s="61">
         <v>5</v>
@@ -17339,7 +17339,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -17349,15 +17349,15 @@
       </c>
       <c r="C14" s="62">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>-116.00000000000001</v>
       </c>
       <c r="D14" s="62">
         <f t="shared" si="6"/>
-        <v>164.66323014923799</v>
+        <v>-164.66323014923796</v>
       </c>
       <c r="E14" s="62">
         <f t="shared" si="7"/>
-        <v>59.999859694228427</v>
+        <v>239.99985969422843</v>
       </c>
       <c r="F14" s="61">
         <v>5</v>
@@ -17387,7 +17387,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -17397,15 +17397,15 @@
       </c>
       <c r="C15" s="62">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>-116.00000000000003</v>
       </c>
       <c r="D15" s="62">
         <f t="shared" si="6"/>
-        <v>183.138438763306</v>
+        <v>-183.138438763306</v>
       </c>
       <c r="E15" s="62">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F15" s="61">
         <v>5</v>
@@ -17435,7 +17435,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>26</v>
       </c>
@@ -17445,15 +17445,15 @@
       </c>
       <c r="C16" s="62">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>-132.00000000000003</v>
       </c>
       <c r="D16" s="62">
         <f t="shared" si="6"/>
-        <v>192.37604307033999</v>
+        <v>-192.37604307033996</v>
       </c>
       <c r="E16" s="62">
         <f t="shared" si="7"/>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F16" s="61">
         <v>5</v>
@@ -17483,7 +17483,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>26</v>
       </c>
@@ -17493,15 +17493,15 @@
       </c>
       <c r="C17" s="62">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>-100.00000000000003</v>
       </c>
       <c r="D17" s="62">
         <f t="shared" si="6"/>
-        <v>192.37604307033999</v>
+        <v>-192.37604307033999</v>
       </c>
       <c r="E17" s="62">
         <f t="shared" si="7"/>
-        <v>59.999859694228427</v>
+        <v>239.99985969422843</v>
       </c>
       <c r="F17" s="61">
         <v>5</v>
@@ -17531,7 +17531,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -17560,7 +17560,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -17570,15 +17570,15 @@
       </c>
       <c r="C19" s="62">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>-100.00000000000001</v>
       </c>
       <c r="D19" s="62">
         <f t="shared" si="6"/>
-        <v>155.425625842204</v>
+        <v>-155.425625842204</v>
       </c>
       <c r="E19" s="62">
         <f t="shared" si="7"/>
-        <v>119.99971938845685</v>
+        <v>299.99971938845687</v>
       </c>
       <c r="F19" s="61">
         <v>5</v>
@@ -17608,7 +17608,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>26</v>
       </c>
@@ -17618,15 +17618,15 @@
       </c>
       <c r="C20" s="62">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>-84.000000000000014</v>
       </c>
       <c r="D20" s="62">
         <f t="shared" si="6"/>
-        <v>164.66323014923799</v>
+        <v>-164.66323014923799</v>
       </c>
       <c r="E20" s="62">
         <f t="shared" si="7"/>
-        <v>59.999859694228427</v>
+        <v>239.99985969422843</v>
       </c>
       <c r="F20" s="61">
         <v>5</v>
@@ -17656,7 +17656,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="34"/>
       <c r="C21" s="23"/>
@@ -17685,7 +17685,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="34"/>
       <c r="C22" s="23"/>
@@ -17714,7 +17714,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -17724,15 +17724,15 @@
       </c>
       <c r="C23" s="62">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>100</v>
+        <v>-100.00000000000001</v>
       </c>
       <c r="D23" s="62">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>136.95041722813599</v>
+        <v>-136.95041722813599</v>
       </c>
       <c r="E23" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
-        <v>179.99957908268468</v>
+        <v>359.9995790826847</v>
       </c>
       <c r="F23" s="61">
         <v>5</v>
@@ -17762,7 +17762,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>26</v>
       </c>
@@ -17772,15 +17772,15 @@
       </c>
       <c r="C24" s="62">
         <f>((+O24*COS($N$3)-P24*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>84</v>
+        <v>-84.000000000000014</v>
       </c>
       <c r="D24" s="62">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
-        <v>127.712812921102</v>
+        <v>-127.71281292110199</v>
       </c>
       <c r="E24" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
-        <v>119.99971938845685</v>
+        <v>299.99971938845687</v>
       </c>
       <c r="F24" s="61">
         <v>5</v>
@@ -17820,15 +17820,15 @@
       </c>
       <c r="C25" s="62">
         <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>84</v>
+        <v>-84.000000000000014</v>
       </c>
       <c r="D25" s="62">
         <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
-        <v>109.237604307034</v>
+        <v>-109.23760430703399</v>
       </c>
       <c r="E25" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
-        <v>179.99957908268468</v>
+        <v>359.9995790826847</v>
       </c>
       <c r="F25" s="61">
         <v>5</v>
@@ -17863,12 +17863,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -17876,7 +17876,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -17885,7 +17885,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -17895,7 +17895,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -17905,7 +17905,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -17915,7 +17915,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -17925,7 +17925,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17935,7 +17935,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -17945,7 +17945,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -17955,7 +17955,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -17965,7 +17965,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -17975,7 +17975,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -17985,7 +17985,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -17995,7 +17995,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -18005,7 +18005,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -18015,7 +18015,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -18025,7 +18025,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -18035,7 +18035,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -18045,7 +18045,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -18055,7 +18055,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -18065,7 +18065,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -18075,7 +18075,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -18085,7 +18085,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -18095,7 +18095,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -18105,7 +18105,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -18126,30 +18126,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18203,7 +18203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="39">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>-1.0471975511965976</v>
+        <v>2.0943951023931953</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="34"/>
       <c r="C5" s="23"/>
@@ -18300,7 +18300,8 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>-60</v>
+        <f>-60+180</f>
+        <v>120</v>
       </c>
       <c r="O5" s="42">
         <v>132</v>
@@ -18315,7 +18316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="34"/>
       <c r="C6" s="23"/>
@@ -18374,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -18443,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>174</v>
+        <v>-173</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -18453,7 +18454,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="34"/>
       <c r="C10" s="23"/>
@@ -18484,7 +18485,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="63"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
@@ -18515,7 +18516,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
@@ -18544,7 +18545,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -18573,7 +18574,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -18583,15 +18584,15 @@
       </c>
       <c r="C14" s="62">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>195.60254037844379</v>
+        <v>-195.60254037844376</v>
       </c>
       <c r="D14" s="62">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>155.87266823562413</v>
+        <v>-154.87266823562408</v>
       </c>
       <c r="E14" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F14" s="61">
         <v>5</v>
@@ -18621,7 +18622,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -18631,15 +18632,15 @@
       </c>
       <c r="C15" s="62">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>211.60254037844379</v>
+        <v>-211.60254037844376</v>
       </c>
       <c r="D15" s="62">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>165.11027254265815</v>
+        <v>-164.11027254265807</v>
       </c>
       <c r="E15" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F15" s="61">
         <v>5</v>
@@ -18669,7 +18670,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
@@ -18698,7 +18699,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>26</v>
       </c>
@@ -18708,15 +18709,15 @@
       </c>
       <c r="C17" s="62">
         <f t="shared" ref="C17:C24" si="5">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>211.60254037844373</v>
+        <v>-211.60254037844373</v>
       </c>
       <c r="D17" s="62">
         <f t="shared" ref="D17:D24" si="6">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
-        <v>183.58548115672616</v>
+        <v>-182.58548115672608</v>
       </c>
       <c r="E17" s="62">
         <f t="shared" ref="E17:E24" si="7">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F17" s="61">
         <v>5</v>
@@ -18746,7 +18747,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>26</v>
       </c>
@@ -18756,15 +18757,15 @@
       </c>
       <c r="C18" s="62">
         <f t="shared" si="5"/>
-        <v>195.60254037844376</v>
+        <v>-195.60254037844376</v>
       </c>
       <c r="D18" s="62">
         <f t="shared" si="6"/>
-        <v>192.82308546376015</v>
+        <v>-191.82308546376009</v>
       </c>
       <c r="E18" s="62">
         <f t="shared" si="7"/>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F18" s="61">
         <v>5</v>
@@ -18794,7 +18795,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -18804,15 +18805,15 @@
       </c>
       <c r="C19" s="62">
         <f t="shared" si="5"/>
-        <v>179.60254037844379</v>
+        <v>-179.60254037844379</v>
       </c>
       <c r="D19" s="62">
         <f t="shared" si="6"/>
-        <v>165.11027254265815</v>
+        <v>-164.11027254265809</v>
       </c>
       <c r="E19" s="62">
         <f t="shared" si="7"/>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F19" s="61">
         <v>5</v>
@@ -18842,7 +18843,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>26</v>
       </c>
@@ -18852,15 +18853,15 @@
       </c>
       <c r="C20" s="62">
         <f t="shared" si="5"/>
-        <v>179.60254037844376</v>
+        <v>-179.60254037844376</v>
       </c>
       <c r="D20" s="62">
         <f t="shared" si="6"/>
-        <v>183.58548115672616</v>
+        <v>-182.5854811567261</v>
       </c>
       <c r="E20" s="62">
         <f t="shared" si="7"/>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F20" s="61">
         <v>5</v>
@@ -18890,7 +18891,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>26</v>
       </c>
@@ -18900,15 +18901,15 @@
       </c>
       <c r="C21" s="62">
         <f t="shared" si="5"/>
-        <v>163.60254037844379</v>
+        <v>-163.60254037844379</v>
       </c>
       <c r="D21" s="62">
         <f t="shared" si="6"/>
-        <v>192.82308546376018</v>
+        <v>-191.82308546376015</v>
       </c>
       <c r="E21" s="62">
         <f t="shared" si="7"/>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F21" s="61">
         <v>5</v>
@@ -18938,7 +18939,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>26</v>
       </c>
@@ -18948,15 +18949,15 @@
       </c>
       <c r="C22" s="62">
         <f t="shared" si="5"/>
-        <v>147.60254037844382</v>
+        <v>-147.60254037844379</v>
       </c>
       <c r="D22" s="62">
         <f t="shared" si="6"/>
-        <v>183.58548115672619</v>
+        <v>-182.58548115672613</v>
       </c>
       <c r="E22" s="62">
         <f t="shared" si="7"/>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F22" s="61">
         <v>5</v>
@@ -18986,7 +18987,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -18996,15 +18997,15 @@
       </c>
       <c r="C23" s="62">
         <f t="shared" si="5"/>
-        <v>163.60254037844382</v>
+        <v>-163.60254037844379</v>
       </c>
       <c r="D23" s="62">
         <f t="shared" si="6"/>
-        <v>155.87266823562413</v>
+        <v>-154.87266823562408</v>
       </c>
       <c r="E23" s="62">
         <f t="shared" si="7"/>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F23" s="61">
         <v>5</v>
@@ -19034,7 +19035,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>26</v>
       </c>
@@ -19044,15 +19045,15 @@
       </c>
       <c r="C24" s="62">
         <f t="shared" si="5"/>
-        <v>147.60254037844382</v>
+        <v>-147.60254037844382</v>
       </c>
       <c r="D24" s="62">
         <f t="shared" si="6"/>
-        <v>165.11027254265815</v>
+        <v>-164.11027254265812</v>
       </c>
       <c r="E24" s="62">
         <f t="shared" si="7"/>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F24" s="61">
         <v>5</v>
@@ -19111,12 +19112,12 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="N30" s="57"/>
     </row>
   </sheetData>
@@ -19130,27 +19131,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19204,7 +19205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="63"/>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -19228,7 +19229,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>-1.0471975511965976</v>
+        <v>2.0943951023931953</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -19256,15 +19257,15 @@
       </c>
       <c r="C4" s="62">
         <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>147.60254037844385</v>
+        <v>-147.60254037844385</v>
       </c>
       <c r="D4" s="62">
         <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>128.15985531452213</v>
+        <v>-127.15985531452209</v>
       </c>
       <c r="E4" s="62">
         <f t="shared" ref="E4:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F4" s="61">
         <v>5</v>
@@ -19304,7 +19305,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>26</v>
       </c>
@@ -19314,15 +19315,15 @@
       </c>
       <c r="C5" s="62">
         <f t="shared" si="1"/>
-        <v>147.60254037844388</v>
+        <v>-147.60254037844385</v>
       </c>
       <c r="D5" s="62">
         <f t="shared" si="2"/>
-        <v>109.68464670045412</v>
+        <v>-108.68464670045407</v>
       </c>
       <c r="E5" s="62">
         <f t="shared" si="3"/>
-        <v>-179.99971938845687</v>
+        <v>2.80611543146847E-4</v>
       </c>
       <c r="F5" s="61">
         <v>5</v>
@@ -19346,7 +19347,8 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>-60</v>
+        <f>-60+180</f>
+        <v>120</v>
       </c>
       <c r="O5" s="42">
         <v>132</v>
@@ -19361,7 +19363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>26</v>
       </c>
@@ -19371,15 +19373,15 @@
       </c>
       <c r="C6" s="62">
         <f t="shared" si="1"/>
-        <v>163.60254037844385</v>
+        <v>-163.60254037844385</v>
       </c>
       <c r="D6" s="62">
         <f t="shared" si="2"/>
-        <v>100.44704239342011</v>
+        <v>-99.447042393420048</v>
       </c>
       <c r="E6" s="62">
         <f t="shared" si="3"/>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F6" s="61">
         <v>5</v>
@@ -19426,15 +19428,15 @@
       </c>
       <c r="C7" s="62">
         <f t="shared" si="1"/>
-        <v>179.60254037844385</v>
+        <v>-179.60254037844379</v>
       </c>
       <c r="D7" s="62">
         <f t="shared" si="2"/>
-        <v>109.68464670045411</v>
+        <v>-108.68464670045404</v>
       </c>
       <c r="E7" s="62">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F7" s="61">
         <v>5</v>
@@ -19458,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -19480,15 +19482,15 @@
       </c>
       <c r="C8" s="62">
         <f t="shared" si="1"/>
-        <v>195.60254037844382</v>
+        <v>-195.60254037844379</v>
       </c>
       <c r="D8" s="62">
         <f t="shared" si="2"/>
-        <v>100.44704239342008</v>
+        <v>-99.447042393420006</v>
       </c>
       <c r="E8" s="62">
         <f t="shared" si="3"/>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F8" s="61">
         <v>5</v>
@@ -19534,15 +19536,15 @@
       </c>
       <c r="C9" s="62">
         <f t="shared" si="1"/>
-        <v>211.60254037844379</v>
+        <v>-211.60254037844379</v>
       </c>
       <c r="D9" s="62">
         <f t="shared" si="2"/>
-        <v>109.68464670045408</v>
+        <v>-108.68464670045401</v>
       </c>
       <c r="E9" s="62">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F9" s="61">
         <v>5</v>
@@ -19565,7 +19567,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>174</v>
+        <v>-173</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -19575,7 +19577,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>26</v>
       </c>
@@ -19585,15 +19587,15 @@
       </c>
       <c r="C10" s="62">
         <f t="shared" si="1"/>
-        <v>211.60254037844379</v>
+        <v>-211.60254037844376</v>
       </c>
       <c r="D10" s="62">
         <f t="shared" si="2"/>
-        <v>128.1598553145221</v>
+        <v>-127.15985531452202</v>
       </c>
       <c r="E10" s="62">
         <f t="shared" si="3"/>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F10" s="61">
         <v>5</v>
@@ -19625,7 +19627,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -19635,15 +19637,15 @@
       </c>
       <c r="C11" s="62">
         <f t="shared" si="1"/>
-        <v>163.60254037844385</v>
+        <v>-163.60254037844379</v>
       </c>
       <c r="D11" s="62">
         <f t="shared" si="2"/>
-        <v>137.39745962155615</v>
+        <v>-136.3974596215561</v>
       </c>
       <c r="E11" s="62">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F11" s="61">
         <v>5</v>
@@ -19676,7 +19678,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
@@ -19686,15 +19688,15 @@
       </c>
       <c r="C12" s="62">
         <f t="shared" si="1"/>
-        <v>179.60254037844382</v>
+        <v>-179.60254037844379</v>
       </c>
       <c r="D12" s="62">
         <f t="shared" si="2"/>
-        <v>128.15985531452213</v>
+        <v>-127.15985531452206</v>
       </c>
       <c r="E12" s="62">
         <f t="shared" si="3"/>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F12" s="61">
         <v>5</v>
@@ -19724,7 +19726,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>26</v>
       </c>
@@ -19734,15 +19736,15 @@
       </c>
       <c r="C13" s="62">
         <f t="shared" si="1"/>
-        <v>195.60254037844379</v>
+        <v>-195.60254037844379</v>
       </c>
       <c r="D13" s="62">
         <f t="shared" si="2"/>
-        <v>137.39745962155612</v>
+        <v>-136.39745962155607</v>
       </c>
       <c r="E13" s="62">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="61">
         <v>5</v>
@@ -19772,7 +19774,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="34"/>
       <c r="C14" s="23"/>
@@ -19801,7 +19803,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="34"/>
       <c r="C15" s="23"/>
@@ -19830,7 +19832,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
@@ -19859,7 +19861,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="34"/>
       <c r="C17" s="23"/>
@@ -19888,7 +19890,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="34"/>
       <c r="C18" s="23"/>
@@ -19917,7 +19919,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="34"/>
       <c r="C19" s="23"/>
@@ -19946,7 +19948,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="34"/>
       <c r="C20" s="23"/>
@@ -19975,7 +19977,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="34"/>
       <c r="C21" s="23"/>
@@ -20004,7 +20006,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="34"/>
       <c r="C22" s="23"/>
@@ -20033,7 +20035,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="34"/>
       <c r="C23" s="23"/>
@@ -20062,7 +20064,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="34"/>
       <c r="C24" s="23"/>
@@ -20120,7 +20122,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -20136,17 +20138,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="14" max="14" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20200,7 +20202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="63"/>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -20224,7 +20226,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>-1.0471975511965976</v>
+        <v>2.0943951023931953</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -20281,7 +20283,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -20304,7 +20306,8 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>-60</v>
+        <f>-60+180</f>
+        <v>120</v>
       </c>
       <c r="O5" s="42">
         <v>132</v>
@@ -20319,7 +20322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -20378,7 +20381,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -20447,7 +20450,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>228</v>
+        <v>-228</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -20457,7 +20460,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="34"/>
       <c r="C10" s="62"/>
@@ -20488,7 +20491,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="63"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
@@ -20519,7 +20522,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
@@ -20548,7 +20551,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -20577,7 +20580,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -20587,15 +20590,15 @@
       </c>
       <c r="C14" s="62">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>130.60254037844379</v>
+        <v>-130.60254037844376</v>
       </c>
       <c r="D14" s="62">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>209.87266823562413</v>
+        <v>-209.87266823562408</v>
       </c>
       <c r="E14" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F14" s="61">
         <v>5</v>
@@ -20625,7 +20628,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -20635,15 +20638,15 @@
       </c>
       <c r="C15" s="62">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>146.60254037844379</v>
+        <v>-146.60254037844376</v>
       </c>
       <c r="D15" s="62">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>219.11027254265815</v>
+        <v>-219.11027254265807</v>
       </c>
       <c r="E15" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F15" s="61">
         <v>5</v>
@@ -20673,7 +20676,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
       <c r="B16" s="34"/>
       <c r="C16" s="62"/>
@@ -20702,7 +20705,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>26</v>
       </c>
@@ -20712,15 +20715,15 @@
       </c>
       <c r="C17" s="62">
         <f>((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>146.60254037844373</v>
+        <v>-146.60254037844373</v>
       </c>
       <c r="D17" s="62">
         <f>((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
-        <v>237.58548115672616</v>
+        <v>-237.58548115672608</v>
       </c>
       <c r="E17" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F17" s="61">
         <v>5</v>
@@ -20750,7 +20753,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="34"/>
       <c r="C18" s="62"/>
@@ -20779,7 +20782,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -20789,15 +20792,15 @@
       </c>
       <c r="C19" s="62">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>114.60254037844379</v>
+        <v>-114.60254037844379</v>
       </c>
       <c r="D19" s="62">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>219.11027254265815</v>
+        <v>-219.11027254265809</v>
       </c>
       <c r="E19" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F19" s="61">
         <v>5</v>
@@ -20827,7 +20830,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>26</v>
       </c>
@@ -20837,15 +20840,15 @@
       </c>
       <c r="C20" s="62">
         <f>((+O20*COS($N$3)-P20*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>114.60254037844376</v>
+        <v>-114.60254037844376</v>
       </c>
       <c r="D20" s="62">
         <f>((O20*SIN($N$3)+P20*COS($N$3)+$N$9)*$R$4)</f>
-        <v>237.58548115672616</v>
+        <v>-237.5854811567261</v>
       </c>
       <c r="E20" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M20/3.1416*180)+$N$5)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F20" s="61">
         <v>5</v>
@@ -20875,7 +20878,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
       <c r="B21" s="34"/>
       <c r="C21" s="62"/>
@@ -20904,7 +20907,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
       <c r="B22" s="34"/>
       <c r="C22" s="62"/>
@@ -20933,7 +20936,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -20943,15 +20946,15 @@
       </c>
       <c r="C23" s="62">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>98.60254037844382</v>
+        <v>-98.602540378443791</v>
       </c>
       <c r="D23" s="62">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>209.87266823562413</v>
+        <v>-209.87266823562408</v>
       </c>
       <c r="E23" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F23" s="61">
         <v>5</v>
@@ -20981,7 +20984,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
@@ -21039,7 +21042,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -21055,26 +21058,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21128,7 +21131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>26</v>
       </c>
@@ -21138,15 +21141,15 @@
       </c>
       <c r="C3" s="62">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>164</v>
+        <v>-164</v>
       </c>
       <c r="D3" s="62">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="E3" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>-119.99971938845685</v>
+        <v>60.000280611543147</v>
       </c>
       <c r="F3" s="61">
         <v>5</v>
@@ -21171,7 +21174,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>0</v>
+        <v>3.1415926535897931</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -21199,15 +21202,15 @@
       </c>
       <c r="C4" s="62">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="D4" s="62">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>219.23760430703402</v>
+        <v>-219.23760430703399</v>
       </c>
       <c r="E4" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F4" s="61">
         <v>5</v>
@@ -21247,7 +21250,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>26</v>
       </c>
@@ -21257,15 +21260,15 @@
       </c>
       <c r="C5" s="62">
         <f>((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>196</v>
+        <v>-196</v>
       </c>
       <c r="D5" s="62">
         <f>((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="E5" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
-        <v>-119.99971938845685</v>
+        <v>60.000280611543147</v>
       </c>
       <c r="F5" s="61">
         <v>5</v>
@@ -21289,7 +21292,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O5" s="42">
         <v>132</v>
@@ -21304,7 +21307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>26</v>
       </c>
@@ -21314,15 +21317,15 @@
       </c>
       <c r="C6" s="62">
         <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>212</v>
+        <v>-212</v>
       </c>
       <c r="D6" s="62">
         <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
-        <v>219.23760430703402</v>
+        <v>-219.23760430703399</v>
       </c>
       <c r="E6" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F6" s="61">
         <v>5</v>
@@ -21382,7 +21385,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>64</v>
+        <v>-64</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -21451,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>110</v>
+        <v>-110</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -21461,7 +21464,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="34"/>
       <c r="C10" s="23"/>
@@ -21492,7 +21495,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -21502,15 +21505,15 @@
       </c>
       <c r="C11" s="62">
         <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="D11" s="62">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>237.712812921102</v>
+        <v>-237.712812921102</v>
       </c>
       <c r="E11" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F11" s="61">
         <v>5</v>
@@ -21542,7 +21545,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
@@ -21571,7 +21574,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -21600,7 +21603,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="63"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
@@ -21629,7 +21632,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="34"/>
       <c r="C15" s="23"/>
@@ -21658,7 +21661,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
@@ -21687,7 +21690,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="34"/>
       <c r="C17" s="23"/>
@@ -21716,7 +21719,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="34"/>
       <c r="C18" s="23"/>
@@ -21745,7 +21748,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="63"/>
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
@@ -21774,7 +21777,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
@@ -21803,7 +21806,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -21832,7 +21835,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -21861,7 +21864,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
@@ -21890,7 +21893,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
@@ -21948,7 +21951,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -21964,26 +21967,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22037,7 +22040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>26</v>
       </c>
@@ -22047,11 +22050,11 @@
       </c>
       <c r="C3" s="62">
         <f t="shared" ref="C3:C5" si="1">((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>164.39745962155615</v>
+        <v>-85.602540378443848</v>
       </c>
       <c r="D3" s="62">
         <f t="shared" ref="D3:D5" si="2">((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>357.6025403784439</v>
+        <v>-22.397459621556102</v>
       </c>
       <c r="E3" s="62">
         <f t="shared" ref="E3:E4" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
@@ -22108,11 +22111,11 @@
       </c>
       <c r="C4" s="62">
         <f t="shared" si="1"/>
-        <v>148.39745962155615</v>
+        <v>-101.60254037844385</v>
       </c>
       <c r="D4" s="62">
         <f t="shared" si="2"/>
-        <v>366.84014468547792</v>
+        <v>-13.15985531452209</v>
       </c>
       <c r="E4" s="62">
         <f t="shared" si="3"/>
@@ -22156,7 +22159,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>26</v>
       </c>
@@ -22166,11 +22169,11 @@
       </c>
       <c r="C5" s="62">
         <f t="shared" si="1"/>
-        <v>148.39745962155615</v>
+        <v>-101.60254037844385</v>
       </c>
       <c r="D5" s="62">
         <f t="shared" si="2"/>
-        <v>385.3153532995459</v>
+        <v>5.3153532995459329</v>
       </c>
       <c r="E5" s="62">
         <f t="shared" ref="E5:E15" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
@@ -22213,7 +22216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="34"/>
       <c r="C6" s="62"/>
@@ -22272,8 +22275,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f>200+101</f>
-        <v>301</v>
+        <f>101-50</f>
+        <v>51</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -22342,8 +22345,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f>205+110+6</f>
-        <v>321</v>
+        <f>110+11-50-50-50-30</f>
+        <v>-59</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -22353,7 +22356,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
@@ -22384,7 +22387,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -22394,11 +22397,11 @@
       </c>
       <c r="C11" s="62">
         <f t="shared" ref="C11:C15" si="8">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>132.39745962155621</v>
+        <v>-117.60254037844379</v>
       </c>
       <c r="D11" s="62">
         <f t="shared" ref="D11:D15" si="9">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>357.6025403784439</v>
+        <v>-22.397459621556081</v>
       </c>
       <c r="E11" s="62">
         <f t="shared" si="5"/>
@@ -22434,7 +22437,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
@@ -22444,11 +22447,11 @@
       </c>
       <c r="C12" s="62">
         <f t="shared" si="8"/>
-        <v>116.39745962155621</v>
+        <v>-133.60254037844379</v>
       </c>
       <c r="D12" s="62">
         <f t="shared" si="9"/>
-        <v>366.84014468547792</v>
+        <v>-13.159855314522062</v>
       </c>
       <c r="E12" s="62">
         <f t="shared" si="5"/>
@@ -22482,7 +22485,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>26</v>
       </c>
@@ -22492,11 +22495,11 @@
       </c>
       <c r="C13" s="62">
         <f t="shared" si="8"/>
-        <v>100.39745962155621</v>
+        <v>-149.60254037844379</v>
       </c>
       <c r="D13" s="62">
         <f t="shared" si="9"/>
-        <v>357.6025403784439</v>
+        <v>-22.397459621556067</v>
       </c>
       <c r="E13" s="62">
         <f t="shared" si="5"/>
@@ -22530,7 +22533,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -22540,11 +22543,11 @@
       </c>
       <c r="C14" s="62">
         <f t="shared" si="8"/>
-        <v>100.39745962155624</v>
+        <v>-149.60254037844376</v>
       </c>
       <c r="D14" s="62">
         <f t="shared" si="9"/>
-        <v>339.12733176437592</v>
+        <v>-40.872668235624062</v>
       </c>
       <c r="E14" s="62">
         <f t="shared" si="5"/>
@@ -22578,7 +22581,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -22588,11 +22591,11 @@
       </c>
       <c r="C15" s="62">
         <f t="shared" si="8"/>
-        <v>84.397459621556237</v>
+        <v>-165.60254037844376</v>
       </c>
       <c r="D15" s="62">
         <f t="shared" si="9"/>
-        <v>329.88972745734191</v>
+        <v>-50.110272542658066</v>
       </c>
       <c r="E15" s="62">
         <f t="shared" si="5"/>
@@ -22626,7 +22629,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
@@ -22655,7 +22658,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -22684,7 +22687,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -22713,7 +22716,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -22723,11 +22726,11 @@
       </c>
       <c r="C19" s="62">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>116.39745962155621</v>
+        <v>-133.60254037844379</v>
       </c>
       <c r="D19" s="62">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>329.88972745734191</v>
+        <v>-50.110272542658095</v>
       </c>
       <c r="E19" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
@@ -22761,7 +22764,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
@@ -22790,7 +22793,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -22819,7 +22822,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -22848,7 +22851,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -22858,11 +22861,11 @@
       </c>
       <c r="C23" s="62">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>132.39745962155621</v>
+        <v>-117.60254037844379</v>
       </c>
       <c r="D23" s="62">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>339.12733176437592</v>
+        <v>-40.87266823562409</v>
       </c>
       <c r="E23" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
@@ -22896,7 +22899,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>26</v>
       </c>
@@ -22906,11 +22909,11 @@
       </c>
       <c r="C24" s="62">
         <f>((+O24*COS($N$3)-P24*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>148.39745962155618</v>
+        <v>-101.60254037844382</v>
       </c>
       <c r="D24" s="62">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
-        <v>329.88972745734191</v>
+        <v>-50.110272542658123</v>
       </c>
       <c r="E24" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
@@ -22954,11 +22957,11 @@
       </c>
       <c r="C25" s="62">
         <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>164.39745962155615</v>
+        <v>-85.602540378443848</v>
       </c>
       <c r="D25" s="62">
         <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
-        <v>339.12733176437587</v>
+        <v>-40.872668235624133</v>
       </c>
       <c r="E25" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
@@ -23031,26 +23034,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23104,7 +23107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>26</v>
       </c>
@@ -23114,11 +23117,11 @@
       </c>
       <c r="C3" s="62">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>132.39745962155615</v>
+        <v>-115.60254037844385</v>
       </c>
       <c r="D3" s="62">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>397.6025403784439</v>
+        <v>15.602540378443877</v>
       </c>
       <c r="E3" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
@@ -23175,11 +23178,11 @@
       </c>
       <c r="C4" s="62">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>132.39745962155615</v>
+        <v>-115.60254037844383</v>
       </c>
       <c r="D4" s="62">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>416.07774899251189</v>
+        <v>34.077748992511886</v>
       </c>
       <c r="E4" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
@@ -23223,7 +23226,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -23261,7 +23264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="34"/>
       <c r="C6" s="62"/>
@@ -23320,7 +23323,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>169</v>
+        <f>-69-10</f>
+        <v>-79</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -23389,7 +23393,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>261</v>
+        <f>-61-50-10</f>
+        <v>-121</v>
       </c>
       <c r="O9" s="42">
         <v>164</v>
@@ -23399,7 +23404,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="34"/>
       <c r="C10" s="62"/>
@@ -23430,7 +23435,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
@@ -23440,11 +23445,11 @@
       </c>
       <c r="C11" s="62">
         <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>116.39745962155619</v>
+        <v>-131.60254037844379</v>
       </c>
       <c r="D11" s="62">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>425.3153532995459</v>
+        <v>43.315353299545905</v>
       </c>
       <c r="E11" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
@@ -23480,7 +23485,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
@@ -23490,11 +23495,11 @@
       </c>
       <c r="C12" s="62">
         <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>116.39745962155621</v>
+        <v>-131.60254037844379</v>
       </c>
       <c r="D12" s="62">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
-        <v>443.79056191361389</v>
+        <v>61.790561913613885</v>
       </c>
       <c r="E12" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
@@ -23528,7 +23533,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -23557,7 +23562,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
@@ -23567,11 +23572,11 @@
       </c>
       <c r="C14" s="62">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>84.397459621556251</v>
+        <v>-163.60254037844373</v>
       </c>
       <c r="D14" s="62">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>443.79056191361389</v>
+        <v>61.790561913613885</v>
       </c>
       <c r="E14" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
@@ -23605,7 +23610,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
@@ -23615,11 +23620,11 @@
       </c>
       <c r="C15" s="62">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>68.397459621556251</v>
+        <v>-179.60254037844373</v>
       </c>
       <c r="D15" s="62">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>453.0281662206479</v>
+        <v>71.028166220647904</v>
       </c>
       <c r="E15" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
@@ -23653,7 +23658,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
       <c r="B16" s="34"/>
       <c r="C16" s="62"/>
@@ -23682,7 +23687,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
       <c r="B17" s="34"/>
       <c r="C17" s="62"/>
@@ -23711,7 +23716,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="34"/>
       <c r="C18" s="62"/>
@@ -23740,7 +23745,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>26</v>
       </c>
@@ -23750,11 +23755,11 @@
       </c>
       <c r="C19" s="62">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>84.397459621556223</v>
+        <v>-163.60254037844379</v>
       </c>
       <c r="D19" s="62">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>425.3153532995459</v>
+        <v>43.315353299545876</v>
       </c>
       <c r="E19" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
@@ -23788,7 +23793,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
@@ -23817,7 +23822,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -23846,7 +23851,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -23875,7 +23880,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>26</v>
       </c>
@@ -23885,11 +23890,11 @@
       </c>
       <c r="C23" s="62">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>100.39745962155621</v>
+        <v>-147.60254037844379</v>
       </c>
       <c r="D23" s="62">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>416.07774899251189</v>
+        <v>34.077748992511886</v>
       </c>
       <c r="E23" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
@@ -23923,7 +23928,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>26</v>
       </c>
@@ -23933,11 +23938,11 @@
       </c>
       <c r="C24" s="62">
         <f>((+O24*COS($N$3)-P24*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>100.39745962155618</v>
+        <v>-147.60254037844382</v>
       </c>
       <c r="D24" s="62">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
-        <v>397.60254037844385</v>
+        <v>15.602540378443848</v>
       </c>
       <c r="E24" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
@@ -23981,11 +23986,11 @@
       </c>
       <c r="C25" s="62">
         <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>116.39745962155615</v>
+        <v>-131.60254037844385</v>
       </c>
       <c r="D25" s="62">
         <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
-        <v>388.36493607140983</v>
+        <v>6.3649360714098577</v>
       </c>
       <c r="E25" s="62">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
@@ -24019,7 +24024,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -24035,15 +24040,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G166" sqref="A3:G166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="66"/>
-    <col min="5" max="5" width="11.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="66"/>
+    <col min="5" max="5" width="11.33203125" style="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -24070,7 +24075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="str">
         <f>IF('4614A'!A3=0, "", '4614A'!A3)</f>
         <v>triangle_10pad</v>
@@ -24081,15 +24086,15 @@
       </c>
       <c r="C3" s="75">
         <f>IF('4614A'!C3="", "", '4614A'!C3)</f>
-        <v>100</v>
+        <v>-100.00000000000001</v>
       </c>
       <c r="D3" s="75">
         <f>IF('4614A'!D3="", "", '4614A'!D3)</f>
-        <v>100</v>
+        <v>-99.999999999999986</v>
       </c>
       <c r="E3" s="75">
         <f>IF('4614A'!E3="", "", '4614A'!E3)</f>
-        <v>-119.99971938845685</v>
+        <v>60.000280611543147</v>
       </c>
       <c r="F3" s="75">
         <f>IF('4614A'!F3=0, "", '4614A'!F3)</f>
@@ -24100,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="str">
         <f>IF('4614A'!A4=0, "", '4614A'!A4)</f>
         <v>triangle_10pad</v>
@@ -24111,15 +24116,15 @@
       </c>
       <c r="C4" s="75">
         <f>IF('4614A'!C4="", "", '4614A'!C4)</f>
-        <v>116</v>
+        <v>-116.00000000000001</v>
       </c>
       <c r="D4" s="75">
         <f>IF('4614A'!D4="", "", '4614A'!D4)</f>
-        <v>109.237604307034</v>
+        <v>-109.23760430703399</v>
       </c>
       <c r="E4" s="75">
         <f>IF('4614A'!E4="", "", '4614A'!E4)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F4" s="75">
         <f>IF('4614A'!F4=0, "", '4614A'!F4)</f>
@@ -24130,7 +24135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="str">
         <f>IF('4614A'!A5=0, "", '4614A'!A5)</f>
         <v>triangle_10pad</v>
@@ -24141,15 +24146,15 @@
       </c>
       <c r="C5" s="75">
         <f>IF('4614A'!C5="", "", '4614A'!C5)</f>
-        <v>132</v>
+        <v>-132</v>
       </c>
       <c r="D5" s="75">
         <f>IF('4614A'!D5="", "", '4614A'!D5)</f>
-        <v>100</v>
+        <v>-99.999999999999986</v>
       </c>
       <c r="E5" s="75">
         <f>IF('4614A'!E5="", "", '4614A'!E5)</f>
-        <v>-119.99971938845685</v>
+        <v>60.000280611543147</v>
       </c>
       <c r="F5" s="75">
         <f>IF('4614A'!F5=0, "", '4614A'!F5)</f>
@@ -24160,7 +24165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="str">
         <f>IF('4614A'!A6=0, "", '4614A'!A6)</f>
         <v/>
@@ -24190,7 +24195,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="str">
         <f>IF('4614A'!A7=0, "", '4614A'!A7)</f>
         <v/>
@@ -24220,7 +24225,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="str">
         <f>IF('4614A'!A8=0, "", '4614A'!A8)</f>
         <v/>
@@ -24250,7 +24255,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="str">
         <f>IF('4614A'!A9=0, "", '4614A'!A9)</f>
         <v/>
@@ -24280,7 +24285,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="str">
         <f>IF('4614A'!A10=0, "", '4614A'!A10)</f>
         <v/>
@@ -24310,7 +24315,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="71" t="str">
         <f>IF('4614A'!A11=0, "", '4614A'!A11)</f>
         <v>triangle_10pad</v>
@@ -24321,15 +24326,15 @@
       </c>
       <c r="C11" s="75">
         <f>IF('4614A'!C11="", "", '4614A'!C11)</f>
-        <v>116</v>
+        <v>-116.00000000000001</v>
       </c>
       <c r="D11" s="75">
         <f>IF('4614A'!D11="", "", '4614A'!D11)</f>
-        <v>127.712812921102</v>
+        <v>-127.71281292110199</v>
       </c>
       <c r="E11" s="75">
         <f>IF('4614A'!E11="", "", '4614A'!E11)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F11" s="75">
         <f>IF('4614A'!F11=0, "", '4614A'!F11)</f>
@@ -24340,7 +24345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="str">
         <f>IF('4614A'!A12=0, "", '4614A'!A12)</f>
         <v>triangle_10pad</v>
@@ -24351,15 +24356,15 @@
       </c>
       <c r="C12" s="75">
         <f>IF('4614A'!C12="", "", '4614A'!C12)</f>
-        <v>132</v>
+        <v>-132.00000000000003</v>
       </c>
       <c r="D12" s="75">
         <f>IF('4614A'!D12="", "", '4614A'!D12)</f>
-        <v>136.95041722813599</v>
+        <v>-136.95041722813596</v>
       </c>
       <c r="E12" s="75">
         <f>IF('4614A'!E12="", "", '4614A'!E12)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F12" s="75">
         <f>IF('4614A'!F12=0, "", '4614A'!F12)</f>
@@ -24370,7 +24375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="str">
         <f>IF('4614A'!A13=0, "", '4614A'!A13)</f>
         <v>triangle_10pad</v>
@@ -24381,15 +24386,15 @@
       </c>
       <c r="C13" s="75">
         <f>IF('4614A'!C13="", "", '4614A'!C13)</f>
-        <v>132</v>
+        <v>-132.00000000000003</v>
       </c>
       <c r="D13" s="75">
         <f>IF('4614A'!D13="", "", '4614A'!D13)</f>
-        <v>155.425625842204</v>
+        <v>-155.42562584220397</v>
       </c>
       <c r="E13" s="75">
         <f>IF('4614A'!E13="", "", '4614A'!E13)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F13" s="75">
         <f>IF('4614A'!F13=0, "", '4614A'!F13)</f>
@@ -24400,7 +24405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="str">
         <f>IF('4614A'!A14=0, "", '4614A'!A14)</f>
         <v>triangle_10pad</v>
@@ -24411,15 +24416,15 @@
       </c>
       <c r="C14" s="75">
         <f>IF('4614A'!C14="", "", '4614A'!C14)</f>
-        <v>116</v>
+        <v>-116.00000000000001</v>
       </c>
       <c r="D14" s="75">
         <f>IF('4614A'!D14="", "", '4614A'!D14)</f>
-        <v>164.66323014923799</v>
+        <v>-164.66323014923796</v>
       </c>
       <c r="E14" s="75">
         <f>IF('4614A'!E14="", "", '4614A'!E14)</f>
-        <v>59.999859694228427</v>
+        <v>239.99985969422843</v>
       </c>
       <c r="F14" s="75">
         <f>IF('4614A'!F14=0, "", '4614A'!F14)</f>
@@ -24430,7 +24435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="str">
         <f>IF('4614A'!A15=0, "", '4614A'!A15)</f>
         <v>triangle_10pad</v>
@@ -24441,15 +24446,15 @@
       </c>
       <c r="C15" s="75">
         <f>IF('4614A'!C15="", "", '4614A'!C15)</f>
-        <v>116</v>
+        <v>-116.00000000000003</v>
       </c>
       <c r="D15" s="75">
         <f>IF('4614A'!D15="", "", '4614A'!D15)</f>
-        <v>183.138438763306</v>
+        <v>-183.138438763306</v>
       </c>
       <c r="E15" s="75">
         <f>IF('4614A'!E15="", "", '4614A'!E15)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F15" s="75">
         <f>IF('4614A'!F15=0, "", '4614A'!F15)</f>
@@ -24460,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="str">
         <f>IF('4614A'!A16=0, "", '4614A'!A16)</f>
         <v>triangle_10pad</v>
@@ -24471,15 +24476,15 @@
       </c>
       <c r="C16" s="75">
         <f>IF('4614A'!C16="", "", '4614A'!C16)</f>
-        <v>132</v>
+        <v>-132.00000000000003</v>
       </c>
       <c r="D16" s="75">
         <f>IF('4614A'!D16="", "", '4614A'!D16)</f>
-        <v>192.37604307033999</v>
+        <v>-192.37604307033996</v>
       </c>
       <c r="E16" s="75">
         <f>IF('4614A'!E16="", "", '4614A'!E16)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F16" s="75">
         <f>IF('4614A'!F16=0, "", '4614A'!F16)</f>
@@ -24490,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="str">
         <f>IF('4614A'!A17=0, "", '4614A'!A17)</f>
         <v>triangle_10pad</v>
@@ -24501,15 +24506,15 @@
       </c>
       <c r="C17" s="75">
         <f>IF('4614A'!C17="", "", '4614A'!C17)</f>
-        <v>100</v>
+        <v>-100.00000000000003</v>
       </c>
       <c r="D17" s="75">
         <f>IF('4614A'!D17="", "", '4614A'!D17)</f>
-        <v>192.37604307033999</v>
+        <v>-192.37604307033999</v>
       </c>
       <c r="E17" s="75">
         <f>IF('4614A'!E17="", "", '4614A'!E17)</f>
-        <v>59.999859694228427</v>
+        <v>239.99985969422843</v>
       </c>
       <c r="F17" s="75">
         <f>IF('4614A'!F17=0, "", '4614A'!F17)</f>
@@ -24520,7 +24525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="str">
         <f>IF('4614A'!A18=0, "", '4614A'!A18)</f>
         <v/>
@@ -24550,7 +24555,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="str">
         <f>IF('4614A'!A19=0, "", '4614A'!A19)</f>
         <v>triangle_10pad</v>
@@ -24561,15 +24566,15 @@
       </c>
       <c r="C19" s="75">
         <f>IF('4614A'!C19="", "", '4614A'!C19)</f>
-        <v>100</v>
+        <v>-100.00000000000001</v>
       </c>
       <c r="D19" s="75">
         <f>IF('4614A'!D19="", "", '4614A'!D19)</f>
-        <v>155.425625842204</v>
+        <v>-155.425625842204</v>
       </c>
       <c r="E19" s="75">
         <f>IF('4614A'!E19="", "", '4614A'!E19)</f>
-        <v>119.99971938845685</v>
+        <v>299.99971938845687</v>
       </c>
       <c r="F19" s="75">
         <f>IF('4614A'!F19=0, "", '4614A'!F19)</f>
@@ -24580,7 +24585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="str">
         <f>IF('4614A'!A20=0, "", '4614A'!A20)</f>
         <v>triangle_10pad</v>
@@ -24591,15 +24596,15 @@
       </c>
       <c r="C20" s="75">
         <f>IF('4614A'!C20="", "", '4614A'!C20)</f>
-        <v>84</v>
+        <v>-84.000000000000014</v>
       </c>
       <c r="D20" s="75">
         <f>IF('4614A'!D20="", "", '4614A'!D20)</f>
-        <v>164.66323014923799</v>
+        <v>-164.66323014923799</v>
       </c>
       <c r="E20" s="75">
         <f>IF('4614A'!E20="", "", '4614A'!E20)</f>
-        <v>59.999859694228427</v>
+        <v>239.99985969422843</v>
       </c>
       <c r="F20" s="75">
         <f>IF('4614A'!F20=0, "", '4614A'!F20)</f>
@@ -24610,7 +24615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="str">
         <f>IF('4614A'!A21=0, "", '4614A'!A21)</f>
         <v/>
@@ -24640,7 +24645,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="71" t="str">
         <f>IF('4614A'!A22=0, "", '4614A'!A22)</f>
         <v/>
@@ -24670,7 +24675,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="71" t="str">
         <f>IF('4614A'!A23=0, "", '4614A'!A23)</f>
         <v>triangle_10pad</v>
@@ -24681,15 +24686,15 @@
       </c>
       <c r="C23" s="75">
         <f>IF('4614A'!C23="", "", '4614A'!C23)</f>
-        <v>100</v>
+        <v>-100.00000000000001</v>
       </c>
       <c r="D23" s="75">
         <f>IF('4614A'!D23="", "", '4614A'!D23)</f>
-        <v>136.95041722813599</v>
+        <v>-136.95041722813599</v>
       </c>
       <c r="E23" s="75">
         <f>IF('4614A'!E23="", "", '4614A'!E23)</f>
-        <v>179.99957908268468</v>
+        <v>359.9995790826847</v>
       </c>
       <c r="F23" s="75">
         <f>IF('4614A'!F23=0, "", '4614A'!F23)</f>
@@ -24700,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="71" t="str">
         <f>IF('4614A'!A24=0, "", '4614A'!A24)</f>
         <v>triangle_10pad</v>
@@ -24711,15 +24716,15 @@
       </c>
       <c r="C24" s="75">
         <f>IF('4614A'!C24="", "", '4614A'!C24)</f>
-        <v>84</v>
+        <v>-84.000000000000014</v>
       </c>
       <c r="D24" s="75">
         <f>IF('4614A'!D24="", "", '4614A'!D24)</f>
-        <v>127.712812921102</v>
+        <v>-127.71281292110199</v>
       </c>
       <c r="E24" s="75">
         <f>IF('4614A'!E24="", "", '4614A'!E24)</f>
-        <v>119.99971938845685</v>
+        <v>299.99971938845687</v>
       </c>
       <c r="F24" s="75">
         <f>IF('4614A'!F24=0, "", '4614A'!F24)</f>
@@ -24730,7 +24735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="71" t="str">
         <f>IF('4614A'!A25=0, "", '4614A'!A25)</f>
         <v>triangle_10pad</v>
@@ -24741,15 +24746,15 @@
       </c>
       <c r="C25" s="75">
         <f>IF('4614A'!C25="", "", '4614A'!C25)</f>
-        <v>84</v>
+        <v>-84.000000000000014</v>
       </c>
       <c r="D25" s="75">
         <f>IF('4614A'!D25="", "", '4614A'!D25)</f>
-        <v>109.237604307034</v>
+        <v>-109.23760430703399</v>
       </c>
       <c r="E25" s="75">
         <f>IF('4614A'!E25="", "", '4614A'!E25)</f>
-        <v>179.99957908268468</v>
+        <v>359.9995790826847</v>
       </c>
       <c r="F25" s="75">
         <f>IF('4614A'!F25=0, "", '4614A'!F25)</f>
@@ -24760,7 +24765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="str">
         <f>IF('4535_1'!A3="", "", '4535_1'!A3)</f>
         <v/>
@@ -24790,7 +24795,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="str">
         <f>IF('4535_1'!A4="", "", '4535_1'!A4)</f>
         <v/>
@@ -24820,7 +24825,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="str">
         <f>IF('4535_1'!A5="", "", '4535_1'!A5)</f>
         <v/>
@@ -24850,7 +24855,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="str">
         <f>IF('4535_1'!A6="", "", '4535_1'!A6)</f>
         <v/>
@@ -24880,7 +24885,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="str">
         <f>IF('4535_1'!A7="", "", '4535_1'!A7)</f>
         <v/>
@@ -24910,7 +24915,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="str">
         <f>IF('4535_1'!A8="", "", '4535_1'!A8)</f>
         <v/>
@@ -24940,7 +24945,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="str">
         <f>IF('4535_1'!A9="", "", '4535_1'!A9)</f>
         <v/>
@@ -24970,7 +24975,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="str">
         <f>IF('4535_1'!A10="", "", '4535_1'!A10)</f>
         <v/>
@@ -25000,7 +25005,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="str">
         <f>IF('4535_1'!A11="", "", '4535_1'!A11)</f>
         <v/>
@@ -25030,7 +25035,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="str">
         <f>IF('4535_1'!A12="", "", '4535_1'!A12)</f>
         <v/>
@@ -25060,7 +25065,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="str">
         <f>IF('4535_1'!A13="", "", '4535_1'!A13)</f>
         <v/>
@@ -25090,7 +25095,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="str">
         <f>IF('4535_1'!A14="", "", '4535_1'!A14)</f>
         <v>triangle_10pad</v>
@@ -25101,15 +25106,15 @@
       </c>
       <c r="C37" s="76">
         <f>IF('4535_1'!C14="", "", '4535_1'!C14)</f>
-        <v>195.60254037844379</v>
+        <v>-195.60254037844376</v>
       </c>
       <c r="D37" s="76">
         <f>IF('4535_1'!D14="", "", '4535_1'!D14)</f>
-        <v>155.87266823562413</v>
+        <v>-154.87266823562408</v>
       </c>
       <c r="E37" s="76">
         <f>IF('4535_1'!E14="", "", '4535_1'!E14)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F37" s="76">
         <f>IF('4535_1'!F14="", "", '4535_1'!F14)</f>
@@ -25120,7 +25125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="str">
         <f>IF('4535_1'!A15="", "", '4535_1'!A15)</f>
         <v>triangle_10pad</v>
@@ -25131,15 +25136,15 @@
       </c>
       <c r="C38" s="76">
         <f>IF('4535_1'!C15="", "", '4535_1'!C15)</f>
-        <v>211.60254037844379</v>
+        <v>-211.60254037844376</v>
       </c>
       <c r="D38" s="76">
         <f>IF('4535_1'!D15="", "", '4535_1'!D15)</f>
-        <v>165.11027254265815</v>
+        <v>-164.11027254265807</v>
       </c>
       <c r="E38" s="76">
         <f>IF('4535_1'!E15="", "", '4535_1'!E15)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F38" s="76">
         <f>IF('4535_1'!F15="", "", '4535_1'!F15)</f>
@@ -25150,7 +25155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="str">
         <f>IF('4535_1'!A16="", "", '4535_1'!A16)</f>
         <v/>
@@ -25180,7 +25185,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="str">
         <f>IF('4535_1'!A17="", "", '4535_1'!A17)</f>
         <v>triangle_10pad</v>
@@ -25191,15 +25196,15 @@
       </c>
       <c r="C40" s="76">
         <f>IF('4535_1'!C17="", "", '4535_1'!C17)</f>
-        <v>211.60254037844373</v>
+        <v>-211.60254037844373</v>
       </c>
       <c r="D40" s="76">
         <f>IF('4535_1'!D17="", "", '4535_1'!D17)</f>
-        <v>183.58548115672616</v>
+        <v>-182.58548115672608</v>
       </c>
       <c r="E40" s="76">
         <f>IF('4535_1'!E17="", "", '4535_1'!E17)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F40" s="76">
         <f>IF('4535_1'!F17="", "", '4535_1'!F17)</f>
@@ -25210,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="str">
         <f>IF('4535_1'!A18="", "", '4535_1'!A18)</f>
         <v>triangle_10pad</v>
@@ -25221,15 +25226,15 @@
       </c>
       <c r="C41" s="76">
         <f>IF('4535_1'!C18="", "", '4535_1'!C18)</f>
-        <v>195.60254037844376</v>
+        <v>-195.60254037844376</v>
       </c>
       <c r="D41" s="76">
         <f>IF('4535_1'!D18="", "", '4535_1'!D18)</f>
-        <v>192.82308546376015</v>
+        <v>-191.82308546376009</v>
       </c>
       <c r="E41" s="76">
         <f>IF('4535_1'!E18="", "", '4535_1'!E18)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F41" s="76">
         <f>IF('4535_1'!F18="", "", '4535_1'!F18)</f>
@@ -25240,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="str">
         <f>IF('4535_1'!A19="", "", '4535_1'!A19)</f>
         <v>triangle_10pad</v>
@@ -25251,15 +25256,15 @@
       </c>
       <c r="C42" s="76">
         <f>IF('4535_1'!C19="", "", '4535_1'!C19)</f>
-        <v>179.60254037844379</v>
+        <v>-179.60254037844379</v>
       </c>
       <c r="D42" s="76">
         <f>IF('4535_1'!D19="", "", '4535_1'!D19)</f>
-        <v>165.11027254265815</v>
+        <v>-164.11027254265809</v>
       </c>
       <c r="E42" s="76">
         <f>IF('4535_1'!E19="", "", '4535_1'!E19)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F42" s="76">
         <f>IF('4535_1'!F19="", "", '4535_1'!F19)</f>
@@ -25270,7 +25275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="str">
         <f>IF('4535_1'!A20="", "", '4535_1'!A20)</f>
         <v>triangle_10pad</v>
@@ -25281,15 +25286,15 @@
       </c>
       <c r="C43" s="76">
         <f>IF('4535_1'!C20="", "", '4535_1'!C20)</f>
-        <v>179.60254037844376</v>
+        <v>-179.60254037844376</v>
       </c>
       <c r="D43" s="76">
         <f>IF('4535_1'!D20="", "", '4535_1'!D20)</f>
-        <v>183.58548115672616</v>
+        <v>-182.5854811567261</v>
       </c>
       <c r="E43" s="76">
         <f>IF('4535_1'!E20="", "", '4535_1'!E20)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F43" s="76">
         <f>IF('4535_1'!F20="", "", '4535_1'!F20)</f>
@@ -25300,7 +25305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="str">
         <f>IF('4535_1'!A21="", "", '4535_1'!A21)</f>
         <v>triangle_10pad</v>
@@ -25311,15 +25316,15 @@
       </c>
       <c r="C44" s="76">
         <f>IF('4535_1'!C21="", "", '4535_1'!C21)</f>
-        <v>163.60254037844379</v>
+        <v>-163.60254037844379</v>
       </c>
       <c r="D44" s="76">
         <f>IF('4535_1'!D21="", "", '4535_1'!D21)</f>
-        <v>192.82308546376018</v>
+        <v>-191.82308546376015</v>
       </c>
       <c r="E44" s="76">
         <f>IF('4535_1'!E21="", "", '4535_1'!E21)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F44" s="76">
         <f>IF('4535_1'!F21="", "", '4535_1'!F21)</f>
@@ -25330,7 +25335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="str">
         <f>IF('4535_1'!A22="", "", '4535_1'!A22)</f>
         <v>triangle_10pad</v>
@@ -25341,15 +25346,15 @@
       </c>
       <c r="C45" s="76">
         <f>IF('4535_1'!C22="", "", '4535_1'!C22)</f>
-        <v>147.60254037844382</v>
+        <v>-147.60254037844379</v>
       </c>
       <c r="D45" s="76">
         <f>IF('4535_1'!D22="", "", '4535_1'!D22)</f>
-        <v>183.58548115672619</v>
+        <v>-182.58548115672613</v>
       </c>
       <c r="E45" s="76">
         <f>IF('4535_1'!E22="", "", '4535_1'!E22)</f>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F45" s="76">
         <f>IF('4535_1'!F22="", "", '4535_1'!F22)</f>
@@ -25360,7 +25365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="str">
         <f>IF('4535_1'!A23="", "", '4535_1'!A23)</f>
         <v>triangle_10pad</v>
@@ -25371,15 +25376,15 @@
       </c>
       <c r="C46" s="76">
         <f>IF('4535_1'!C23="", "", '4535_1'!C23)</f>
-        <v>163.60254037844382</v>
+        <v>-163.60254037844379</v>
       </c>
       <c r="D46" s="76">
         <f>IF('4535_1'!D23="", "", '4535_1'!D23)</f>
-        <v>155.87266823562413</v>
+        <v>-154.87266823562408</v>
       </c>
       <c r="E46" s="76">
         <f>IF('4535_1'!E23="", "", '4535_1'!E23)</f>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F46" s="76">
         <f>IF('4535_1'!F23="", "", '4535_1'!F23)</f>
@@ -25390,7 +25395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="str">
         <f>IF('4535_1'!A24="", "", '4535_1'!A24)</f>
         <v>triangle_10pad</v>
@@ -25401,15 +25406,15 @@
       </c>
       <c r="C47" s="76">
         <f>IF('4535_1'!C24="", "", '4535_1'!C24)</f>
-        <v>147.60254037844382</v>
+        <v>-147.60254037844382</v>
       </c>
       <c r="D47" s="76">
         <f>IF('4535_1'!D24="", "", '4535_1'!D24)</f>
-        <v>165.11027254265815</v>
+        <v>-164.11027254265812</v>
       </c>
       <c r="E47" s="76">
         <f>IF('4535_1'!E24="", "", '4535_1'!E24)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F47" s="76">
         <f>IF('4535_1'!F24="", "", '4535_1'!F24)</f>
@@ -25420,7 +25425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="str">
         <f>IF('4535_1'!A25="", "", '4535_1'!A25)</f>
         <v/>
@@ -25450,7 +25455,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="str">
         <f>IF('4535_2'!A3="", "", '4535_2'!A3)</f>
         <v/>
@@ -25480,7 +25485,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="str">
         <f>IF('4535_2'!A4="", "", '4535_2'!A4)</f>
         <v>triangle_10pad</v>
@@ -25491,15 +25496,15 @@
       </c>
       <c r="C50" s="77">
         <f>IF('4535_2'!C4="", "", '4535_2'!C4)</f>
-        <v>147.60254037844385</v>
+        <v>-147.60254037844385</v>
       </c>
       <c r="D50" s="77">
         <f>IF('4535_2'!D4="", "", '4535_2'!D4)</f>
-        <v>128.15985531452213</v>
+        <v>-127.15985531452209</v>
       </c>
       <c r="E50" s="77">
         <f>IF('4535_2'!E4="", "", '4535_2'!E4)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F50" s="77">
         <f>IF('4535_2'!F4="", "", '4535_2'!F4)</f>
@@ -25510,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="str">
         <f>IF('4535_2'!A5="", "", '4535_2'!A5)</f>
         <v>triangle_10pad</v>
@@ -25521,15 +25526,15 @@
       </c>
       <c r="C51" s="77">
         <f>IF('4535_2'!C5="", "", '4535_2'!C5)</f>
-        <v>147.60254037844388</v>
+        <v>-147.60254037844385</v>
       </c>
       <c r="D51" s="77">
         <f>IF('4535_2'!D5="", "", '4535_2'!D5)</f>
-        <v>109.68464670045412</v>
+        <v>-108.68464670045407</v>
       </c>
       <c r="E51" s="77">
         <f>IF('4535_2'!E5="", "", '4535_2'!E5)</f>
-        <v>-179.99971938845687</v>
+        <v>2.80611543146847E-4</v>
       </c>
       <c r="F51" s="77">
         <f>IF('4535_2'!F5="", "", '4535_2'!F5)</f>
@@ -25540,7 +25545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="str">
         <f>IF('4535_2'!A6="", "", '4535_2'!A6)</f>
         <v>triangle_10pad</v>
@@ -25551,15 +25556,15 @@
       </c>
       <c r="C52" s="77">
         <f>IF('4535_2'!C6="", "", '4535_2'!C6)</f>
-        <v>163.60254037844385</v>
+        <v>-163.60254037844385</v>
       </c>
       <c r="D52" s="77">
         <f>IF('4535_2'!D6="", "", '4535_2'!D6)</f>
-        <v>100.44704239342011</v>
+        <v>-99.447042393420048</v>
       </c>
       <c r="E52" s="77">
         <f>IF('4535_2'!E6="", "", '4535_2'!E6)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F52" s="77">
         <f>IF('4535_2'!F6="", "", '4535_2'!F6)</f>
@@ -25570,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="str">
         <f>IF('4535_2'!A7="", "", '4535_2'!A7)</f>
         <v>triangle_10pad</v>
@@ -25581,15 +25586,15 @@
       </c>
       <c r="C53" s="77">
         <f>IF('4535_2'!C7="", "", '4535_2'!C7)</f>
-        <v>179.60254037844385</v>
+        <v>-179.60254037844379</v>
       </c>
       <c r="D53" s="77">
         <f>IF('4535_2'!D7="", "", '4535_2'!D7)</f>
-        <v>109.68464670045411</v>
+        <v>-108.68464670045404</v>
       </c>
       <c r="E53" s="77">
         <f>IF('4535_2'!E7="", "", '4535_2'!E7)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F53" s="77">
         <f>IF('4535_2'!F7="", "", '4535_2'!F7)</f>
@@ -25600,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="str">
         <f>IF('4535_2'!A8="", "", '4535_2'!A8)</f>
         <v>triangle_10pad</v>
@@ -25611,15 +25616,15 @@
       </c>
       <c r="C54" s="77">
         <f>IF('4535_2'!C8="", "", '4535_2'!C8)</f>
-        <v>195.60254037844382</v>
+        <v>-195.60254037844379</v>
       </c>
       <c r="D54" s="77">
         <f>IF('4535_2'!D8="", "", '4535_2'!D8)</f>
-        <v>100.44704239342008</v>
+        <v>-99.447042393420006</v>
       </c>
       <c r="E54" s="77">
         <f>IF('4535_2'!E8="", "", '4535_2'!E8)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F54" s="77">
         <f>IF('4535_2'!F8="", "", '4535_2'!F8)</f>
@@ -25630,7 +25635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="str">
         <f>IF('4535_2'!A9="", "", '4535_2'!A9)</f>
         <v>triangle_10pad</v>
@@ -25641,15 +25646,15 @@
       </c>
       <c r="C55" s="77">
         <f>IF('4535_2'!C9="", "", '4535_2'!C9)</f>
-        <v>211.60254037844379</v>
+        <v>-211.60254037844379</v>
       </c>
       <c r="D55" s="77">
         <f>IF('4535_2'!D9="", "", '4535_2'!D9)</f>
-        <v>109.68464670045408</v>
+        <v>-108.68464670045401</v>
       </c>
       <c r="E55" s="77">
         <f>IF('4535_2'!E9="", "", '4535_2'!E9)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F55" s="77">
         <f>IF('4535_2'!F9="", "", '4535_2'!F9)</f>
@@ -25660,7 +25665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="str">
         <f>IF('4535_2'!A10="", "", '4535_2'!A10)</f>
         <v>triangle_10pad</v>
@@ -25671,15 +25676,15 @@
       </c>
       <c r="C56" s="77">
         <f>IF('4535_2'!C10="", "", '4535_2'!C10)</f>
-        <v>211.60254037844379</v>
+        <v>-211.60254037844376</v>
       </c>
       <c r="D56" s="77">
         <f>IF('4535_2'!D10="", "", '4535_2'!D10)</f>
-        <v>128.1598553145221</v>
+        <v>-127.15985531452202</v>
       </c>
       <c r="E56" s="77">
         <f>IF('4535_2'!E10="", "", '4535_2'!E10)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F56" s="77">
         <f>IF('4535_2'!F10="", "", '4535_2'!F10)</f>
@@ -25690,7 +25695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="str">
         <f>IF('4535_2'!A11="", "", '4535_2'!A11)</f>
         <v>triangle_10pad</v>
@@ -25701,15 +25706,15 @@
       </c>
       <c r="C57" s="77">
         <f>IF('4535_2'!C11="", "", '4535_2'!C11)</f>
-        <v>163.60254037844385</v>
+        <v>-163.60254037844379</v>
       </c>
       <c r="D57" s="77">
         <f>IF('4535_2'!D11="", "", '4535_2'!D11)</f>
-        <v>137.39745962155615</v>
+        <v>-136.3974596215561</v>
       </c>
       <c r="E57" s="77">
         <f>IF('4535_2'!E11="", "", '4535_2'!E11)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F57" s="77">
         <f>IF('4535_2'!F11="", "", '4535_2'!F11)</f>
@@ -25720,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="str">
         <f>IF('4535_2'!A12="", "", '4535_2'!A12)</f>
         <v>triangle_10pad</v>
@@ -25731,15 +25736,15 @@
       </c>
       <c r="C58" s="77">
         <f>IF('4535_2'!C12="", "", '4535_2'!C12)</f>
-        <v>179.60254037844382</v>
+        <v>-179.60254037844379</v>
       </c>
       <c r="D58" s="77">
         <f>IF('4535_2'!D12="", "", '4535_2'!D12)</f>
-        <v>128.15985531452213</v>
+        <v>-127.15985531452206</v>
       </c>
       <c r="E58" s="77">
         <f>IF('4535_2'!E12="", "", '4535_2'!E12)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F58" s="77">
         <f>IF('4535_2'!F12="", "", '4535_2'!F12)</f>
@@ -25750,7 +25755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="str">
         <f>IF('4535_2'!A13="", "", '4535_2'!A13)</f>
         <v>triangle_10pad</v>
@@ -25761,15 +25766,15 @@
       </c>
       <c r="C59" s="77">
         <f>IF('4535_2'!C13="", "", '4535_2'!C13)</f>
-        <v>195.60254037844379</v>
+        <v>-195.60254037844379</v>
       </c>
       <c r="D59" s="77">
         <f>IF('4535_2'!D13="", "", '4535_2'!D13)</f>
-        <v>137.39745962155612</v>
+        <v>-136.39745962155607</v>
       </c>
       <c r="E59" s="77">
         <f>IF('4535_2'!E13="", "", '4535_2'!E13)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F59" s="77">
         <f>IF('4535_2'!F13="", "", '4535_2'!F13)</f>
@@ -25780,7 +25785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="str">
         <f>IF('4535_2'!A14="", "", '4535_2'!A14)</f>
         <v/>
@@ -25810,7 +25815,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="str">
         <f>IF('4535_2'!A15="", "", '4535_2'!A15)</f>
         <v/>
@@ -25840,7 +25845,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="str">
         <f>IF('4535_2'!A16="", "", '4535_2'!A16)</f>
         <v/>
@@ -25870,7 +25875,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="str">
         <f>IF('4535_2'!A17="", "", '4535_2'!A17)</f>
         <v/>
@@ -25900,7 +25905,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="str">
         <f>IF('4535_2'!A18="", "", '4535_2'!A18)</f>
         <v/>
@@ -25930,7 +25935,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="str">
         <f>IF('4535_2'!A19="", "", '4535_2'!A19)</f>
         <v/>
@@ -25960,7 +25965,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="58" t="str">
         <f>IF('4535_2'!A20="", "", '4535_2'!A20)</f>
         <v/>
@@ -25990,7 +25995,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="str">
         <f>IF('4535_2'!A21="", "", '4535_2'!A21)</f>
         <v/>
@@ -26020,7 +26025,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="str">
         <f>IF('4535_2'!A22="", "", '4535_2'!A22)</f>
         <v/>
@@ -26050,7 +26055,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="58" t="str">
         <f>IF('4535_2'!A23="", "", '4535_2'!A23)</f>
         <v/>
@@ -26080,7 +26085,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="58" t="str">
         <f>IF('4535_2'!A24="", "", '4535_2'!A24)</f>
         <v/>
@@ -26110,7 +26115,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="58" t="str">
         <f>IF('4535_2'!A25="", "", '4535_2'!A25)</f>
         <v/>
@@ -26140,7 +26145,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="str">
         <f>IF('6438A_1'!A3="", "", '6438A_1'!A3)</f>
         <v/>
@@ -26170,7 +26175,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="65" t="str">
         <f>IF('6438A_1'!A4="", "", '6438A_1'!A4)</f>
         <v/>
@@ -26200,7 +26205,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="65" t="str">
         <f>IF('6438A_1'!A5="", "", '6438A_1'!A5)</f>
         <v/>
@@ -26230,7 +26235,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="65" t="str">
         <f>IF('6438A_1'!A6="", "", '6438A_1'!A6)</f>
         <v/>
@@ -26260,7 +26265,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="65" t="str">
         <f>IF('6438A_1'!A7="", "", '6438A_1'!A7)</f>
         <v/>
@@ -26290,7 +26295,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="65" t="str">
         <f>IF('6438A_1'!A8="", "", '6438A_1'!A8)</f>
         <v/>
@@ -26320,7 +26325,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="65" t="str">
         <f>IF('6438A_1'!A9="", "", '6438A_1'!A9)</f>
         <v/>
@@ -26350,7 +26355,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="65" t="str">
         <f>IF('6438A_1'!A10="", "", '6438A_1'!A10)</f>
         <v/>
@@ -26380,7 +26385,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="str">
         <f>IF('6438A_1'!A11="", "", '6438A_1'!A11)</f>
         <v/>
@@ -26410,7 +26415,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="65" t="str">
         <f>IF('6438A_1'!A12="", "", '6438A_1'!A12)</f>
         <v/>
@@ -26440,7 +26445,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="65" t="str">
         <f>IF('6438A_1'!A13="", "", '6438A_1'!A13)</f>
         <v/>
@@ -26470,7 +26475,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="65" t="str">
         <f>IF('6438A_1'!A14="", "", '6438A_1'!A14)</f>
         <v>triangle_10pad</v>
@@ -26481,15 +26486,15 @@
       </c>
       <c r="C83" s="78">
         <f>IF('6438A_1'!C14="", "", '6438A_1'!C14)</f>
-        <v>130.60254037844379</v>
+        <v>-130.60254037844376</v>
       </c>
       <c r="D83" s="78">
         <f>IF('6438A_1'!D14="", "", '6438A_1'!D14)</f>
-        <v>209.87266823562413</v>
+        <v>-209.87266823562408</v>
       </c>
       <c r="E83" s="78">
         <f>IF('6438A_1'!E14="", "", '6438A_1'!E14)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F83" s="78">
         <f>IF('6438A_1'!F14="", "", '6438A_1'!F14)</f>
@@ -26500,7 +26505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="65" t="str">
         <f>IF('6438A_1'!A15="", "", '6438A_1'!A15)</f>
         <v>triangle_10pad</v>
@@ -26511,15 +26516,15 @@
       </c>
       <c r="C84" s="78">
         <f>IF('6438A_1'!C15="", "", '6438A_1'!C15)</f>
-        <v>146.60254037844379</v>
+        <v>-146.60254037844376</v>
       </c>
       <c r="D84" s="78">
         <f>IF('6438A_1'!D15="", "", '6438A_1'!D15)</f>
-        <v>219.11027254265815</v>
+        <v>-219.11027254265807</v>
       </c>
       <c r="E84" s="78">
         <f>IF('6438A_1'!E15="", "", '6438A_1'!E15)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F84" s="78">
         <f>IF('6438A_1'!F15="", "", '6438A_1'!F15)</f>
@@ -26530,7 +26535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="65" t="str">
         <f>IF('6438A_1'!A16="", "", '6438A_1'!A16)</f>
         <v/>
@@ -26560,7 +26565,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="65" t="str">
         <f>IF('6438A_1'!A17="", "", '6438A_1'!A17)</f>
         <v>triangle_10pad</v>
@@ -26571,15 +26576,15 @@
       </c>
       <c r="C86" s="78">
         <f>IF('6438A_1'!C17="", "", '6438A_1'!C17)</f>
-        <v>146.60254037844373</v>
+        <v>-146.60254037844373</v>
       </c>
       <c r="D86" s="78">
         <f>IF('6438A_1'!D17="", "", '6438A_1'!D17)</f>
-        <v>237.58548115672616</v>
+        <v>-237.58548115672608</v>
       </c>
       <c r="E86" s="78">
         <f>IF('6438A_1'!E17="", "", '6438A_1'!E17)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F86" s="78">
         <f>IF('6438A_1'!F17="", "", '6438A_1'!F17)</f>
@@ -26590,7 +26595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="65" t="str">
         <f>IF('6438A_1'!A18="", "", '6438A_1'!A18)</f>
         <v/>
@@ -26620,7 +26625,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="65" t="str">
         <f>IF('6438A_1'!A19="", "", '6438A_1'!A19)</f>
         <v>triangle_10pad</v>
@@ -26631,15 +26636,15 @@
       </c>
       <c r="C88" s="78">
         <f>IF('6438A_1'!C19="", "", '6438A_1'!C19)</f>
-        <v>114.60254037844379</v>
+        <v>-114.60254037844379</v>
       </c>
       <c r="D88" s="78">
         <f>IF('6438A_1'!D19="", "", '6438A_1'!D19)</f>
-        <v>219.11027254265815</v>
+        <v>-219.11027254265809</v>
       </c>
       <c r="E88" s="78">
         <f>IF('6438A_1'!E19="", "", '6438A_1'!E19)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F88" s="78">
         <f>IF('6438A_1'!F19="", "", '6438A_1'!F19)</f>
@@ -26650,7 +26655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="str">
         <f>IF('6438A_1'!A20="", "", '6438A_1'!A20)</f>
         <v>triangle_10pad</v>
@@ -26661,15 +26666,15 @@
       </c>
       <c r="C89" s="78">
         <f>IF('6438A_1'!C20="", "", '6438A_1'!C20)</f>
-        <v>114.60254037844376</v>
+        <v>-114.60254037844376</v>
       </c>
       <c r="D89" s="78">
         <f>IF('6438A_1'!D20="", "", '6438A_1'!D20)</f>
-        <v>237.58548115672616</v>
+        <v>-237.5854811567261</v>
       </c>
       <c r="E89" s="78">
         <f>IF('6438A_1'!E20="", "", '6438A_1'!E20)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F89" s="78">
         <f>IF('6438A_1'!F20="", "", '6438A_1'!F20)</f>
@@ -26680,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="65" t="str">
         <f>IF('6438A_1'!A21="", "", '6438A_1'!A21)</f>
         <v/>
@@ -26710,7 +26715,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="65" t="str">
         <f>IF('6438A_1'!A22="", "", '6438A_1'!A22)</f>
         <v/>
@@ -26740,7 +26745,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="65" t="str">
         <f>IF('6438A_1'!A23="", "", '6438A_1'!A23)</f>
         <v>triangle_10pad</v>
@@ -26751,15 +26756,15 @@
       </c>
       <c r="C92" s="78">
         <f>IF('6438A_1'!C23="", "", '6438A_1'!C23)</f>
-        <v>98.60254037844382</v>
+        <v>-98.602540378443791</v>
       </c>
       <c r="D92" s="78">
         <f>IF('6438A_1'!D23="", "", '6438A_1'!D23)</f>
-        <v>209.87266823562413</v>
+        <v>-209.87266823562408</v>
       </c>
       <c r="E92" s="78">
         <f>IF('6438A_1'!E23="", "", '6438A_1'!E23)</f>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F92" s="78">
         <f>IF('6438A_1'!F23="", "", '6438A_1'!F23)</f>
@@ -26770,7 +26775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="65" t="str">
         <f>IF('6438A_1'!A24="", "", '6438A_1'!A24)</f>
         <v/>
@@ -26800,7 +26805,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="65" t="str">
         <f>IF('6438A_1'!A25="", "", '6438A_1'!A25)</f>
         <v/>
@@ -26830,7 +26835,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="65" t="str">
         <f>IF('6438A_1'!A26="", "", '6438A_1'!A26)</f>
         <v/>
@@ -26860,7 +26865,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="69" t="str">
         <f>IF('6438A_2'!A3="", "", '6438A_2'!A3)</f>
         <v>triangle_10pad</v>
@@ -26871,15 +26876,15 @@
       </c>
       <c r="C96" s="79">
         <f>IF('6438A_2'!C3="", "", '6438A_2'!C3)</f>
-        <v>164</v>
+        <v>-164</v>
       </c>
       <c r="D96" s="79">
         <f>IF('6438A_2'!D3="", "", '6438A_2'!D3)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="E96" s="79">
         <f>IF('6438A_2'!E3="", "", '6438A_2'!E3)</f>
-        <v>-119.99971938845685</v>
+        <v>60.000280611543147</v>
       </c>
       <c r="F96" s="79">
         <f>IF('6438A_2'!F3="", "", '6438A_2'!F3)</f>
@@ -26890,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="69" t="str">
         <f>IF('6438A_2'!A4="", "", '6438A_2'!A4)</f>
         <v>triangle_10pad</v>
@@ -26901,15 +26906,15 @@
       </c>
       <c r="C97" s="79">
         <f>IF('6438A_2'!C4="", "", '6438A_2'!C4)</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="D97" s="79">
         <f>IF('6438A_2'!D4="", "", '6438A_2'!D4)</f>
-        <v>219.23760430703402</v>
+        <v>-219.23760430703399</v>
       </c>
       <c r="E97" s="79">
         <f>IF('6438A_2'!E4="", "", '6438A_2'!E4)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F97" s="79">
         <f>IF('6438A_2'!F4="", "", '6438A_2'!F4)</f>
@@ -26920,7 +26925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="69" t="str">
         <f>IF('6438A_2'!A5="", "", '6438A_2'!A5)</f>
         <v>triangle_10pad</v>
@@ -26931,15 +26936,15 @@
       </c>
       <c r="C98" s="79">
         <f>IF('6438A_2'!C5="", "", '6438A_2'!C5)</f>
-        <v>196</v>
+        <v>-196</v>
       </c>
       <c r="D98" s="79">
         <f>IF('6438A_2'!D5="", "", '6438A_2'!D5)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="E98" s="79">
         <f>IF('6438A_2'!E5="", "", '6438A_2'!E5)</f>
-        <v>-119.99971938845685</v>
+        <v>60.000280611543147</v>
       </c>
       <c r="F98" s="79">
         <f>IF('6438A_2'!F5="", "", '6438A_2'!F5)</f>
@@ -26950,7 +26955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="69" t="str">
         <f>IF('6438A_2'!A6="", "", '6438A_2'!A6)</f>
         <v>triangle_10pad</v>
@@ -26961,15 +26966,15 @@
       </c>
       <c r="C99" s="79">
         <f>IF('6438A_2'!C6="", "", '6438A_2'!C6)</f>
-        <v>212</v>
+        <v>-212</v>
       </c>
       <c r="D99" s="79">
         <f>IF('6438A_2'!D6="", "", '6438A_2'!D6)</f>
-        <v>219.23760430703402</v>
+        <v>-219.23760430703399</v>
       </c>
       <c r="E99" s="79">
         <f>IF('6438A_2'!E6="", "", '6438A_2'!E6)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F99" s="79">
         <f>IF('6438A_2'!F6="", "", '6438A_2'!F6)</f>
@@ -26980,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="69" t="str">
         <f>IF('6438A_2'!A7="", "", '6438A_2'!A7)</f>
         <v/>
@@ -27010,7 +27015,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="69" t="str">
         <f>IF('6438A_2'!A8="", "", '6438A_2'!A8)</f>
         <v/>
@@ -27040,7 +27045,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="69" t="str">
         <f>IF('6438A_2'!A9="", "", '6438A_2'!A9)</f>
         <v/>
@@ -27070,7 +27075,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="69" t="str">
         <f>IF('6438A_2'!A10="", "", '6438A_2'!A10)</f>
         <v/>
@@ -27100,7 +27105,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="69" t="str">
         <f>IF('6438A_2'!A11="", "", '6438A_2'!A11)</f>
         <v>triangle_10pad</v>
@@ -27111,15 +27116,15 @@
       </c>
       <c r="C104" s="79">
         <f>IF('6438A_2'!C11="", "", '6438A_2'!C11)</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="D104" s="79">
         <f>IF('6438A_2'!D11="", "", '6438A_2'!D11)</f>
-        <v>237.712812921102</v>
+        <v>-237.712812921102</v>
       </c>
       <c r="E104" s="79">
         <f>IF('6438A_2'!E11="", "", '6438A_2'!E11)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F104" s="79">
         <f>IF('6438A_2'!F11="", "", '6438A_2'!F11)</f>
@@ -27130,7 +27135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="69" t="str">
         <f>IF('6438A_2'!A12="", "", '6438A_2'!A12)</f>
         <v/>
@@ -27160,7 +27165,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="69" t="str">
         <f>IF('6438A_2'!A13="", "", '6438A_2'!A13)</f>
         <v/>
@@ -27190,7 +27195,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="69" t="str">
         <f>IF('6438A_2'!A14="", "", '6438A_2'!A14)</f>
         <v/>
@@ -27220,7 +27225,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="69" t="str">
         <f>IF('6438A_2'!A15="", "", '6438A_2'!A15)</f>
         <v/>
@@ -27250,7 +27255,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="69" t="str">
         <f>IF('6438A_2'!A16="", "", '6438A_2'!A16)</f>
         <v/>
@@ -27280,7 +27285,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="69" t="str">
         <f>IF('6438A_2'!A17="", "", '6438A_2'!A17)</f>
         <v/>
@@ -27310,7 +27315,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="69" t="str">
         <f>IF('6438A_2'!A18="", "", '6438A_2'!A18)</f>
         <v/>
@@ -27340,7 +27345,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="69" t="str">
         <f>IF('6438A_2'!A19="", "", '6438A_2'!A19)</f>
         <v/>
@@ -27370,7 +27375,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="69" t="str">
         <f>IF('6438A_2'!A20="", "", '6438A_2'!A20)</f>
         <v/>
@@ -27400,7 +27405,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="69" t="str">
         <f>IF('6438A_2'!A21="", "", '6438A_2'!A21)</f>
         <v/>
@@ -27430,7 +27435,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="69" t="str">
         <f>IF('6438A_2'!A22="", "", '6438A_2'!A22)</f>
         <v/>
@@ -27460,7 +27465,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="69" t="str">
         <f>IF('6438A_2'!A23="", "", '6438A_2'!A23)</f>
         <v/>
@@ -27490,7 +27495,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="str">
         <f>IF('6438A_2'!A24="", "", '6438A_2'!A24)</f>
         <v/>
@@ -27520,7 +27525,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="69" t="str">
         <f>IF('6438A_2'!A25="", "", '6438A_2'!A25)</f>
         <v/>
@@ -27550,7 +27555,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="69" t="str">
         <f>IF('6438A_2'!A26="", "", '6438A_2'!A26)</f>
         <v/>
@@ -27580,7 +27585,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="73" t="str">
         <f>IF('4535A'!A3="", "", '4535A'!A3)</f>
         <v>triangle_10pad</v>
@@ -27591,11 +27596,11 @@
       </c>
       <c r="C120" s="80">
         <f>IF('4535A'!C3="", "", '4535A'!C3)</f>
-        <v>164.39745962155615</v>
+        <v>-85.602540378443848</v>
       </c>
       <c r="D120" s="80">
         <f>IF('4535A'!D3="", "", '4535A'!D3)</f>
-        <v>357.6025403784439</v>
+        <v>-22.397459621556102</v>
       </c>
       <c r="E120" s="80">
         <f>IF('4535A'!E3="", "", '4535A'!E3)</f>
@@ -27610,7 +27615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="73" t="str">
         <f>IF('4535A'!A4="", "", '4535A'!A4)</f>
         <v>triangle_10pad</v>
@@ -27621,11 +27626,11 @@
       </c>
       <c r="C121" s="80">
         <f>IF('4535A'!C4="", "", '4535A'!C4)</f>
-        <v>148.39745962155615</v>
+        <v>-101.60254037844385</v>
       </c>
       <c r="D121" s="80">
         <f>IF('4535A'!D4="", "", '4535A'!D4)</f>
-        <v>366.84014468547792</v>
+        <v>-13.15985531452209</v>
       </c>
       <c r="E121" s="80">
         <f>IF('4535A'!E4="", "", '4535A'!E4)</f>
@@ -27640,7 +27645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="73" t="str">
         <f>IF('4535A'!A5="", "", '4535A'!A5)</f>
         <v>triangle_10pad</v>
@@ -27651,11 +27656,11 @@
       </c>
       <c r="C122" s="80">
         <f>IF('4535A'!C5="", "", '4535A'!C5)</f>
-        <v>148.39745962155615</v>
+        <v>-101.60254037844385</v>
       </c>
       <c r="D122" s="80">
         <f>IF('4535A'!D5="", "", '4535A'!D5)</f>
-        <v>385.3153532995459</v>
+        <v>5.3153532995459329</v>
       </c>
       <c r="E122" s="80">
         <f>IF('4535A'!E5="", "", '4535A'!E5)</f>
@@ -27670,7 +27675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="73" t="str">
         <f>IF('4535A'!A6="", "", '4535A'!A6)</f>
         <v/>
@@ -27700,7 +27705,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="73" t="str">
         <f>IF('4535A'!A7="", "", '4535A'!A7)</f>
         <v/>
@@ -27730,7 +27735,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="73" t="str">
         <f>IF('4535A'!A8="", "", '4535A'!A8)</f>
         <v/>
@@ -27760,7 +27765,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="73" t="str">
         <f>IF('4535A'!A9="", "", '4535A'!A9)</f>
         <v/>
@@ -27790,7 +27795,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="73" t="str">
         <f>IF('4535A'!A10="", "", '4535A'!A10)</f>
         <v/>
@@ -27820,7 +27825,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="73" t="str">
         <f>IF('4535A'!A11="", "", '4535A'!A11)</f>
         <v>triangle_10pad</v>
@@ -27831,11 +27836,11 @@
       </c>
       <c r="C128" s="80">
         <f>IF('4535A'!C11="", "", '4535A'!C11)</f>
-        <v>132.39745962155621</v>
+        <v>-117.60254037844379</v>
       </c>
       <c r="D128" s="80">
         <f>IF('4535A'!D11="", "", '4535A'!D11)</f>
-        <v>357.6025403784439</v>
+        <v>-22.397459621556081</v>
       </c>
       <c r="E128" s="80">
         <f>IF('4535A'!E11="", "", '4535A'!E11)</f>
@@ -27850,7 +27855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="73" t="str">
         <f>IF('4535A'!A12="", "", '4535A'!A12)</f>
         <v>triangle_10pad</v>
@@ -27861,11 +27866,11 @@
       </c>
       <c r="C129" s="80">
         <f>IF('4535A'!C12="", "", '4535A'!C12)</f>
-        <v>116.39745962155621</v>
+        <v>-133.60254037844379</v>
       </c>
       <c r="D129" s="80">
         <f>IF('4535A'!D12="", "", '4535A'!D12)</f>
-        <v>366.84014468547792</v>
+        <v>-13.159855314522062</v>
       </c>
       <c r="E129" s="80">
         <f>IF('4535A'!E12="", "", '4535A'!E12)</f>
@@ -27880,7 +27885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="73" t="str">
         <f>IF('4535A'!A13="", "", '4535A'!A13)</f>
         <v>triangle_10pad</v>
@@ -27891,11 +27896,11 @@
       </c>
       <c r="C130" s="80">
         <f>IF('4535A'!C13="", "", '4535A'!C13)</f>
-        <v>100.39745962155621</v>
+        <v>-149.60254037844379</v>
       </c>
       <c r="D130" s="80">
         <f>IF('4535A'!D13="", "", '4535A'!D13)</f>
-        <v>357.6025403784439</v>
+        <v>-22.397459621556067</v>
       </c>
       <c r="E130" s="80">
         <f>IF('4535A'!E13="", "", '4535A'!E13)</f>
@@ -27910,7 +27915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="73" t="str">
         <f>IF('4535A'!A14="", "", '4535A'!A14)</f>
         <v>triangle_10pad</v>
@@ -27921,11 +27926,11 @@
       </c>
       <c r="C131" s="80">
         <f>IF('4535A'!C14="", "", '4535A'!C14)</f>
-        <v>100.39745962155624</v>
+        <v>-149.60254037844376</v>
       </c>
       <c r="D131" s="80">
         <f>IF('4535A'!D14="", "", '4535A'!D14)</f>
-        <v>339.12733176437592</v>
+        <v>-40.872668235624062</v>
       </c>
       <c r="E131" s="80">
         <f>IF('4535A'!E14="", "", '4535A'!E14)</f>
@@ -27940,7 +27945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="73" t="str">
         <f>IF('4535A'!A15="", "", '4535A'!A15)</f>
         <v>triangle_10pad</v>
@@ -27951,11 +27956,11 @@
       </c>
       <c r="C132" s="80">
         <f>IF('4535A'!C15="", "", '4535A'!C15)</f>
-        <v>84.397459621556237</v>
+        <v>-165.60254037844376</v>
       </c>
       <c r="D132" s="80">
         <f>IF('4535A'!D15="", "", '4535A'!D15)</f>
-        <v>329.88972745734191</v>
+        <v>-50.110272542658066</v>
       </c>
       <c r="E132" s="80">
         <f>IF('4535A'!E15="", "", '4535A'!E15)</f>
@@ -27970,7 +27975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="73" t="str">
         <f>IF('4535A'!A16="", "", '4535A'!A16)</f>
         <v/>
@@ -28000,7 +28005,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="73" t="str">
         <f>IF('4535A'!A17="", "", '4535A'!A17)</f>
         <v/>
@@ -28030,7 +28035,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="73" t="str">
         <f>IF('4535A'!A18="", "", '4535A'!A18)</f>
         <v/>
@@ -28060,7 +28065,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="73" t="str">
         <f>IF('4535A'!A19="", "", '4535A'!A19)</f>
         <v>triangle_10pad</v>
@@ -28071,11 +28076,11 @@
       </c>
       <c r="C136" s="80">
         <f>IF('4535A'!C19="", "", '4535A'!C19)</f>
-        <v>116.39745962155621</v>
+        <v>-133.60254037844379</v>
       </c>
       <c r="D136" s="80">
         <f>IF('4535A'!D19="", "", '4535A'!D19)</f>
-        <v>329.88972745734191</v>
+        <v>-50.110272542658095</v>
       </c>
       <c r="E136" s="80">
         <f>IF('4535A'!E19="", "", '4535A'!E19)</f>
@@ -28090,7 +28095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="73" t="str">
         <f>IF('4535A'!A20="", "", '4535A'!A20)</f>
         <v/>
@@ -28120,7 +28125,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="73" t="str">
         <f>IF('4535A'!A21="", "", '4535A'!A21)</f>
         <v/>
@@ -28150,7 +28155,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="73" t="str">
         <f>IF('4535A'!A22="", "", '4535A'!A22)</f>
         <v/>
@@ -28180,7 +28185,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="73" t="str">
         <f>IF('4535A'!A23="", "", '4535A'!A23)</f>
         <v>triangle_10pad</v>
@@ -28191,11 +28196,11 @@
       </c>
       <c r="C140" s="80">
         <f>IF('4535A'!C23="", "", '4535A'!C23)</f>
-        <v>132.39745962155621</v>
+        <v>-117.60254037844379</v>
       </c>
       <c r="D140" s="80">
         <f>IF('4535A'!D23="", "", '4535A'!D23)</f>
-        <v>339.12733176437592</v>
+        <v>-40.87266823562409</v>
       </c>
       <c r="E140" s="80">
         <f>IF('4535A'!E23="", "", '4535A'!E23)</f>
@@ -28210,7 +28215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="73" t="str">
         <f>IF('4535A'!A24="", "", '4535A'!A24)</f>
         <v>triangle_10pad</v>
@@ -28221,11 +28226,11 @@
       </c>
       <c r="C141" s="80">
         <f>IF('4535A'!C24="", "", '4535A'!C24)</f>
-        <v>148.39745962155618</v>
+        <v>-101.60254037844382</v>
       </c>
       <c r="D141" s="80">
         <f>IF('4535A'!D24="", "", '4535A'!D24)</f>
-        <v>329.88972745734191</v>
+        <v>-50.110272542658123</v>
       </c>
       <c r="E141" s="80">
         <f>IF('4535A'!E24="", "", '4535A'!E24)</f>
@@ -28240,7 +28245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="73" t="str">
         <f>IF('4535A'!A25="", "", '4535A'!A25)</f>
         <v>triangle_10pad</v>
@@ -28251,11 +28256,11 @@
       </c>
       <c r="C142" s="80">
         <f>IF('4535A'!C25="", "", '4535A'!C25)</f>
-        <v>164.39745962155615</v>
+        <v>-85.602540378443848</v>
       </c>
       <c r="D142" s="80">
         <f>IF('4535A'!D25="", "", '4535A'!D25)</f>
-        <v>339.12733176437587</v>
+        <v>-40.872668235624133</v>
       </c>
       <c r="E142" s="80">
         <f>IF('4535A'!E25="", "", '4535A'!E25)</f>
@@ -28270,7 +28275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="73" t="str">
         <f>IF('4535A'!A26="", "", '4535A'!A26)</f>
         <v/>
@@ -28300,7 +28305,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="72" t="str">
         <f>IF('4616A'!A3="", "", '4616A'!A3)</f>
         <v>triangle_10pad</v>
@@ -28311,11 +28316,11 @@
       </c>
       <c r="C144" s="81">
         <f>IF('4616A'!C3="", "", '4616A'!C3)</f>
-        <v>132.39745962155615</v>
+        <v>-115.60254037844385</v>
       </c>
       <c r="D144" s="81">
         <f>IF('4616A'!D3="", "", '4616A'!D3)</f>
-        <v>397.6025403784439</v>
+        <v>15.602540378443877</v>
       </c>
       <c r="E144" s="81">
         <f>IF('4616A'!E3="", "", '4616A'!E3)</f>
@@ -28330,7 +28335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="72" t="str">
         <f>IF('4616A'!A4="", "", '4616A'!A4)</f>
         <v>triangle_10pad</v>
@@ -28341,11 +28346,11 @@
       </c>
       <c r="C145" s="81">
         <f>IF('4616A'!C4="", "", '4616A'!C4)</f>
-        <v>132.39745962155615</v>
+        <v>-115.60254037844383</v>
       </c>
       <c r="D145" s="81">
         <f>IF('4616A'!D4="", "", '4616A'!D4)</f>
-        <v>416.07774899251189</v>
+        <v>34.077748992511886</v>
       </c>
       <c r="E145" s="81">
         <f>IF('4616A'!E4="", "", '4616A'!E4)</f>
@@ -28360,7 +28365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="72" t="str">
         <f>IF('4616A'!A5="", "", '4616A'!A5)</f>
         <v/>
@@ -28390,7 +28395,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="72" t="str">
         <f>IF('4616A'!A6="", "", '4616A'!A6)</f>
         <v/>
@@ -28420,7 +28425,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="72" t="str">
         <f>IF('4616A'!A7="", "", '4616A'!A7)</f>
         <v/>
@@ -28450,7 +28455,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="72" t="str">
         <f>IF('4616A'!A8="", "", '4616A'!A8)</f>
         <v/>
@@ -28480,7 +28485,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="72" t="str">
         <f>IF('4616A'!A9="", "", '4616A'!A9)</f>
         <v/>
@@ -28510,7 +28515,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="72" t="str">
         <f>IF('4616A'!A10="", "", '4616A'!A10)</f>
         <v/>
@@ -28540,7 +28545,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="72" t="str">
         <f>IF('4616A'!A11="", "", '4616A'!A11)</f>
         <v>triangle_10pad</v>
@@ -28551,11 +28556,11 @@
       </c>
       <c r="C152" s="81">
         <f>IF('4616A'!C11="", "", '4616A'!C11)</f>
-        <v>116.39745962155619</v>
+        <v>-131.60254037844379</v>
       </c>
       <c r="D152" s="81">
         <f>IF('4616A'!D11="", "", '4616A'!D11)</f>
-        <v>425.3153532995459</v>
+        <v>43.315353299545905</v>
       </c>
       <c r="E152" s="81">
         <f>IF('4616A'!E11="", "", '4616A'!E11)</f>
@@ -28570,7 +28575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="72" t="str">
         <f>IF('4616A'!A12="", "", '4616A'!A12)</f>
         <v>triangle_10pad</v>
@@ -28581,11 +28586,11 @@
       </c>
       <c r="C153" s="81">
         <f>IF('4616A'!C12="", "", '4616A'!C12)</f>
-        <v>116.39745962155621</v>
+        <v>-131.60254037844379</v>
       </c>
       <c r="D153" s="81">
         <f>IF('4616A'!D12="", "", '4616A'!D12)</f>
-        <v>443.79056191361389</v>
+        <v>61.790561913613885</v>
       </c>
       <c r="E153" s="81">
         <f>IF('4616A'!E12="", "", '4616A'!E12)</f>
@@ -28600,7 +28605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="72" t="str">
         <f>IF('4616A'!A13="", "", '4616A'!A13)</f>
         <v/>
@@ -28630,7 +28635,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="72" t="str">
         <f>IF('4616A'!A14="", "", '4616A'!A14)</f>
         <v>triangle_10pad</v>
@@ -28641,11 +28646,11 @@
       </c>
       <c r="C155" s="81">
         <f>IF('4616A'!C14="", "", '4616A'!C14)</f>
-        <v>84.397459621556251</v>
+        <v>-163.60254037844373</v>
       </c>
       <c r="D155" s="81">
         <f>IF('4616A'!D14="", "", '4616A'!D14)</f>
-        <v>443.79056191361389</v>
+        <v>61.790561913613885</v>
       </c>
       <c r="E155" s="81">
         <f>IF('4616A'!E14="", "", '4616A'!E14)</f>
@@ -28660,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="72" t="str">
         <f>IF('4616A'!A15="", "", '4616A'!A15)</f>
         <v>triangle_10pad</v>
@@ -28671,11 +28676,11 @@
       </c>
       <c r="C156" s="81">
         <f>IF('4616A'!C15="", "", '4616A'!C15)</f>
-        <v>68.397459621556251</v>
+        <v>-179.60254037844373</v>
       </c>
       <c r="D156" s="81">
         <f>IF('4616A'!D15="", "", '4616A'!D15)</f>
-        <v>453.0281662206479</v>
+        <v>71.028166220647904</v>
       </c>
       <c r="E156" s="81">
         <f>IF('4616A'!E15="", "", '4616A'!E15)</f>
@@ -28690,7 +28695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="72" t="str">
         <f>IF('4616A'!A16="", "", '4616A'!A16)</f>
         <v/>
@@ -28720,7 +28725,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="72" t="str">
         <f>IF('4616A'!A17="", "", '4616A'!A17)</f>
         <v/>
@@ -28750,7 +28755,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="72" t="str">
         <f>IF('4616A'!A18="", "", '4616A'!A18)</f>
         <v/>
@@ -28780,7 +28785,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="72" t="str">
         <f>IF('4616A'!A19="", "", '4616A'!A19)</f>
         <v>triangle_10pad</v>
@@ -28791,11 +28796,11 @@
       </c>
       <c r="C160" s="81">
         <f>IF('4616A'!C19="", "", '4616A'!C19)</f>
-        <v>84.397459621556223</v>
+        <v>-163.60254037844379</v>
       </c>
       <c r="D160" s="81">
         <f>IF('4616A'!D19="", "", '4616A'!D19)</f>
-        <v>425.3153532995459</v>
+        <v>43.315353299545876</v>
       </c>
       <c r="E160" s="81">
         <f>IF('4616A'!E19="", "", '4616A'!E19)</f>
@@ -28810,7 +28815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="72" t="str">
         <f>IF('4616A'!A20="", "", '4616A'!A20)</f>
         <v/>
@@ -28840,7 +28845,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="72" t="str">
         <f>IF('4616A'!A21="", "", '4616A'!A21)</f>
         <v/>
@@ -28870,7 +28875,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="72" t="str">
         <f>IF('4616A'!A22="", "", '4616A'!A22)</f>
         <v/>
@@ -28900,7 +28905,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="72" t="str">
         <f>IF('4616A'!A23="", "", '4616A'!A23)</f>
         <v>triangle_10pad</v>
@@ -28911,11 +28916,11 @@
       </c>
       <c r="C164" s="81">
         <f>IF('4616A'!C23="", "", '4616A'!C23)</f>
-        <v>100.39745962155621</v>
+        <v>-147.60254037844379</v>
       </c>
       <c r="D164" s="81">
         <f>IF('4616A'!D23="", "", '4616A'!D23)</f>
-        <v>416.07774899251189</v>
+        <v>34.077748992511886</v>
       </c>
       <c r="E164" s="81">
         <f>IF('4616A'!E23="", "", '4616A'!E23)</f>
@@ -28930,7 +28935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="72" t="str">
         <f>IF('4616A'!A24="", "", '4616A'!A24)</f>
         <v>triangle_10pad</v>
@@ -28941,11 +28946,11 @@
       </c>
       <c r="C165" s="81">
         <f>IF('4616A'!C24="", "", '4616A'!C24)</f>
-        <v>100.39745962155618</v>
+        <v>-147.60254037844382</v>
       </c>
       <c r="D165" s="81">
         <f>IF('4616A'!D24="", "", '4616A'!D24)</f>
-        <v>397.60254037844385</v>
+        <v>15.602540378443848</v>
       </c>
       <c r="E165" s="81">
         <f>IF('4616A'!E24="", "", '4616A'!E24)</f>
@@ -28960,7 +28965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="72" t="str">
         <f>IF('4616A'!A25="", "", '4616A'!A25)</f>
         <v>triangle_10pad</v>
@@ -28971,11 +28976,11 @@
       </c>
       <c r="C166" s="81">
         <f>IF('4616A'!C25="", "", '4616A'!C25)</f>
-        <v>116.39745962155615</v>
+        <v>-131.60254037844385</v>
       </c>
       <c r="D166" s="81">
         <f>IF('4616A'!D25="", "", '4616A'!D25)</f>
-        <v>388.36493607140983</v>
+        <v>6.3649360714098577</v>
       </c>
       <c r="E166" s="81">
         <f>IF('4616A'!E25="", "", '4616A'!E25)</f>
@@ -28990,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="70" t="str">
         <f>IF('4616A'!A26="", "", '4616A'!A26)</f>
         <v/>
@@ -29030,11 +29035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
